--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8995B32-6FAA-9A4F-889A-62807FE31BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3683800-0E65-2441-84F7-A1B802DEF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -2750,7 +2750,7 @@
   <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="Not Started"/>
+        <filter val="Solved"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3064,9 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4917,7 +4917,9 @@
       <c r="G73" s="5">
         <v>46024</v>
       </c>
-      <c r="H73" s="5"/>
+      <c r="H73" s="5">
+        <v>46030</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5">
         <v>46023</v>
@@ -4930,10 +4932,10 @@
       <c r="N73" s="5"/>
       <c r="O73">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5221,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -5293,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -5317,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -5341,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -5437,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -5509,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5677,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>108</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5773,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5893,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>118</v>
       </c>
@@ -5977,7 +5979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>125</v>
       </c>
@@ -6121,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>126</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>127</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>130</v>
       </c>
@@ -6193,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>133</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>134</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -6289,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -6313,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -6337,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -6361,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -6385,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6433,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>148</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>149</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>150</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>152</v>
       </c>
@@ -6553,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>154</v>
       </c>
@@ -6577,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>155</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>156</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>157</v>
       </c>
@@ -6649,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>158</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>159</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>161</v>
       </c>
@@ -6759,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>162</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>163</v>
       </c>
@@ -6807,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>164</v>
       </c>
@@ -6831,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>165</v>
       </c>
@@ -6855,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>166</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>167</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>168</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>170</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>171</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>172</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>173</v>
       </c>
@@ -7047,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>174</v>
       </c>
@@ -7068,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>175</v>
       </c>
@@ -7092,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>176</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>177</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>178</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>179</v>
       </c>
@@ -7188,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>180</v>
       </c>
@@ -7212,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>181</v>
       </c>
@@ -7236,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>182</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>183</v>
       </c>
@@ -7284,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>184</v>
       </c>
@@ -7322,7 +7324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>185</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>186</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>187</v>
       </c>
@@ -7394,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>188</v>
       </c>
@@ -7418,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>189</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>190</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>191</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>192</v>
       </c>
@@ -7526,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>193</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>194</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>195</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>196</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>197</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>198</v>
       </c>
@@ -7670,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7694,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>203</v>
       </c>
@@ -7790,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>204</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>205</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>206</v>
       </c>
@@ -7862,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>207</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>208</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>209</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>210</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>211</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>212</v>
       </c>
@@ -8006,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>213</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>214</v>
       </c>
@@ -8054,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>215</v>
       </c>
@@ -8078,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>216</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>217</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>218</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>219</v>
       </c>
@@ -8174,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>220</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>221</v>
       </c>
@@ -8222,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>222</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>223</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>224</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>225</v>
       </c>
@@ -8330,7 +8332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>226</v>
       </c>
@@ -8354,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>227</v>
       </c>
@@ -8378,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>228</v>
       </c>
@@ -8402,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>229</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>230</v>
       </c>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>231</v>
       </c>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>232</v>
       </c>
@@ -8498,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>233</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>234</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>235</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>236</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>237</v>
       </c>
@@ -8618,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>238</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>240</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>241</v>
       </c>
@@ -8714,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>242</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>243</v>
       </c>
@@ -8762,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>244</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>245</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>246</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>247</v>
       </c>
@@ -8858,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>248</v>
       </c>
@@ -8882,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>249</v>
       </c>
@@ -8906,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>250</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>251</v>
       </c>
@@ -8954,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>252</v>
       </c>
@@ -8978,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>253</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>254</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>255</v>
       </c>
@@ -9050,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>256</v>
       </c>
@@ -9074,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>257</v>
       </c>
@@ -9098,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>258</v>
       </c>
@@ -9122,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>259</v>
       </c>
@@ -9146,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>260</v>
       </c>
@@ -9170,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>261</v>
       </c>
@@ -9194,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>262</v>
       </c>
@@ -9218,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>263</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>264</v>
       </c>
@@ -9266,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>265</v>
       </c>
@@ -9290,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>266</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>267</v>
       </c>
@@ -9338,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>268</v>
       </c>
@@ -9362,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>269</v>
       </c>
@@ -9386,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>270</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>271</v>
       </c>
@@ -9434,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>272</v>
       </c>
@@ -9458,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>273</v>
       </c>
@@ -9482,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>274</v>
       </c>
@@ -9506,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>275</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>276</v>
       </c>
@@ -9554,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>277</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>278</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>279</v>
       </c>
@@ -9626,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>280</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>281</v>
       </c>
@@ -9674,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>282</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>283</v>
       </c>
@@ -9722,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>284</v>
       </c>
@@ -9746,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>285</v>
       </c>
@@ -9770,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>286</v>
       </c>
@@ -9794,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>287</v>
       </c>
@@ -9818,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>288</v>
       </c>
@@ -9842,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>289</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>290</v>
       </c>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>291</v>
       </c>
@@ -9914,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>292</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>293</v>
       </c>
@@ -9962,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>294</v>
       </c>
@@ -9986,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>295</v>
       </c>
@@ -10010,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>296</v>
       </c>
@@ -10034,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>297</v>
       </c>
@@ -10058,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>298</v>
       </c>
@@ -10082,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>299</v>
       </c>
@@ -10106,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>300</v>
       </c>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>301</v>
       </c>
@@ -10154,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>302</v>
       </c>
@@ -10178,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>303</v>
       </c>
@@ -10202,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>304</v>
       </c>
@@ -10226,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>305</v>
       </c>
@@ -10250,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>306</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>307</v>
       </c>
@@ -10298,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>308</v>
       </c>
@@ -10322,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>309</v>
       </c>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>310</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311</v>
       </c>
@@ -10394,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>312</v>
       </c>
@@ -10418,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>313</v>
       </c>
@@ -10442,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>314</v>
       </c>
@@ -10466,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>315</v>
       </c>
@@ -10490,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>316</v>
       </c>
@@ -10514,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>317</v>
       </c>
@@ -10538,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>318</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>319</v>
       </c>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>320</v>
       </c>
@@ -10610,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>321</v>
       </c>
@@ -10634,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>322</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>323</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>324</v>
       </c>
@@ -10706,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>325</v>
       </c>
@@ -10730,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>326</v>
       </c>
@@ -10754,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>327</v>
       </c>
@@ -10778,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>328</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>329</v>
       </c>
@@ -10826,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>330</v>
       </c>
@@ -10850,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>331</v>
       </c>
@@ -10874,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>332</v>
       </c>
@@ -10895,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>333</v>
       </c>
@@ -10919,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>334</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -10967,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>336</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>337</v>
       </c>
@@ -11015,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>338</v>
       </c>
@@ -11039,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>339</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>340</v>
       </c>
@@ -11087,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>341</v>
       </c>
@@ -11111,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>342</v>
       </c>
@@ -11135,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>343</v>
       </c>
@@ -11159,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>344</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>345</v>
       </c>
@@ -11207,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>346</v>
       </c>
@@ -11231,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>347</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>348</v>
       </c>
@@ -11279,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>349</v>
       </c>
@@ -11303,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>350</v>
       </c>
@@ -11327,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>351</v>
       </c>
@@ -11351,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>353</v>
       </c>
@@ -11399,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>354</v>
       </c>
@@ -11423,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>355</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>356</v>
       </c>
@@ -11471,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -11495,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -11519,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>359</v>
       </c>
@@ -11543,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>360</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>361</v>
       </c>
@@ -11591,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -11615,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -11639,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>364</v>
       </c>
@@ -11663,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>365</v>
       </c>
@@ -11687,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>366</v>
       </c>
@@ -11711,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>367</v>
       </c>
@@ -11735,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>368</v>
       </c>
@@ -11759,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>369</v>
       </c>
@@ -11783,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>370</v>
       </c>
@@ -11807,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>371</v>
       </c>
@@ -11831,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>372</v>
       </c>
@@ -11855,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>373</v>
       </c>
@@ -11879,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>374</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>375</v>
       </c>
@@ -11927,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>376</v>
       </c>
@@ -11951,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>377</v>
       </c>
@@ -11975,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>378</v>
       </c>
@@ -11999,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>379</v>
       </c>
@@ -12023,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>380</v>
       </c>
@@ -12047,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>381</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>382</v>
       </c>
@@ -12095,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>383</v>
       </c>
@@ -12119,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>384</v>
       </c>
@@ -12143,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>385</v>
       </c>
@@ -12167,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>386</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>388</v>
       </c>
@@ -12215,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>389</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>390</v>
       </c>
@@ -12263,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>391</v>
       </c>
@@ -12287,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>392</v>
       </c>
@@ -12311,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>393</v>
       </c>
@@ -12335,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>394</v>
       </c>
@@ -12359,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>395</v>
       </c>
@@ -12383,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>396</v>
       </c>
@@ -12407,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>397</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>398</v>
       </c>
@@ -12455,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>399</v>
       </c>
@@ -12479,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>400</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>401</v>
       </c>
@@ -12527,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>402</v>
       </c>
@@ -12551,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>403</v>
       </c>
@@ -12575,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>404</v>
       </c>
@@ -12599,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>405</v>
       </c>
@@ -12623,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>406</v>
       </c>
@@ -12647,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>407</v>
       </c>
@@ -12671,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>408</v>
       </c>
@@ -12695,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>409</v>
       </c>
@@ -12719,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>410</v>
       </c>
@@ -12743,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>411</v>
       </c>
@@ -12767,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>412</v>
       </c>
@@ -12791,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>413</v>
       </c>
@@ -12815,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>414</v>
       </c>
@@ -12839,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>415</v>
       </c>
@@ -12863,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>416</v>
       </c>
@@ -12887,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>417</v>
       </c>
@@ -12911,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>418</v>
       </c>
@@ -12935,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>419</v>
       </c>
@@ -12959,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>420</v>
       </c>
@@ -12983,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>421</v>
       </c>
@@ -13007,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>422</v>
       </c>
@@ -13031,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>423</v>
       </c>
@@ -13055,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>424</v>
       </c>
@@ -13079,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>425</v>
       </c>
@@ -13103,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>426</v>
       </c>
@@ -13127,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>427</v>
       </c>
@@ -13151,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>428</v>
       </c>
@@ -13175,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>429</v>
       </c>
@@ -13199,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>430</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>431</v>
       </c>
@@ -13247,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>432</v>
       </c>
@@ -13271,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>433</v>
       </c>
@@ -13295,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>434</v>
       </c>
@@ -13319,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>435</v>
       </c>
@@ -13343,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>436</v>
       </c>
@@ -13367,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>437</v>
       </c>
@@ -13391,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>438</v>
       </c>
@@ -13415,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>439</v>
       </c>
@@ -13439,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>440</v>
       </c>
@@ -13460,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>441</v>
       </c>
@@ -13484,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>442</v>
       </c>
@@ -13508,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>443</v>
       </c>
@@ -13532,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>444</v>
       </c>
@@ -13556,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>446</v>
       </c>
@@ -13580,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>447</v>
       </c>
@@ -13604,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>448</v>
       </c>
@@ -13628,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>449</v>
       </c>
@@ -13652,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>450</v>
       </c>
@@ -13676,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>451</v>
       </c>
@@ -13700,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>452</v>
       </c>
@@ -13724,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>453</v>
       </c>
@@ -13748,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>454</v>
       </c>
@@ -13772,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>455</v>
       </c>
@@ -13796,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>456</v>
       </c>
@@ -13820,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>457</v>
       </c>
@@ -13844,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>458</v>
       </c>
@@ -13868,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>459</v>
       </c>
@@ -13892,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>460</v>
       </c>
@@ -13916,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>461</v>
       </c>
@@ -13940,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>462</v>
       </c>
@@ -13964,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>463</v>
       </c>
@@ -13988,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>464</v>
       </c>
@@ -14012,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>465</v>
       </c>
@@ -14036,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>466</v>
       </c>
@@ -14060,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>468</v>
       </c>
@@ -14084,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>469</v>
       </c>
@@ -14108,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>470</v>
       </c>
@@ -14132,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>471</v>
       </c>
@@ -14156,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>472</v>
       </c>
@@ -14180,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>473</v>
       </c>
@@ -14204,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>474</v>
       </c>
@@ -14228,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>475</v>
       </c>
@@ -14252,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>476</v>
       </c>
@@ -14276,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>477</v>
       </c>
@@ -14300,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>478</v>
       </c>
@@ -14324,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>479</v>
       </c>
@@ -14348,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>480</v>
       </c>
@@ -14372,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>481</v>
       </c>
@@ -14396,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>482</v>
       </c>
@@ -14420,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>483</v>
       </c>
@@ -14444,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>484</v>
       </c>
@@ -14468,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>485</v>
       </c>
@@ -14492,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>486</v>
       </c>
@@ -14516,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>487</v>
       </c>
@@ -14540,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>488</v>
       </c>
@@ -14564,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>489</v>
       </c>
@@ -14588,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>490</v>
       </c>
@@ -14612,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>491</v>
       </c>
@@ -14636,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>492</v>
       </c>
@@ -14660,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>493</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>494</v>
       </c>
@@ -14708,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>495</v>
       </c>
@@ -14732,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>496</v>
       </c>
@@ -14756,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>497</v>
       </c>
@@ -14780,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>498</v>
       </c>
@@ -14804,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>499</v>
       </c>
@@ -14828,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>500</v>
       </c>
@@ -14852,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>501</v>
       </c>
@@ -14876,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>502</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>503</v>
       </c>
@@ -14924,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>504</v>
       </c>
@@ -14948,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>505</v>
       </c>
@@ -14972,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>506</v>
       </c>
@@ -14996,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>507</v>
       </c>
@@ -15020,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>508</v>
       </c>
@@ -15044,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>509</v>
       </c>
@@ -15068,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>510</v>
       </c>
@@ -15092,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>511</v>
       </c>
@@ -15116,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>512</v>
       </c>
@@ -15140,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>513</v>
       </c>
@@ -15164,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>514</v>
       </c>
@@ -15188,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>515</v>
       </c>
@@ -15212,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>516</v>
       </c>
@@ -15236,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>517</v>
       </c>
@@ -15260,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>518</v>
       </c>
@@ -15284,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>519</v>
       </c>
@@ -15308,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>520</v>
       </c>
@@ -15332,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>521</v>
       </c>
@@ -15356,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>522</v>
       </c>
@@ -15380,7 +15382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>523</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>524</v>
       </c>
@@ -15425,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>525</v>
       </c>
@@ -15449,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>526</v>
       </c>
@@ -15473,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>527</v>
       </c>
@@ -15497,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>528</v>
       </c>
@@ -15521,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>529</v>
       </c>
@@ -15545,7 +15547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>530</v>
       </c>
@@ -15569,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>532</v>
       </c>
@@ -15593,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>533</v>
       </c>
@@ -15617,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>534</v>
       </c>
@@ -15641,7 +15643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>535</v>
       </c>
@@ -15665,7 +15667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>536</v>
       </c>
@@ -15689,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>537</v>
       </c>
@@ -15713,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>538</v>
       </c>
@@ -15737,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>539</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>540</v>
       </c>
@@ -15785,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>541</v>
       </c>
@@ -15809,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>542</v>
       </c>
@@ -15833,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>543</v>
       </c>
@@ -15857,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>544</v>
       </c>
@@ -15881,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>545</v>
       </c>
@@ -15905,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>546</v>
       </c>
@@ -15929,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>547</v>
       </c>
@@ -15953,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>548</v>
       </c>
@@ -15977,7 +15979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>549</v>
       </c>
@@ -16001,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -16025,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>551</v>
       </c>
@@ -16049,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>552</v>
       </c>
@@ -16073,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>553</v>
       </c>
@@ -16097,7 +16099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>554</v>
       </c>
@@ -16121,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>555</v>
       </c>
@@ -16145,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>556</v>
       </c>
@@ -16169,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>557</v>
       </c>
@@ -16193,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>558</v>
       </c>
@@ -16217,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>559</v>
       </c>
@@ -16241,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>561</v>
       </c>
@@ -16265,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>562</v>
       </c>
@@ -16289,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>563</v>
       </c>
@@ -16313,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>564</v>
       </c>
@@ -16337,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>565</v>
       </c>
@@ -16361,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>566</v>
       </c>
@@ -16385,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>567</v>
       </c>
@@ -16409,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>568</v>
       </c>
@@ -16433,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>569</v>
       </c>
@@ -16457,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>570</v>
       </c>
@@ -16481,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>572</v>
       </c>
@@ -16505,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>573</v>
       </c>
@@ -16529,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>574</v>
       </c>
@@ -16553,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>575</v>
       </c>
@@ -16577,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>576</v>
       </c>
@@ -16601,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>577</v>
       </c>
@@ -16625,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>578</v>
       </c>
@@ -16649,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>579</v>
       </c>
@@ -16673,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>581</v>
       </c>
@@ -16697,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>582</v>
       </c>
@@ -16721,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>584</v>
       </c>
@@ -16745,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>586</v>
       </c>
@@ -16769,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>587</v>
       </c>
@@ -16793,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>588</v>
       </c>
@@ -16817,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>589</v>
       </c>
@@ -16841,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>590</v>
       </c>
@@ -16865,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>591</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>592</v>
       </c>
@@ -16913,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>593</v>
       </c>
@@ -16937,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>594</v>
       </c>
@@ -16961,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>595</v>
       </c>
@@ -16985,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>596</v>
       </c>
@@ -17009,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>597</v>
       </c>
@@ -17033,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>598</v>
       </c>
@@ -17057,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>599</v>
       </c>
@@ -17081,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>600</v>
       </c>
@@ -17105,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>601</v>
       </c>
@@ -17129,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>602</v>
       </c>
@@ -17153,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>603</v>
       </c>
@@ -17177,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>604</v>
       </c>
@@ -17201,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>605</v>
       </c>
@@ -17225,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>606</v>
       </c>
@@ -17249,7 +17251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>607</v>
       </c>
@@ -17273,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>608</v>
       </c>
@@ -17297,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>609</v>
       </c>
@@ -17321,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>611</v>
       </c>
@@ -17345,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>612</v>
       </c>
@@ -17369,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>613</v>
       </c>
@@ -17393,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>614</v>
       </c>
@@ -17417,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>615</v>
       </c>
@@ -17441,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>616</v>
       </c>
@@ -17465,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>617</v>
       </c>
@@ -17489,7 +17491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>619</v>
       </c>
@@ -17513,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>620</v>
       </c>
@@ -17537,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>621</v>
       </c>
@@ -17561,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>622</v>
       </c>
@@ -17585,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>623</v>
       </c>
@@ -17609,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>624</v>
       </c>
@@ -17633,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>625</v>
       </c>
@@ -17657,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>626</v>
       </c>
@@ -17681,7 +17683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>627</v>
       </c>
@@ -17705,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>628</v>
       </c>
@@ -17729,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>629</v>
       </c>
@@ -17753,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>630</v>
       </c>
@@ -17777,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>631</v>
       </c>
@@ -17801,7 +17803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>632</v>
       </c>
@@ -17825,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>633</v>
       </c>
@@ -17849,7 +17851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>634</v>
       </c>
@@ -17873,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>635</v>
       </c>
@@ -17897,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>636</v>
       </c>
@@ -17921,7 +17923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>637</v>
       </c>
@@ -17945,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>638</v>
       </c>
@@ -17969,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>639</v>
       </c>
@@ -17993,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>640</v>
       </c>
@@ -18017,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>641</v>
       </c>
@@ -18041,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>642</v>
       </c>
@@ -18065,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>643</v>
       </c>
@@ -18089,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>644</v>
       </c>
@@ -18113,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>645</v>
       </c>
@@ -18137,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>646</v>
       </c>
@@ -18161,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>647</v>
       </c>
@@ -18185,7 +18187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>649</v>
       </c>
@@ -18209,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>650</v>
       </c>
@@ -18233,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>651</v>
       </c>
@@ -18257,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>652</v>
       </c>
@@ -18281,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>653</v>
       </c>
@@ -18305,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>654</v>
       </c>
@@ -18329,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>655</v>
       </c>
@@ -18353,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>657</v>
       </c>
@@ -18377,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>658</v>
       </c>
@@ -18401,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>659</v>
       </c>
@@ -18425,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>660</v>
       </c>
@@ -18449,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>661</v>
       </c>
@@ -18473,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>662</v>
       </c>
@@ -18497,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>664</v>
       </c>
@@ -18521,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>665</v>
       </c>
@@ -18545,7 +18547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>666</v>
       </c>
@@ -18569,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>667</v>
       </c>
@@ -18593,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>668</v>
       </c>
@@ -18617,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>669</v>
       </c>
@@ -18641,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>670</v>
       </c>
@@ -18665,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>671</v>
       </c>
@@ -18689,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>672</v>
       </c>
@@ -18713,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>673</v>
       </c>
@@ -18737,7 +18739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>674</v>
       </c>
@@ -18761,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>675</v>
       </c>
@@ -18785,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>676</v>
       </c>
@@ -18809,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>677</v>
       </c>
@@ -18833,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>678</v>
       </c>
@@ -18857,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>679</v>
       </c>
@@ -18881,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>680</v>
       </c>
@@ -18905,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>681</v>
       </c>
@@ -18929,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>682</v>
       </c>
@@ -18953,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>683</v>
       </c>
@@ -18977,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>684</v>
       </c>
@@ -19001,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>685</v>
       </c>
@@ -19025,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>686</v>
       </c>
@@ -19049,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>687</v>
       </c>
@@ -19073,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>688</v>
       </c>
@@ -19097,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>689</v>
       </c>
@@ -19121,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>690</v>
       </c>
@@ -19145,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>691</v>
       </c>
@@ -19169,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>692</v>
       </c>
@@ -19193,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>693</v>
       </c>
@@ -19217,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>694</v>
       </c>
@@ -19241,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>696</v>
       </c>
@@ -19265,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>697</v>
       </c>
@@ -19289,7 +19291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>698</v>
       </c>
@@ -19313,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>699</v>
       </c>
@@ -19337,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>700</v>
       </c>
@@ -19361,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>701</v>
       </c>
@@ -19385,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>702</v>
       </c>
@@ -19409,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>703</v>
       </c>
@@ -19433,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>704</v>
       </c>
@@ -19457,7 +19459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>705</v>
       </c>
@@ -19481,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>706</v>
       </c>
@@ -19505,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>707</v>
       </c>
@@ -19529,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>708</v>
       </c>
@@ -19553,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>709</v>
       </c>
@@ -19577,7 +19579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>710</v>
       </c>
@@ -19601,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>711</v>
       </c>
@@ -19625,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>712</v>
       </c>
@@ -19649,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>713</v>
       </c>
@@ -19673,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>714</v>
       </c>
@@ -19697,7 +19699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>715</v>
       </c>
@@ -19721,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>716</v>
       </c>
@@ -19745,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>717</v>
       </c>
@@ -19769,7 +19771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>718</v>
       </c>
@@ -19793,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>719</v>
       </c>
@@ -19817,7 +19819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>720</v>
       </c>
@@ -19841,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>721</v>
       </c>
@@ -19865,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>722</v>
       </c>
@@ -19889,7 +19891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>723</v>
       </c>
@@ -19913,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>724</v>
       </c>
@@ -19937,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>725</v>
       </c>
@@ -19961,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>726</v>
       </c>
@@ -19985,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>727</v>
       </c>
@@ -20009,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>728</v>
       </c>
@@ -20033,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>729</v>
       </c>
@@ -20057,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>730</v>
       </c>
@@ -20081,7 +20083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>731</v>
       </c>
@@ -20105,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>732</v>
       </c>
@@ -20129,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>733</v>
       </c>
@@ -20153,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>734</v>
       </c>
@@ -20177,7 +20179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>735</v>
       </c>
@@ -20201,7 +20203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>736</v>
       </c>
@@ -20225,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>737</v>
       </c>
@@ -20249,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>738</v>
       </c>
@@ -20273,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>739</v>
       </c>
@@ -20297,7 +20299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>740</v>
       </c>
@@ -20321,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>741</v>
       </c>
@@ -20345,7 +20347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>742</v>
       </c>
@@ -20369,7 +20371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>743</v>
       </c>
@@ -20393,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>744</v>
       </c>
@@ -20417,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>745</v>
       </c>
@@ -20441,7 +20443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>746</v>
       </c>
@@ -20465,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>747</v>
       </c>
@@ -20489,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>748</v>
       </c>
@@ -20513,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>749</v>
       </c>
@@ -20537,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750</v>
       </c>
@@ -20561,7 +20563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>751</v>
       </c>
@@ -20585,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>752</v>
       </c>
@@ -20609,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>753</v>
       </c>
@@ -20633,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>754</v>
       </c>
@@ -20657,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>755</v>
       </c>
@@ -20681,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>756</v>
       </c>
@@ -20705,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>757</v>
       </c>
@@ -20729,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>758</v>
       </c>
@@ -20753,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>759</v>
       </c>
@@ -20777,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>760</v>
       </c>
@@ -20801,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>761</v>
       </c>
@@ -20825,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>763</v>
       </c>
@@ -20849,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>764</v>
       </c>
@@ -20873,7 +20875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>765</v>
       </c>
@@ -20897,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>766</v>
       </c>
@@ -20921,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>767</v>
       </c>
@@ -20945,7 +20947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>768</v>
       </c>
@@ -20969,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>769</v>
       </c>
@@ -20993,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>770</v>
       </c>
@@ -21017,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>771</v>
       </c>
@@ -21041,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>772</v>
       </c>
@@ -21065,7 +21067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>773</v>
       </c>
@@ -21089,7 +21091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>775</v>
       </c>
@@ -21113,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>776</v>
       </c>
@@ -21137,7 +21139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>777</v>
       </c>
@@ -21161,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>778</v>
       </c>
@@ -21185,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>779</v>
       </c>
@@ -21209,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>780</v>
       </c>
@@ -21233,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>781</v>
       </c>
@@ -21257,7 +21259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>782</v>
       </c>
@@ -21281,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>783</v>
       </c>
@@ -21305,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>784</v>
       </c>
@@ -21329,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>785</v>
       </c>
@@ -21353,7 +21355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>786</v>
       </c>
@@ -21377,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>787</v>
       </c>
@@ -21401,7 +21403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>788</v>
       </c>
@@ -21425,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>789</v>
       </c>
@@ -21449,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>790</v>
       </c>
@@ -21473,7 +21475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>791</v>
       </c>
@@ -21497,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>792</v>
       </c>
@@ -21521,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>793</v>
       </c>
@@ -21545,7 +21547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>794</v>
       </c>
@@ -21569,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>795</v>
       </c>
@@ -21593,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>796</v>
       </c>
@@ -21617,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>797</v>
       </c>
@@ -21641,7 +21643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>798</v>
       </c>
@@ -21665,7 +21667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>799</v>
       </c>
@@ -21689,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>800</v>
       </c>
@@ -21713,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>801</v>
       </c>
@@ -21737,7 +21739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>802</v>
       </c>
@@ -21761,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>803</v>
       </c>
@@ -21785,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>804</v>
       </c>
@@ -21809,7 +21811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>805</v>
       </c>
@@ -21833,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>806</v>
       </c>
@@ -21857,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>807</v>
       </c>
@@ -21881,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>808</v>
       </c>
@@ -21905,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>809</v>
       </c>
@@ -21929,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>810</v>
       </c>
@@ -21953,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>811</v>
       </c>
@@ -21977,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>812</v>
       </c>
@@ -22001,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>813</v>
       </c>
@@ -22025,7 +22027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>814</v>
       </c>
@@ -22049,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>815</v>
       </c>
@@ -22073,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>816</v>
       </c>
@@ -22097,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>817</v>
       </c>
@@ -22121,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>818</v>
       </c>
@@ -22145,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>819</v>
       </c>
@@ -22169,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>820</v>
       </c>
@@ -22193,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>821</v>
       </c>
@@ -22217,7 +22219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>822</v>
       </c>
@@ -22241,7 +22243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>823</v>
       </c>
@@ -22265,7 +22267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>824</v>
       </c>
@@ -22289,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>825</v>
       </c>
@@ -22313,7 +22315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>826</v>
       </c>
@@ -22337,7 +22339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>827</v>
       </c>
@@ -22361,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>828</v>
       </c>
@@ -22385,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>829</v>
       </c>
@@ -22409,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>830</v>
       </c>
@@ -22433,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>831</v>
       </c>
@@ -22457,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>832</v>
       </c>
@@ -22481,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>833</v>
       </c>
@@ -22505,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>834</v>
       </c>
@@ -22529,7 +22531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>835</v>
       </c>
@@ -22553,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>836</v>
       </c>
@@ -22577,7 +22579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>837</v>
       </c>
@@ -22601,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>839</v>
       </c>
@@ -22625,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>840</v>
       </c>
@@ -22649,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>841</v>
       </c>
@@ -22670,7 +22672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>842</v>
       </c>
@@ -22694,7 +22696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>843</v>
       </c>
@@ -22718,7 +22720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>844</v>
       </c>
@@ -22742,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>845</v>
       </c>
@@ -22766,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>846</v>
       </c>
@@ -22790,7 +22792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>847</v>
       </c>
@@ -22814,7 +22816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>848</v>
       </c>
@@ -22838,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>849</v>
       </c>
@@ -22862,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>850</v>
       </c>
@@ -22886,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>851</v>
       </c>
@@ -22910,7 +22912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>852</v>
       </c>
@@ -22934,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>854</v>
       </c>
@@ -22958,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>855</v>
       </c>
@@ -22982,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>856</v>
       </c>
@@ -23006,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>857</v>
       </c>
@@ -23030,7 +23032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>858</v>
       </c>
@@ -23054,7 +23056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>859</v>
       </c>
@@ -23078,7 +23080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>860</v>
       </c>
@@ -23102,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>861</v>
       </c>
@@ -23126,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>862</v>
       </c>
@@ -23150,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>863</v>
       </c>
@@ -23174,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>864</v>
       </c>
@@ -23198,7 +23200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>865</v>
       </c>
@@ -23222,7 +23224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>866</v>
       </c>
@@ -23246,7 +23248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>867</v>
       </c>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>868</v>
       </c>
@@ -23294,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>869</v>
       </c>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>871</v>
       </c>
@@ -23342,7 +23344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>872</v>
       </c>
@@ -23366,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>873</v>
       </c>
@@ -23390,7 +23392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>874</v>
       </c>
@@ -23414,7 +23416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>875</v>
       </c>
@@ -23438,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>876</v>
       </c>
@@ -23462,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>877</v>
       </c>
@@ -23486,7 +23488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>878</v>
       </c>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>880</v>
       </c>
@@ -23534,7 +23536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>881</v>
       </c>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>882</v>
       </c>
@@ -23582,7 +23584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>883</v>
       </c>
@@ -23606,7 +23608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>884</v>
       </c>
@@ -23630,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>885</v>
       </c>
@@ -23654,7 +23656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>886</v>
       </c>
@@ -23678,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>887</v>
       </c>
@@ -23702,7 +23704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>888</v>
       </c>
@@ -23726,7 +23728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>889</v>
       </c>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>890</v>
       </c>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>891</v>
       </c>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>892</v>
       </c>
@@ -23822,7 +23824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>893</v>
       </c>
@@ -23846,7 +23848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>895</v>
       </c>
@@ -23870,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>897</v>
       </c>
@@ -23894,7 +23896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>898</v>
       </c>
@@ -23918,7 +23920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>899</v>
       </c>
@@ -23942,7 +23944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>900</v>
       </c>
@@ -23966,7 +23968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>901</v>
       </c>
@@ -23990,7 +23992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>902</v>
       </c>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>903</v>
       </c>
@@ -24038,7 +24040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>904</v>
       </c>
@@ -24062,7 +24064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>905</v>
       </c>
@@ -24086,7 +24088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>906</v>
       </c>
@@ -24110,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>907</v>
       </c>
@@ -24134,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>908</v>
       </c>
@@ -24158,7 +24160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>909</v>
       </c>
@@ -24182,7 +24184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>910</v>
       </c>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>911</v>
       </c>
@@ -24230,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>912</v>
       </c>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>913</v>
       </c>
@@ -24278,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>914</v>
       </c>
@@ -24302,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>915</v>
       </c>
@@ -24326,7 +24328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>916</v>
       </c>
@@ -24350,7 +24352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>917</v>
       </c>
@@ -24374,7 +24376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>918</v>
       </c>
@@ -24398,7 +24400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>919</v>
       </c>
@@ -24422,7 +24424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>920</v>
       </c>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>921</v>
       </c>
@@ -24470,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>922</v>
       </c>
@@ -24494,7 +24496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>923</v>
       </c>
@@ -24518,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>924</v>
       </c>
@@ -24542,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>925</v>
       </c>
@@ -24566,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>926</v>
       </c>
@@ -24590,7 +24592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>927</v>
       </c>
@@ -24614,7 +24616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>928</v>
       </c>
@@ -24638,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>929</v>
       </c>
@@ -24662,7 +24664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>930</v>
       </c>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>931</v>
       </c>
@@ -24710,7 +24712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>932</v>
       </c>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>933</v>
       </c>
@@ -24758,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>934</v>
       </c>
@@ -24782,7 +24784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>935</v>
       </c>
@@ -24806,7 +24808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>936</v>
       </c>
@@ -24830,7 +24832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>937</v>
       </c>
@@ -24854,7 +24856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>938</v>
       </c>
@@ -24878,7 +24880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>939</v>
       </c>
@@ -24902,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>940</v>
       </c>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>941</v>
       </c>
@@ -24950,7 +24952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>942</v>
       </c>
@@ -24974,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>943</v>
       </c>
@@ -24998,7 +25000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>944</v>
       </c>
@@ -25022,7 +25024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>945</v>
       </c>
@@ -25046,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>946</v>
       </c>
@@ -25070,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>947</v>
       </c>
@@ -25094,7 +25096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>949</v>
       </c>
@@ -25118,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>950</v>
       </c>
@@ -25142,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>951</v>
       </c>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>952</v>
       </c>
@@ -25190,7 +25192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>953</v>
       </c>
@@ -25214,7 +25216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>954</v>
       </c>
@@ -25238,7 +25240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>955</v>
       </c>
@@ -25262,7 +25264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>956</v>
       </c>
@@ -25286,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>957</v>
       </c>
@@ -25310,7 +25312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>958</v>
       </c>
@@ -25334,7 +25336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>959</v>
       </c>
@@ -25358,7 +25360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>960</v>
       </c>
@@ -25382,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>961</v>
       </c>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>962</v>
       </c>
@@ -25430,7 +25432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>963</v>
       </c>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>964</v>
       </c>
@@ -25478,7 +25480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>965</v>
       </c>
@@ -25502,7 +25504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>967</v>
       </c>
@@ -25526,7 +25528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>968</v>
       </c>
@@ -25550,7 +25552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>969</v>
       </c>
@@ -25574,7 +25576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>970</v>
       </c>
@@ -25598,7 +25600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>971</v>
       </c>
@@ -25622,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>972</v>
       </c>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>973</v>
       </c>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>974</v>
       </c>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>975</v>
       </c>
@@ -25718,7 +25720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>976</v>
       </c>
@@ -25742,7 +25744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>977</v>
       </c>
@@ -25766,7 +25768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>978</v>
       </c>
@@ -25790,7 +25792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>979</v>
       </c>
@@ -25814,7 +25816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>980</v>
       </c>
@@ -25838,7 +25840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>981</v>
       </c>
@@ -25862,7 +25864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>982</v>
       </c>
@@ -25886,7 +25888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>983</v>
       </c>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>984</v>
       </c>
@@ -25934,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>985</v>
       </c>
@@ -25958,7 +25960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>986</v>
       </c>
@@ -25982,7 +25984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>987</v>
       </c>
@@ -26006,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>988</v>
       </c>
@@ -26030,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>989</v>
       </c>
@@ -26054,7 +26056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>990</v>
       </c>
@@ -26078,7 +26080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>991</v>
       </c>
@@ -26102,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>992</v>
       </c>
@@ -26126,7 +26128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>993</v>
       </c>
@@ -26150,7 +26152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>994</v>
       </c>
@@ -26174,7 +26176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>995</v>
       </c>
@@ -26198,7 +26200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>996</v>
       </c>
@@ -26222,7 +26224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>997</v>
       </c>
@@ -26246,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>998</v>
       </c>
@@ -26270,7 +26272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>999</v>
       </c>
@@ -26294,7 +26296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1000</v>
       </c>
@@ -26318,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1001</v>
       </c>
@@ -26342,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1002</v>
       </c>
@@ -26366,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1003</v>
       </c>
@@ -26390,7 +26392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1004</v>
       </c>
@@ -26414,7 +26416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1005</v>
       </c>
@@ -26438,7 +26440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1006</v>
       </c>
@@ -26462,7 +26464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1007</v>
       </c>
@@ -26486,7 +26488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1008</v>
       </c>
@@ -26510,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1009</v>
       </c>
@@ -26534,7 +26536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1010</v>
       </c>
@@ -26558,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1011</v>
       </c>
@@ -26582,7 +26584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1013</v>
       </c>
@@ -26606,7 +26608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1014</v>
       </c>
@@ -26630,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1015</v>
       </c>
@@ -26654,7 +26656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1016</v>
       </c>
@@ -26678,7 +26680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1018</v>
       </c>
@@ -26702,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1019</v>
       </c>
@@ -26726,7 +26728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1020</v>
       </c>
@@ -26750,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1021</v>
       </c>
@@ -26774,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1022</v>
       </c>
@@ -26798,7 +26800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1023</v>
       </c>
@@ -26822,7 +26824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1024</v>
       </c>
@@ -26846,7 +26848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1025</v>
       </c>
@@ -26870,7 +26872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1026</v>
       </c>
@@ -26894,7 +26896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1027</v>
       </c>
@@ -26918,7 +26920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1028</v>
       </c>
@@ -26942,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1029</v>
       </c>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1030</v>
       </c>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1031</v>
       </c>
@@ -27014,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1032</v>
       </c>
@@ -27038,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1033</v>
       </c>
@@ -27062,7 +27064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1034</v>
       </c>
@@ -27086,7 +27088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1035</v>
       </c>
@@ -27110,7 +27112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1036</v>
       </c>
@@ -27134,7 +27136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1037</v>
       </c>
@@ -27158,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1038</v>
       </c>
@@ -27182,7 +27184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1039</v>
       </c>
@@ -27206,7 +27208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1040</v>
       </c>
@@ -27230,7 +27232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1041</v>
       </c>
@@ -27254,7 +27256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1042</v>
       </c>
@@ -27278,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1043</v>
       </c>
@@ -27302,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1044</v>
       </c>
@@ -27326,7 +27328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1045</v>
       </c>
@@ -27347,7 +27349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1046</v>
       </c>
@@ -27371,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1047</v>
       </c>
@@ -27395,7 +27397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1048</v>
       </c>
@@ -27419,7 +27421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1049</v>
       </c>
@@ -27443,7 +27445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1050</v>
       </c>
@@ -27467,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1051</v>
       </c>
@@ -27491,7 +27493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1052</v>
       </c>
@@ -27515,7 +27517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1053</v>
       </c>
@@ -27539,7 +27541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1054</v>
       </c>
@@ -27563,7 +27565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1055</v>
       </c>
@@ -27587,7 +27589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1056</v>
       </c>
@@ -27611,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1057</v>
       </c>
@@ -27635,7 +27637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1058</v>
       </c>
@@ -27659,7 +27661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1059</v>
       </c>
@@ -27683,7 +27685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1060</v>
       </c>
@@ -27707,7 +27709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1061</v>
       </c>
@@ -27731,7 +27733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1062</v>
       </c>
@@ -27755,7 +27757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1063</v>
       </c>
@@ -27779,7 +27781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1064</v>
       </c>
@@ -27803,7 +27805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1065</v>
       </c>
@@ -27827,7 +27829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1066</v>
       </c>
@@ -27851,7 +27853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1068</v>
       </c>
@@ -27875,7 +27877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1069</v>
       </c>
@@ -27899,7 +27901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1070</v>
       </c>
@@ -27923,7 +27925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1071</v>
       </c>
@@ -27947,7 +27949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1072</v>
       </c>
@@ -27971,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1073</v>
       </c>
@@ -27995,7 +27997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1074</v>
       </c>
@@ -28019,7 +28021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1075</v>
       </c>
@@ -28043,7 +28045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1076</v>
       </c>
@@ -28067,7 +28069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1077</v>
       </c>
@@ -28091,7 +28093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1078</v>
       </c>
@@ -28115,7 +28117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1079</v>
       </c>
@@ -28139,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1080</v>
       </c>
@@ -28163,7 +28165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1082</v>
       </c>
@@ -28187,7 +28189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1083</v>
       </c>
@@ -28211,7 +28213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1084</v>
       </c>
@@ -28235,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1085</v>
       </c>
@@ -28259,7 +28261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1086</v>
       </c>
@@ -28283,7 +28285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1087</v>
       </c>
@@ -28307,7 +28309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1088</v>
       </c>
@@ -28331,7 +28333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1089</v>
       </c>
@@ -28355,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1090</v>
       </c>
@@ -28379,7 +28381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1091</v>
       </c>
@@ -28403,7 +28405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1092</v>
       </c>
@@ -28427,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1093</v>
       </c>
@@ -28451,7 +28453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1094</v>
       </c>
@@ -28475,7 +28477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1095</v>
       </c>
@@ -28499,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1096</v>
       </c>
@@ -28523,7 +28525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1097</v>
       </c>
@@ -28547,7 +28549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1098</v>
       </c>
@@ -28571,7 +28573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1099</v>
       </c>
@@ -28595,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1100</v>
       </c>
@@ -28619,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1101</v>
       </c>
@@ -28643,7 +28645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1102</v>
       </c>
@@ -28667,7 +28669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1103</v>
       </c>
@@ -28691,7 +28693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1104</v>
       </c>
@@ -28715,7 +28717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1105</v>
       </c>
@@ -28739,7 +28741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1106</v>
       </c>
@@ -28763,7 +28765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1107</v>
       </c>
@@ -28787,7 +28789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1108</v>
       </c>
@@ -28811,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1109</v>
       </c>
@@ -28835,7 +28837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>1110</v>
       </c>
@@ -28871,7 +28873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1111</v>
       </c>
@@ -28895,7 +28897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1113</v>
       </c>
@@ -28919,7 +28921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1114</v>
       </c>
@@ -28943,7 +28945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1116</v>
       </c>
@@ -28967,7 +28969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1117</v>
       </c>
@@ -28991,7 +28993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1118</v>
       </c>
@@ -29015,7 +29017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1119</v>
       </c>
@@ -29039,7 +29041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1120</v>
       </c>
@@ -29063,7 +29065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1121</v>
       </c>
@@ -29087,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1122</v>
       </c>
@@ -29111,7 +29113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1123</v>
       </c>
@@ -29135,7 +29137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1124</v>
       </c>
@@ -29159,7 +29161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1125</v>
       </c>
@@ -29183,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1126</v>
       </c>
@@ -29207,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1127</v>
       </c>
@@ -29231,7 +29233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1128</v>
       </c>
@@ -29255,7 +29257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1129</v>
       </c>
@@ -29291,7 +29293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -29430,7 +29432,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.26315789473684209</v>
+        <v>0.25641025641025639</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29443,7 +29445,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
+        <v>0.10256410256410256</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29456,7 +29458,7 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29469,7 +29471,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29478,11 +29480,11 @@
       </c>
       <c r="B14">
         <f>COUNTA(Problems[JavaScript])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>7.8947368421052627E-2</v>
+        <v>0.10256410256410256</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29495,7 +29497,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>2.6315789473684209E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29508,7 +29510,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2.6315789473684209E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29521,7 +29523,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29530,7 +29532,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3683800-0E65-2441-84F7-A1B802DEF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77BF579-6549-8945-B1CD-020F2D2EE895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -3064,9 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+    <sheetView topLeftCell="E1" zoomScale="139" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4007,11 +4007,20 @@
         <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="G37" s="5">
+        <v>46031</v>
+      </c>
+      <c r="H37" s="5">
+        <v>46031</v>
+      </c>
+      <c r="J37" s="5">
+        <v>46031</v>
       </c>
       <c r="O37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -27873,7 +27882,7 @@
         <v>19</v>
       </c>
       <c r="O1026">
-        <f t="shared" ref="O1026:O1089" si="16">COUNTA(G1026:N1026)</f>
+        <f t="shared" ref="O1026:O1051" si="16">COUNTA(G1026:N1026)</f>
         <v>0</v>
       </c>
     </row>
@@ -29293,9 +29302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29336,15 +29343,15 @@
       </c>
       <c r="C3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Solved")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Not Started")</f>
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3" s="4">
         <f>IF(B3&gt;0,C3/B3,0)</f>
-        <v>3.9325842696629212E-2</v>
+        <v>4.2134831460674156E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -29399,15 +29406,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>1.3850415512465374E-2</v>
+        <v>1.4773776546629732E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29428,11 +29435,11 @@
       </c>
       <c r="B10">
         <f>COUNTA(Problems[Python])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.25641025641025639</v>
+        <v>0.26190476190476192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29445,7 +29452,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>0.10256410256410256</v>
+        <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29454,11 +29461,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29471,7 +29478,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>5.128205128205128E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29480,11 +29487,11 @@
       </c>
       <c r="B14">
         <f>COUNTA(Problems[JavaScript])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0.10256410256410256</v>
+        <v>0.11904761904761904</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29497,7 +29504,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>2.564102564102564E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29510,7 +29517,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2.564102564102564E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29523,7 +29530,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>5.128205128205128E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29532,7 +29539,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77BF579-6549-8945-B1CD-020F2D2EE895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07A729-0EF8-424E-9324-9329B3C2A6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -3064,9 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3264,11 +3264,17 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="G7" s="5">
+        <v>46032</v>
+      </c>
+      <c r="J7" s="5">
+        <v>46032</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -29302,7 +29308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29364,15 +29370,15 @@
       </c>
       <c r="C4">
         <f>COUNTIFS(Problems!B:B,"Medium",Problems!F:F,"Solved")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f>COUNTIFS(Problems!B:B,"Medium",Problems!F:F,"Not Started")</f>
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E4" s="4">
         <f>IF(B4&gt;0,C4/B4,0)</f>
-        <v>2.242152466367713E-3</v>
+        <v>4.4843049327354259E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -29406,15 +29412,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>1.4773776546629732E-2</v>
+        <v>1.569713758079409E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29435,11 +29441,11 @@
       </c>
       <c r="B10">
         <f>COUNTA(Problems[Python])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.26190476190476192</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29452,7 +29458,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29461,11 +29467,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.38095238095238093</v>
+        <v>0.38636363636363635</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29478,7 +29484,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29491,7 +29497,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0.11904761904761904</v>
+        <v>0.11363636363636363</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29504,7 +29510,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29517,7 +29523,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29530,7 +29536,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29539,7 +29545,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07A729-0EF8-424E-9324-9329B3C2A6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59077005-151E-714B-B10A-5DE0DA8555C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -2747,13 +2747,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9113E3AB-9A94-8748-8F61-9409DC6182C2}" name="Problems" displayName="Problems" ref="A1:O1084" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Solved"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{54C7E216-905B-6F41-86EB-AA874697E079}" name="Problem #"/>
     <tableColumn id="2" xr3:uid="{8B490E7E-7D92-AF45-862C-1DA57ACC6850}" name="Difficulty"/>
@@ -3064,9 +3058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3151,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3199,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3223,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3307,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3331,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3355,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3403,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3427,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3451,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3475,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3499,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3523,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3547,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3571,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3595,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3619,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3643,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3667,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3691,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3715,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3777,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3828,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3852,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3876,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3900,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3924,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3948,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3972,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4029,7 +4023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4053,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4101,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4125,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4183,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4207,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4231,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4286,7 +4280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4346,7 +4340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4370,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4394,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4418,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4442,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4466,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4490,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4514,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4538,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4562,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4586,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4610,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4634,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4658,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4682,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4706,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4730,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4754,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4778,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4838,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4862,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4886,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4935,7 +4929,9 @@
       <c r="H73" s="5">
         <v>46030</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5">
+        <v>46033</v>
+      </c>
       <c r="J73" s="5">
         <v>46023</v>
       </c>
@@ -4947,10 +4943,10 @@
       <c r="N73" s="5"/>
       <c r="O73">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4974,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4998,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5039,14 +5035,20 @@
         <v>185</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="G77" s="5">
+        <v>46033</v>
+      </c>
+      <c r="J77" s="5">
+        <v>46033</v>
       </c>
       <c r="O77">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5166,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5286,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -5526,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5622,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -6018,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -6066,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>125</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>126</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>127</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>130</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>133</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>134</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -6354,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -6426,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>148</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>149</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>150</v>
       </c>
@@ -6546,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>152</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>154</v>
       </c>
@@ -6594,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>155</v>
       </c>
@@ -6618,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>156</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>157</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>158</v>
       </c>
@@ -6728,7 +6730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>161</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>162</v>
       </c>
@@ -6800,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>163</v>
       </c>
@@ -6824,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>164</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>165</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>166</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>167</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>168</v>
       </c>
@@ -6944,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>170</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>171</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>172</v>
       </c>
@@ -7040,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>173</v>
       </c>
@@ -7064,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>174</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>175</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>176</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>177</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>178</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>179</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>180</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>181</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>182</v>
       </c>
@@ -7277,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>183</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>185</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>186</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>187</v>
       </c>
@@ -7411,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>188</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>190</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>191</v>
       </c>
@@ -7519,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>192</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>193</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>194</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>195</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>196</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>197</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>198</v>
       </c>
@@ -7687,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202</v>
       </c>
@@ -7783,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>203</v>
       </c>
@@ -7807,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>204</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>205</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>206</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>207</v>
       </c>
@@ -7903,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>208</v>
       </c>
@@ -7927,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>209</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>210</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>211</v>
       </c>
@@ -7999,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>212</v>
       </c>
@@ -8023,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>213</v>
       </c>
@@ -8047,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>214</v>
       </c>
@@ -8071,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>215</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>216</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>217</v>
       </c>
@@ -8143,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>218</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>219</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>220</v>
       </c>
@@ -8215,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>221</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>222</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>223</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>224</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>226</v>
       </c>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>227</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>228</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>229</v>
       </c>
@@ -8443,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>230</v>
       </c>
@@ -8467,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>231</v>
       </c>
@@ -8491,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>232</v>
       </c>
@@ -8515,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>233</v>
       </c>
@@ -8539,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>234</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>235</v>
       </c>
@@ -8587,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>236</v>
       </c>
@@ -8611,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>237</v>
       </c>
@@ -8635,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>238</v>
       </c>
@@ -8659,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
@@ -8683,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>240</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>241</v>
       </c>
@@ -8731,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>242</v>
       </c>
@@ -8755,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>243</v>
       </c>
@@ -8779,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>244</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>245</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>246</v>
       </c>
@@ -8851,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>247</v>
       </c>
@@ -8875,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>248</v>
       </c>
@@ -8899,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>249</v>
       </c>
@@ -8923,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>250</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>251</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>252</v>
       </c>
@@ -8995,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>253</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>254</v>
       </c>
@@ -9043,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>255</v>
       </c>
@@ -9067,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>256</v>
       </c>
@@ -9091,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>257</v>
       </c>
@@ -9115,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>258</v>
       </c>
@@ -9139,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>259</v>
       </c>
@@ -9163,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>260</v>
       </c>
@@ -9187,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>261</v>
       </c>
@@ -9211,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>262</v>
       </c>
@@ -9235,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>263</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>264</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>265</v>
       </c>
@@ -9307,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>266</v>
       </c>
@@ -9331,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>267</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>268</v>
       </c>
@@ -9379,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>269</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>270</v>
       </c>
@@ -9427,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>271</v>
       </c>
@@ -9451,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>272</v>
       </c>
@@ -9475,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>273</v>
       </c>
@@ -9499,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>274</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>275</v>
       </c>
@@ -9547,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>276</v>
       </c>
@@ -9571,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>277</v>
       </c>
@@ -9595,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>278</v>
       </c>
@@ -9619,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>279</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>280</v>
       </c>
@@ -9667,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>281</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>282</v>
       </c>
@@ -9715,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>283</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>284</v>
       </c>
@@ -9763,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>285</v>
       </c>
@@ -9787,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>286</v>
       </c>
@@ -9811,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>287</v>
       </c>
@@ -9835,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>288</v>
       </c>
@@ -9859,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>289</v>
       </c>
@@ -9883,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>290</v>
       </c>
@@ -9907,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>291</v>
       </c>
@@ -9931,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>292</v>
       </c>
@@ -9955,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>293</v>
       </c>
@@ -9979,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>294</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>295</v>
       </c>
@@ -10027,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>296</v>
       </c>
@@ -10051,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>297</v>
       </c>
@@ -10075,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>298</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>299</v>
       </c>
@@ -10123,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>300</v>
       </c>
@@ -10147,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>301</v>
       </c>
@@ -10171,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>302</v>
       </c>
@@ -10195,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>303</v>
       </c>
@@ -10219,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>304</v>
       </c>
@@ -10243,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>305</v>
       </c>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>306</v>
       </c>
@@ -10291,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>307</v>
       </c>
@@ -10315,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>308</v>
       </c>
@@ -10339,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>309</v>
       </c>
@@ -10363,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>310</v>
       </c>
@@ -10387,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311</v>
       </c>
@@ -10411,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>312</v>
       </c>
@@ -10435,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>313</v>
       </c>
@@ -10459,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>314</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>315</v>
       </c>
@@ -10507,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>316</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>317</v>
       </c>
@@ -10555,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>318</v>
       </c>
@@ -10579,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>319</v>
       </c>
@@ -10603,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>320</v>
       </c>
@@ -10627,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>321</v>
       </c>
@@ -10651,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>322</v>
       </c>
@@ -10675,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>323</v>
       </c>
@@ -10699,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>324</v>
       </c>
@@ -10723,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>325</v>
       </c>
@@ -10747,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>326</v>
       </c>
@@ -10771,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>327</v>
       </c>
@@ -10795,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>328</v>
       </c>
@@ -10819,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>329</v>
       </c>
@@ -10843,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>330</v>
       </c>
@@ -10867,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>331</v>
       </c>
@@ -10891,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>332</v>
       </c>
@@ -10912,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>333</v>
       </c>
@@ -10936,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>334</v>
       </c>
@@ -10960,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>336</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>337</v>
       </c>
@@ -11032,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>338</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>339</v>
       </c>
@@ -11080,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>340</v>
       </c>
@@ -11104,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>341</v>
       </c>
@@ -11128,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>342</v>
       </c>
@@ -11152,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>343</v>
       </c>
@@ -11176,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>344</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>345</v>
       </c>
@@ -11224,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>346</v>
       </c>
@@ -11248,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>347</v>
       </c>
@@ -11272,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>348</v>
       </c>
@@ -11296,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>349</v>
       </c>
@@ -11320,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>350</v>
       </c>
@@ -11344,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>351</v>
       </c>
@@ -11368,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>353</v>
       </c>
@@ -11416,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>354</v>
       </c>
@@ -11440,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>355</v>
       </c>
@@ -11464,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>356</v>
       </c>
@@ -11488,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -11512,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -11536,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>359</v>
       </c>
@@ -11560,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>360</v>
       </c>
@@ -11584,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>361</v>
       </c>
@@ -11608,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>364</v>
       </c>
@@ -11680,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>365</v>
       </c>
@@ -11704,7 +11706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>366</v>
       </c>
@@ -11728,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>367</v>
       </c>
@@ -11752,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>368</v>
       </c>
@@ -11776,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>369</v>
       </c>
@@ -11800,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>370</v>
       </c>
@@ -11824,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>371</v>
       </c>
@@ -11848,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>372</v>
       </c>
@@ -11872,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>373</v>
       </c>
@@ -11896,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>374</v>
       </c>
@@ -11920,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>375</v>
       </c>
@@ -11944,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>376</v>
       </c>
@@ -11968,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>377</v>
       </c>
@@ -11992,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>378</v>
       </c>
@@ -12016,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>379</v>
       </c>
@@ -12040,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>380</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>381</v>
       </c>
@@ -12088,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>382</v>
       </c>
@@ -12112,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>383</v>
       </c>
@@ -12136,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>384</v>
       </c>
@@ -12160,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>385</v>
       </c>
@@ -12184,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>386</v>
       </c>
@@ -12208,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>388</v>
       </c>
@@ -12232,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>389</v>
       </c>
@@ -12256,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>390</v>
       </c>
@@ -12280,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>391</v>
       </c>
@@ -12304,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>392</v>
       </c>
@@ -12328,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>393</v>
       </c>
@@ -12352,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>394</v>
       </c>
@@ -12376,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>395</v>
       </c>
@@ -12400,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>396</v>
       </c>
@@ -12424,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>397</v>
       </c>
@@ -12448,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>398</v>
       </c>
@@ -12472,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>399</v>
       </c>
@@ -12496,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>400</v>
       </c>
@@ -12520,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>401</v>
       </c>
@@ -12544,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>402</v>
       </c>
@@ -12568,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>403</v>
       </c>
@@ -12592,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>404</v>
       </c>
@@ -12616,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>405</v>
       </c>
@@ -12640,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>406</v>
       </c>
@@ -12664,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>407</v>
       </c>
@@ -12688,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>408</v>
       </c>
@@ -12712,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>409</v>
       </c>
@@ -12736,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>410</v>
       </c>
@@ -12760,7 +12762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>411</v>
       </c>
@@ -12784,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>412</v>
       </c>
@@ -12808,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>413</v>
       </c>
@@ -12832,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>414</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>415</v>
       </c>
@@ -12880,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>416</v>
       </c>
@@ -12904,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>417</v>
       </c>
@@ -12928,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>418</v>
       </c>
@@ -12952,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>419</v>
       </c>
@@ -12976,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>420</v>
       </c>
@@ -13000,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>421</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>422</v>
       </c>
@@ -13048,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>423</v>
       </c>
@@ -13072,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>424</v>
       </c>
@@ -13096,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>425</v>
       </c>
@@ -13120,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>426</v>
       </c>
@@ -13144,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>427</v>
       </c>
@@ -13168,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>428</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>429</v>
       </c>
@@ -13216,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>430</v>
       </c>
@@ -13240,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>431</v>
       </c>
@@ -13264,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>432</v>
       </c>
@@ -13288,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>433</v>
       </c>
@@ -13312,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>434</v>
       </c>
@@ -13336,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>435</v>
       </c>
@@ -13360,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>436</v>
       </c>
@@ -13384,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>437</v>
       </c>
@@ -13408,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>438</v>
       </c>
@@ -13432,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>439</v>
       </c>
@@ -13456,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>440</v>
       </c>
@@ -13477,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>441</v>
       </c>
@@ -13501,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>442</v>
       </c>
@@ -13525,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>443</v>
       </c>
@@ -13549,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>444</v>
       </c>
@@ -13573,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>446</v>
       </c>
@@ -13597,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>447</v>
       </c>
@@ -13621,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>448</v>
       </c>
@@ -13645,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>449</v>
       </c>
@@ -13669,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>450</v>
       </c>
@@ -13693,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>451</v>
       </c>
@@ -13717,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>452</v>
       </c>
@@ -13741,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>453</v>
       </c>
@@ -13765,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>454</v>
       </c>
@@ -13789,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>455</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>456</v>
       </c>
@@ -13837,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>457</v>
       </c>
@@ -13861,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>458</v>
       </c>
@@ -13885,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>459</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>460</v>
       </c>
@@ -13933,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>461</v>
       </c>
@@ -13957,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>462</v>
       </c>
@@ -13981,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>463</v>
       </c>
@@ -14005,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>464</v>
       </c>
@@ -14029,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>465</v>
       </c>
@@ -14053,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>466</v>
       </c>
@@ -14077,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>468</v>
       </c>
@@ -14101,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>469</v>
       </c>
@@ -14125,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>470</v>
       </c>
@@ -14149,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>471</v>
       </c>
@@ -14173,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>472</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>473</v>
       </c>
@@ -14221,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>474</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>475</v>
       </c>
@@ -14269,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>476</v>
       </c>
@@ -14293,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>477</v>
       </c>
@@ -14317,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>478</v>
       </c>
@@ -14341,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>479</v>
       </c>
@@ -14365,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>480</v>
       </c>
@@ -14389,7 +14391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>481</v>
       </c>
@@ -14413,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>482</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>483</v>
       </c>
@@ -14461,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>484</v>
       </c>
@@ -14485,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>485</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>486</v>
       </c>
@@ -14533,7 +14535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>487</v>
       </c>
@@ -14557,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>488</v>
       </c>
@@ -14581,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>489</v>
       </c>
@@ -14605,7 +14607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>490</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>491</v>
       </c>
@@ -14653,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>492</v>
       </c>
@@ -14677,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>493</v>
       </c>
@@ -14701,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>494</v>
       </c>
@@ -14725,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>495</v>
       </c>
@@ -14749,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>496</v>
       </c>
@@ -14773,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>497</v>
       </c>
@@ -14797,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>498</v>
       </c>
@@ -14821,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>499</v>
       </c>
@@ -14845,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>500</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>501</v>
       </c>
@@ -14893,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>502</v>
       </c>
@@ -14917,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>503</v>
       </c>
@@ -14941,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>504</v>
       </c>
@@ -14965,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>505</v>
       </c>
@@ -14989,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>506</v>
       </c>
@@ -15013,7 +15015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>507</v>
       </c>
@@ -15037,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>508</v>
       </c>
@@ -15061,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>509</v>
       </c>
@@ -15085,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>510</v>
       </c>
@@ -15109,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>511</v>
       </c>
@@ -15133,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>512</v>
       </c>
@@ -15157,7 +15159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>513</v>
       </c>
@@ -15181,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>514</v>
       </c>
@@ -15205,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>515</v>
       </c>
@@ -15229,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>516</v>
       </c>
@@ -15253,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>517</v>
       </c>
@@ -15277,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>518</v>
       </c>
@@ -15301,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>519</v>
       </c>
@@ -15325,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>520</v>
       </c>
@@ -15349,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>521</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>522</v>
       </c>
@@ -15397,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>523</v>
       </c>
@@ -15418,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>524</v>
       </c>
@@ -15442,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>525</v>
       </c>
@@ -15466,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>526</v>
       </c>
@@ -15490,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>527</v>
       </c>
@@ -15514,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>528</v>
       </c>
@@ -15538,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>529</v>
       </c>
@@ -15562,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>530</v>
       </c>
@@ -15586,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>532</v>
       </c>
@@ -15610,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>533</v>
       </c>
@@ -15634,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>534</v>
       </c>
@@ -15658,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>535</v>
       </c>
@@ -15682,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>536</v>
       </c>
@@ -15706,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>537</v>
       </c>
@@ -15730,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>538</v>
       </c>
@@ -15754,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>539</v>
       </c>
@@ -15778,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>540</v>
       </c>
@@ -15802,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>541</v>
       </c>
@@ -15826,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>542</v>
       </c>
@@ -15850,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>543</v>
       </c>
@@ -15874,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>544</v>
       </c>
@@ -15898,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>545</v>
       </c>
@@ -15922,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>546</v>
       </c>
@@ -15946,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>547</v>
       </c>
@@ -15970,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>548</v>
       </c>
@@ -15994,7 +15996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>549</v>
       </c>
@@ -16018,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -16042,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>551</v>
       </c>
@@ -16066,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>552</v>
       </c>
@@ -16090,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>553</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>554</v>
       </c>
@@ -16138,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>555</v>
       </c>
@@ -16162,7 +16164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>556</v>
       </c>
@@ -16186,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>557</v>
       </c>
@@ -16210,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>558</v>
       </c>
@@ -16234,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>559</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>561</v>
       </c>
@@ -16282,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>562</v>
       </c>
@@ -16306,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>563</v>
       </c>
@@ -16330,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>564</v>
       </c>
@@ -16354,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>565</v>
       </c>
@@ -16378,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>566</v>
       </c>
@@ -16402,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>567</v>
       </c>
@@ -16426,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>568</v>
       </c>
@@ -16450,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>569</v>
       </c>
@@ -16474,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>570</v>
       </c>
@@ -16498,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>572</v>
       </c>
@@ -16522,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>573</v>
       </c>
@@ -16546,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>574</v>
       </c>
@@ -16570,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>575</v>
       </c>
@@ -16594,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>576</v>
       </c>
@@ -16618,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>577</v>
       </c>
@@ -16642,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>578</v>
       </c>
@@ -16666,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>579</v>
       </c>
@@ -16690,7 +16692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>581</v>
       </c>
@@ -16714,7 +16716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>582</v>
       </c>
@@ -16738,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>584</v>
       </c>
@@ -16762,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>586</v>
       </c>
@@ -16786,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>587</v>
       </c>
@@ -16810,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>588</v>
       </c>
@@ -16834,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>589</v>
       </c>
@@ -16858,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>590</v>
       </c>
@@ -16882,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>591</v>
       </c>
@@ -16906,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>592</v>
       </c>
@@ -16930,7 +16932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>593</v>
       </c>
@@ -16954,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>594</v>
       </c>
@@ -16978,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>595</v>
       </c>
@@ -17002,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>596</v>
       </c>
@@ -17026,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>597</v>
       </c>
@@ -17050,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>598</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>599</v>
       </c>
@@ -17098,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>600</v>
       </c>
@@ -17122,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>601</v>
       </c>
@@ -17146,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>602</v>
       </c>
@@ -17170,7 +17172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>603</v>
       </c>
@@ -17194,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>604</v>
       </c>
@@ -17218,7 +17220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>605</v>
       </c>
@@ -17242,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>606</v>
       </c>
@@ -17266,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>607</v>
       </c>
@@ -17290,7 +17292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>608</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>609</v>
       </c>
@@ -17338,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>611</v>
       </c>
@@ -17362,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>612</v>
       </c>
@@ -17386,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>613</v>
       </c>
@@ -17410,7 +17412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>614</v>
       </c>
@@ -17434,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>615</v>
       </c>
@@ -17458,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>616</v>
       </c>
@@ -17482,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>617</v>
       </c>
@@ -17506,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>619</v>
       </c>
@@ -17530,7 +17532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>620</v>
       </c>
@@ -17554,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>621</v>
       </c>
@@ -17578,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>622</v>
       </c>
@@ -17602,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>623</v>
       </c>
@@ -17626,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>624</v>
       </c>
@@ -17650,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>625</v>
       </c>
@@ -17674,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>626</v>
       </c>
@@ -17698,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>627</v>
       </c>
@@ -17722,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>628</v>
       </c>
@@ -17746,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>629</v>
       </c>
@@ -17770,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>630</v>
       </c>
@@ -17794,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>631</v>
       </c>
@@ -17818,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>632</v>
       </c>
@@ -17842,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>633</v>
       </c>
@@ -17866,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>634</v>
       </c>
@@ -17890,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>635</v>
       </c>
@@ -17914,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>636</v>
       </c>
@@ -17938,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>637</v>
       </c>
@@ -17962,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>638</v>
       </c>
@@ -17986,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>639</v>
       </c>
@@ -18010,7 +18012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>640</v>
       </c>
@@ -18034,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>641</v>
       </c>
@@ -18058,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>642</v>
       </c>
@@ -18082,7 +18084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>643</v>
       </c>
@@ -18106,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>644</v>
       </c>
@@ -18130,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>645</v>
       </c>
@@ -18154,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>646</v>
       </c>
@@ -18178,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>647</v>
       </c>
@@ -18202,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>649</v>
       </c>
@@ -18226,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>650</v>
       </c>
@@ -18250,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>651</v>
       </c>
@@ -18274,7 +18276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>652</v>
       </c>
@@ -18298,7 +18300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>653</v>
       </c>
@@ -18322,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>654</v>
       </c>
@@ -18346,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>655</v>
       </c>
@@ -18370,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>657</v>
       </c>
@@ -18394,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>658</v>
       </c>
@@ -18418,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>659</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>660</v>
       </c>
@@ -18466,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>661</v>
       </c>
@@ -18490,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>662</v>
       </c>
@@ -18514,7 +18516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>664</v>
       </c>
@@ -18538,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>665</v>
       </c>
@@ -18562,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>666</v>
       </c>
@@ -18586,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>667</v>
       </c>
@@ -18610,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>668</v>
       </c>
@@ -18634,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>669</v>
       </c>
@@ -18658,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>670</v>
       </c>
@@ -18682,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>671</v>
       </c>
@@ -18706,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>672</v>
       </c>
@@ -18730,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>673</v>
       </c>
@@ -18754,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>674</v>
       </c>
@@ -18778,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>675</v>
       </c>
@@ -18802,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>676</v>
       </c>
@@ -18826,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>677</v>
       </c>
@@ -18850,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>678</v>
       </c>
@@ -18874,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>679</v>
       </c>
@@ -18898,7 +18900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>680</v>
       </c>
@@ -18922,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>681</v>
       </c>
@@ -18946,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>682</v>
       </c>
@@ -18970,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>683</v>
       </c>
@@ -18994,7 +18996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>684</v>
       </c>
@@ -19018,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>685</v>
       </c>
@@ -19042,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>686</v>
       </c>
@@ -19066,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>687</v>
       </c>
@@ -19090,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>688</v>
       </c>
@@ -19114,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>689</v>
       </c>
@@ -19138,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>690</v>
       </c>
@@ -19162,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>691</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>692</v>
       </c>
@@ -19210,7 +19212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>693</v>
       </c>
@@ -19234,7 +19236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>694</v>
       </c>
@@ -19258,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>696</v>
       </c>
@@ -19282,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>697</v>
       </c>
@@ -19306,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>698</v>
       </c>
@@ -19330,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>699</v>
       </c>
@@ -19354,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>700</v>
       </c>
@@ -19378,7 +19380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>701</v>
       </c>
@@ -19402,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>702</v>
       </c>
@@ -19426,7 +19428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>703</v>
       </c>
@@ -19450,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>704</v>
       </c>
@@ -19474,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>705</v>
       </c>
@@ -19498,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>706</v>
       </c>
@@ -19522,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>707</v>
       </c>
@@ -19546,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>708</v>
       </c>
@@ -19570,7 +19572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>709</v>
       </c>
@@ -19594,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>710</v>
       </c>
@@ -19618,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>711</v>
       </c>
@@ -19642,7 +19644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>712</v>
       </c>
@@ -19666,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>713</v>
       </c>
@@ -19690,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>714</v>
       </c>
@@ -19714,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>715</v>
       </c>
@@ -19738,7 +19740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>716</v>
       </c>
@@ -19762,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>717</v>
       </c>
@@ -19786,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>718</v>
       </c>
@@ -19810,7 +19812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>719</v>
       </c>
@@ -19834,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>720</v>
       </c>
@@ -19858,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>721</v>
       </c>
@@ -19882,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>722</v>
       </c>
@@ -19906,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>723</v>
       </c>
@@ -19930,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>724</v>
       </c>
@@ -19954,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>725</v>
       </c>
@@ -19978,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>726</v>
       </c>
@@ -20002,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>727</v>
       </c>
@@ -20026,7 +20028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>728</v>
       </c>
@@ -20050,7 +20052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>729</v>
       </c>
@@ -20074,7 +20076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>730</v>
       </c>
@@ -20098,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>731</v>
       </c>
@@ -20122,7 +20124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>732</v>
       </c>
@@ -20146,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>733</v>
       </c>
@@ -20170,7 +20172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>734</v>
       </c>
@@ -20194,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>735</v>
       </c>
@@ -20218,7 +20220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>736</v>
       </c>
@@ -20242,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>737</v>
       </c>
@@ -20266,7 +20268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>738</v>
       </c>
@@ -20290,7 +20292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>739</v>
       </c>
@@ -20314,7 +20316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>740</v>
       </c>
@@ -20338,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>741</v>
       </c>
@@ -20362,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>742</v>
       </c>
@@ -20386,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>743</v>
       </c>
@@ -20410,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>744</v>
       </c>
@@ -20434,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>745</v>
       </c>
@@ -20458,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>746</v>
       </c>
@@ -20482,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>747</v>
       </c>
@@ -20506,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>748</v>
       </c>
@@ -20530,7 +20532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>749</v>
       </c>
@@ -20554,7 +20556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750</v>
       </c>
@@ -20578,7 +20580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>751</v>
       </c>
@@ -20602,7 +20604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>752</v>
       </c>
@@ -20626,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>753</v>
       </c>
@@ -20650,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>754</v>
       </c>
@@ -20674,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>755</v>
       </c>
@@ -20698,7 +20700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>756</v>
       </c>
@@ -20722,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>757</v>
       </c>
@@ -20746,7 +20748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>758</v>
       </c>
@@ -20770,7 +20772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>759</v>
       </c>
@@ -20794,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>760</v>
       </c>
@@ -20818,7 +20820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>761</v>
       </c>
@@ -20842,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>763</v>
       </c>
@@ -20866,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>764</v>
       </c>
@@ -20890,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>765</v>
       </c>
@@ -20914,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>766</v>
       </c>
@@ -20938,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>767</v>
       </c>
@@ -20962,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>768</v>
       </c>
@@ -20986,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>769</v>
       </c>
@@ -21010,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>770</v>
       </c>
@@ -21034,7 +21036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>771</v>
       </c>
@@ -21058,7 +21060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>772</v>
       </c>
@@ -21082,7 +21084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>773</v>
       </c>
@@ -21106,7 +21108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>775</v>
       </c>
@@ -21130,7 +21132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>776</v>
       </c>
@@ -21154,7 +21156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>777</v>
       </c>
@@ -21178,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>778</v>
       </c>
@@ -21202,7 +21204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>779</v>
       </c>
@@ -21226,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>780</v>
       </c>
@@ -21250,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>781</v>
       </c>
@@ -21274,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>782</v>
       </c>
@@ -21298,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>783</v>
       </c>
@@ -21322,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>784</v>
       </c>
@@ -21346,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>785</v>
       </c>
@@ -21370,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>786</v>
       </c>
@@ -21394,7 +21396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>787</v>
       </c>
@@ -21418,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>788</v>
       </c>
@@ -21442,7 +21444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>789</v>
       </c>
@@ -21466,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>790</v>
       </c>
@@ -21490,7 +21492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>791</v>
       </c>
@@ -21514,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>792</v>
       </c>
@@ -21538,7 +21540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>793</v>
       </c>
@@ -21562,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>794</v>
       </c>
@@ -21586,7 +21588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>795</v>
       </c>
@@ -21610,7 +21612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>796</v>
       </c>
@@ -21634,7 +21636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>797</v>
       </c>
@@ -21658,7 +21660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>798</v>
       </c>
@@ -21682,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>799</v>
       </c>
@@ -21706,7 +21708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>800</v>
       </c>
@@ -21730,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>801</v>
       </c>
@@ -21754,7 +21756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>802</v>
       </c>
@@ -21778,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>803</v>
       </c>
@@ -21802,7 +21804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>804</v>
       </c>
@@ -21826,7 +21828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>805</v>
       </c>
@@ -21850,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>806</v>
       </c>
@@ -21874,7 +21876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>807</v>
       </c>
@@ -21898,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>808</v>
       </c>
@@ -21922,7 +21924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>809</v>
       </c>
@@ -21946,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>810</v>
       </c>
@@ -21970,7 +21972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>811</v>
       </c>
@@ -21994,7 +21996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>812</v>
       </c>
@@ -22018,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>813</v>
       </c>
@@ -22042,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>814</v>
       </c>
@@ -22066,7 +22068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>815</v>
       </c>
@@ -22090,7 +22092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>816</v>
       </c>
@@ -22114,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>817</v>
       </c>
@@ -22138,7 +22140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>818</v>
       </c>
@@ -22162,7 +22164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>819</v>
       </c>
@@ -22186,7 +22188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>820</v>
       </c>
@@ -22210,7 +22212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>821</v>
       </c>
@@ -22234,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>822</v>
       </c>
@@ -22258,7 +22260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>823</v>
       </c>
@@ -22282,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>824</v>
       </c>
@@ -22306,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>825</v>
       </c>
@@ -22330,7 +22332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>826</v>
       </c>
@@ -22354,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>827</v>
       </c>
@@ -22378,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>828</v>
       </c>
@@ -22402,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>829</v>
       </c>
@@ -22426,7 +22428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>830</v>
       </c>
@@ -22450,7 +22452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>831</v>
       </c>
@@ -22474,7 +22476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>832</v>
       </c>
@@ -22498,7 +22500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>833</v>
       </c>
@@ -22522,7 +22524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>834</v>
       </c>
@@ -22546,7 +22548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>835</v>
       </c>
@@ -22570,7 +22572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>836</v>
       </c>
@@ -22594,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>837</v>
       </c>
@@ -22618,7 +22620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>839</v>
       </c>
@@ -22642,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>840</v>
       </c>
@@ -22666,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>841</v>
       </c>
@@ -22687,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>842</v>
       </c>
@@ -22711,7 +22713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>843</v>
       </c>
@@ -22735,7 +22737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>844</v>
       </c>
@@ -22759,7 +22761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>845</v>
       </c>
@@ -22783,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>846</v>
       </c>
@@ -22807,7 +22809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>847</v>
       </c>
@@ -22831,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>848</v>
       </c>
@@ -22855,7 +22857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>849</v>
       </c>
@@ -22879,7 +22881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>850</v>
       </c>
@@ -22903,7 +22905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>851</v>
       </c>
@@ -22927,7 +22929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>852</v>
       </c>
@@ -22951,7 +22953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>854</v>
       </c>
@@ -22975,7 +22977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>855</v>
       </c>
@@ -22999,7 +23001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>856</v>
       </c>
@@ -23023,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>857</v>
       </c>
@@ -23047,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>858</v>
       </c>
@@ -23071,7 +23073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>859</v>
       </c>
@@ -23095,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>860</v>
       </c>
@@ -23119,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>861</v>
       </c>
@@ -23143,7 +23145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>862</v>
       </c>
@@ -23167,7 +23169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>863</v>
       </c>
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>864</v>
       </c>
@@ -23215,7 +23217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>865</v>
       </c>
@@ -23239,7 +23241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>866</v>
       </c>
@@ -23263,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>867</v>
       </c>
@@ -23287,7 +23289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>868</v>
       </c>
@@ -23311,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>869</v>
       </c>
@@ -23335,7 +23337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>871</v>
       </c>
@@ -23359,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>872</v>
       </c>
@@ -23383,7 +23385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>873</v>
       </c>
@@ -23407,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>874</v>
       </c>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>875</v>
       </c>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>876</v>
       </c>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>877</v>
       </c>
@@ -23503,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>878</v>
       </c>
@@ -23527,7 +23529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>880</v>
       </c>
@@ -23551,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>881</v>
       </c>
@@ -23575,7 +23577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>882</v>
       </c>
@@ -23599,7 +23601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>883</v>
       </c>
@@ -23623,7 +23625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>884</v>
       </c>
@@ -23647,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>885</v>
       </c>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>886</v>
       </c>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>887</v>
       </c>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>888</v>
       </c>
@@ -23743,7 +23745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>889</v>
       </c>
@@ -23767,7 +23769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>890</v>
       </c>
@@ -23791,7 +23793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>891</v>
       </c>
@@ -23815,7 +23817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>892</v>
       </c>
@@ -23839,7 +23841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>893</v>
       </c>
@@ -23863,7 +23865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>895</v>
       </c>
@@ -23887,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>897</v>
       </c>
@@ -23911,7 +23913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>898</v>
       </c>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>899</v>
       </c>
@@ -23959,7 +23961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>900</v>
       </c>
@@ -23983,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>901</v>
       </c>
@@ -24007,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>902</v>
       </c>
@@ -24031,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>903</v>
       </c>
@@ -24055,7 +24057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>904</v>
       </c>
@@ -24079,7 +24081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>905</v>
       </c>
@@ -24103,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>906</v>
       </c>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>907</v>
       </c>
@@ -24151,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>908</v>
       </c>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>909</v>
       </c>
@@ -24199,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>910</v>
       </c>
@@ -24223,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>911</v>
       </c>
@@ -24247,7 +24249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>912</v>
       </c>
@@ -24271,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>913</v>
       </c>
@@ -24295,7 +24297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>914</v>
       </c>
@@ -24319,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>915</v>
       </c>
@@ -24343,7 +24345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>916</v>
       </c>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>917</v>
       </c>
@@ -24391,7 +24393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>918</v>
       </c>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>919</v>
       </c>
@@ -24439,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>920</v>
       </c>
@@ -24463,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>921</v>
       </c>
@@ -24487,7 +24489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>922</v>
       </c>
@@ -24511,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>923</v>
       </c>
@@ -24535,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>924</v>
       </c>
@@ -24559,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>925</v>
       </c>
@@ -24583,7 +24585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>926</v>
       </c>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>927</v>
       </c>
@@ -24631,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>928</v>
       </c>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>929</v>
       </c>
@@ -24679,7 +24681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>930</v>
       </c>
@@ -24703,7 +24705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>931</v>
       </c>
@@ -24727,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>932</v>
       </c>
@@ -24751,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>933</v>
       </c>
@@ -24775,7 +24777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>934</v>
       </c>
@@ -24799,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>935</v>
       </c>
@@ -24823,7 +24825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>936</v>
       </c>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>937</v>
       </c>
@@ -24871,7 +24873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>938</v>
       </c>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>939</v>
       </c>
@@ -24919,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>940</v>
       </c>
@@ -24943,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>941</v>
       </c>
@@ -24967,7 +24969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>942</v>
       </c>
@@ -24991,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>943</v>
       </c>
@@ -25015,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>944</v>
       </c>
@@ -25039,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>945</v>
       </c>
@@ -25063,7 +25065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>946</v>
       </c>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>947</v>
       </c>
@@ -25111,7 +25113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>949</v>
       </c>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>950</v>
       </c>
@@ -25159,7 +25161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>951</v>
       </c>
@@ -25183,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>952</v>
       </c>
@@ -25207,7 +25209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>953</v>
       </c>
@@ -25231,7 +25233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>954</v>
       </c>
@@ -25255,7 +25257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>955</v>
       </c>
@@ -25279,7 +25281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>956</v>
       </c>
@@ -25303,7 +25305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>957</v>
       </c>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>958</v>
       </c>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>959</v>
       </c>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>960</v>
       </c>
@@ -25399,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>961</v>
       </c>
@@ -25423,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>962</v>
       </c>
@@ -25447,7 +25449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>963</v>
       </c>
@@ -25471,7 +25473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>964</v>
       </c>
@@ -25495,7 +25497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>965</v>
       </c>
@@ -25519,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>967</v>
       </c>
@@ -25543,7 +25545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>968</v>
       </c>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>969</v>
       </c>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>970</v>
       </c>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>971</v>
       </c>
@@ -25639,7 +25641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>972</v>
       </c>
@@ -25663,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>973</v>
       </c>
@@ -25687,7 +25689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>974</v>
       </c>
@@ -25711,7 +25713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>975</v>
       </c>
@@ -25735,7 +25737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>976</v>
       </c>
@@ -25759,7 +25761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>977</v>
       </c>
@@ -25783,7 +25785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>978</v>
       </c>
@@ -25807,7 +25809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>979</v>
       </c>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>980</v>
       </c>
@@ -25855,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>981</v>
       </c>
@@ -25879,7 +25881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>982</v>
       </c>
@@ -25903,7 +25905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>983</v>
       </c>
@@ -25927,7 +25929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>984</v>
       </c>
@@ -25951,7 +25953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>985</v>
       </c>
@@ -25975,7 +25977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>986</v>
       </c>
@@ -25999,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>987</v>
       </c>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>988</v>
       </c>
@@ -26047,7 +26049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>989</v>
       </c>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>990</v>
       </c>
@@ -26095,7 +26097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>991</v>
       </c>
@@ -26119,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>992</v>
       </c>
@@ -26143,7 +26145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>993</v>
       </c>
@@ -26167,7 +26169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>994</v>
       </c>
@@ -26191,7 +26193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>995</v>
       </c>
@@ -26215,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>996</v>
       </c>
@@ -26239,7 +26241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>997</v>
       </c>
@@ -26263,7 +26265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>998</v>
       </c>
@@ -26287,7 +26289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>999</v>
       </c>
@@ -26311,7 +26313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1000</v>
       </c>
@@ -26335,7 +26337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1001</v>
       </c>
@@ -26359,7 +26361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1002</v>
       </c>
@@ -26383,7 +26385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1003</v>
       </c>
@@ -26407,7 +26409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1004</v>
       </c>
@@ -26431,7 +26433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1005</v>
       </c>
@@ -26455,7 +26457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1006</v>
       </c>
@@ -26479,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1007</v>
       </c>
@@ -26503,7 +26505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1008</v>
       </c>
@@ -26527,7 +26529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1009</v>
       </c>
@@ -26551,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1010</v>
       </c>
@@ -26575,7 +26577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1011</v>
       </c>
@@ -26599,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1013</v>
       </c>
@@ -26623,7 +26625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1014</v>
       </c>
@@ -26647,7 +26649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1015</v>
       </c>
@@ -26671,7 +26673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1016</v>
       </c>
@@ -26695,7 +26697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1018</v>
       </c>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1019</v>
       </c>
@@ -26743,7 +26745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1020</v>
       </c>
@@ -26767,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1021</v>
       </c>
@@ -26791,7 +26793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1022</v>
       </c>
@@ -26815,7 +26817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1023</v>
       </c>
@@ -26839,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1024</v>
       </c>
@@ -26863,7 +26865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1025</v>
       </c>
@@ -26887,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1026</v>
       </c>
@@ -26911,7 +26913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1027</v>
       </c>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1028</v>
       </c>
@@ -26959,7 +26961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1029</v>
       </c>
@@ -26983,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1030</v>
       </c>
@@ -27007,7 +27009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1031</v>
       </c>
@@ -27031,7 +27033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1032</v>
       </c>
@@ -27055,7 +27057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1033</v>
       </c>
@@ -27079,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1034</v>
       </c>
@@ -27103,7 +27105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1035</v>
       </c>
@@ -27127,7 +27129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1036</v>
       </c>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1037</v>
       </c>
@@ -27175,7 +27177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1038</v>
       </c>
@@ -27199,7 +27201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1039</v>
       </c>
@@ -27223,7 +27225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1040</v>
       </c>
@@ -27247,7 +27249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1041</v>
       </c>
@@ -27271,7 +27273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1042</v>
       </c>
@@ -27295,7 +27297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1043</v>
       </c>
@@ -27319,7 +27321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1044</v>
       </c>
@@ -27343,7 +27345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1045</v>
       </c>
@@ -27364,7 +27366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1046</v>
       </c>
@@ -27388,7 +27390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1047</v>
       </c>
@@ -27412,7 +27414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1048</v>
       </c>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1049</v>
       </c>
@@ -27460,7 +27462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1050</v>
       </c>
@@ -27484,7 +27486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1051</v>
       </c>
@@ -27508,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1052</v>
       </c>
@@ -27532,7 +27534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1053</v>
       </c>
@@ -27556,7 +27558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1054</v>
       </c>
@@ -27580,7 +27582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1055</v>
       </c>
@@ -27604,7 +27606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1056</v>
       </c>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1057</v>
       </c>
@@ -27652,7 +27654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1058</v>
       </c>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1059</v>
       </c>
@@ -27700,7 +27702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1060</v>
       </c>
@@ -27724,7 +27726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1061</v>
       </c>
@@ -27748,7 +27750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1062</v>
       </c>
@@ -27772,7 +27774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1063</v>
       </c>
@@ -27796,7 +27798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1064</v>
       </c>
@@ -27820,7 +27822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1065</v>
       </c>
@@ -27844,7 +27846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1066</v>
       </c>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1068</v>
       </c>
@@ -27892,7 +27894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1069</v>
       </c>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1070</v>
       </c>
@@ -27940,7 +27942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1071</v>
       </c>
@@ -27964,7 +27966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1072</v>
       </c>
@@ -27988,7 +27990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1073</v>
       </c>
@@ -28012,7 +28014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1074</v>
       </c>
@@ -28036,7 +28038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1075</v>
       </c>
@@ -28060,7 +28062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1076</v>
       </c>
@@ -28084,7 +28086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1077</v>
       </c>
@@ -28108,7 +28110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1078</v>
       </c>
@@ -28132,7 +28134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1079</v>
       </c>
@@ -28156,7 +28158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1080</v>
       </c>
@@ -28180,7 +28182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1082</v>
       </c>
@@ -28204,7 +28206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1083</v>
       </c>
@@ -28228,7 +28230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1084</v>
       </c>
@@ -28252,7 +28254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1085</v>
       </c>
@@ -28276,7 +28278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1086</v>
       </c>
@@ -28300,7 +28302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1087</v>
       </c>
@@ -28324,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1088</v>
       </c>
@@ -28348,7 +28350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1089</v>
       </c>
@@ -28372,7 +28374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1090</v>
       </c>
@@ -28396,7 +28398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1091</v>
       </c>
@@ -28420,7 +28422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1092</v>
       </c>
@@ -28444,7 +28446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1093</v>
       </c>
@@ -28468,7 +28470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1094</v>
       </c>
@@ -28492,7 +28494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1095</v>
       </c>
@@ -28516,7 +28518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1096</v>
       </c>
@@ -28540,7 +28542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1097</v>
       </c>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1098</v>
       </c>
@@ -28588,7 +28590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1099</v>
       </c>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1100</v>
       </c>
@@ -28636,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1101</v>
       </c>
@@ -28660,7 +28662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1102</v>
       </c>
@@ -28684,7 +28686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1103</v>
       </c>
@@ -28708,7 +28710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1104</v>
       </c>
@@ -28732,7 +28734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1105</v>
       </c>
@@ -28756,7 +28758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1106</v>
       </c>
@@ -28780,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1107</v>
       </c>
@@ -28804,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1108</v>
       </c>
@@ -28828,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1109</v>
       </c>
@@ -28888,7 +28890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1111</v>
       </c>
@@ -28912,7 +28914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1113</v>
       </c>
@@ -28936,7 +28938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1114</v>
       </c>
@@ -28960,7 +28962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1116</v>
       </c>
@@ -28984,7 +28986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1117</v>
       </c>
@@ -29008,7 +29010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1118</v>
       </c>
@@ -29032,7 +29034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1119</v>
       </c>
@@ -29056,7 +29058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1120</v>
       </c>
@@ -29080,7 +29082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1121</v>
       </c>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1122</v>
       </c>
@@ -29128,7 +29130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1123</v>
       </c>
@@ -29152,7 +29154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1124</v>
       </c>
@@ -29176,7 +29178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1125</v>
       </c>
@@ -29200,7 +29202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1126</v>
       </c>
@@ -29224,7 +29226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1127</v>
       </c>
@@ -29248,7 +29250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1128</v>
       </c>
@@ -29272,7 +29274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1129</v>
       </c>
@@ -29308,7 +29310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29349,15 +29351,15 @@
       </c>
       <c r="C3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Solved")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Not Started")</f>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="4">
         <f>IF(B3&gt;0,C3/B3,0)</f>
-        <v>4.2134831460674156E-2</v>
+        <v>4.49438202247191E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -29412,15 +29414,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>1.569713758079409E-2</v>
+        <v>1.662049861495845E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29441,11 +29443,11 @@
       </c>
       <c r="B10">
         <f>COUNTA(Problems[Python])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.27272727272727271</v>
+        <v>0.27659574468085107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29458,7 +29460,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.5106382978723402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29467,11 +29469,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.38636363636363635</v>
+        <v>0.38297872340425532</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29480,11 +29482,11 @@
       </c>
       <c r="B13">
         <f>COUNTA(Problems[TypeScript])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
+        <v>6.3829787234042548E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29497,7 +29499,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0.11363636363636363</v>
+        <v>0.10638297872340426</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29510,7 +29512,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>2.2727272727272728E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29523,7 +29525,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2.2727272727272728E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29536,7 +29538,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
+        <v>4.2553191489361701E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29545,7 +29547,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59077005-151E-714B-B10A-5DE0DA8555C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6192332-FDCE-2B4E-9412-4EFDB6E4FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -2747,7 +2747,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9113E3AB-9A94-8748-8F61-9409DC6182C2}" name="Problems" displayName="Problems" ref="A1:O1084" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Solved"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{54C7E216-905B-6F41-86EB-AA874697E079}" name="Problem #"/>
     <tableColumn id="2" xr3:uid="{8B490E7E-7D92-AF45-862C-1DA57ACC6850}" name="Difficulty"/>
@@ -3058,9 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3121,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3606,14 +3612,17 @@
         <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="J21" s="5">
+        <v>46034</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3637,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3942,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4201,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4340,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4364,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4388,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4484,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4532,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4580,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4652,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4676,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4700,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4832,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4856,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4946,7 +4955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4970,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4994,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5048,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5096,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5144,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5192,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5216,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5288,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -5312,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -5336,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -5360,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -5432,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -5456,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -5504,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5552,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -5576,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5624,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5648,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5672,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5744,7 +5753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5768,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5792,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5816,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5840,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5888,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5912,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5936,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -5996,7 +6005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -6020,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -6044,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -6068,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -6092,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6116,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>125</v>
       </c>
@@ -6140,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>126</v>
       </c>
@@ -6164,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>127</v>
       </c>
@@ -6188,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>130</v>
       </c>
@@ -6212,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>133</v>
       </c>
@@ -6236,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>134</v>
       </c>
@@ -6260,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -6284,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -6308,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -6380,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -6404,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -6428,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6476,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>148</v>
       </c>
@@ -6500,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>149</v>
       </c>
@@ -6524,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>150</v>
       </c>
@@ -6548,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>152</v>
       </c>
@@ -6572,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>154</v>
       </c>
@@ -6596,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>155</v>
       </c>
@@ -6620,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>156</v>
       </c>
@@ -6644,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>157</v>
       </c>
@@ -6668,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>158</v>
       </c>
@@ -6730,7 +6739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160</v>
       </c>
@@ -6754,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>161</v>
       </c>
@@ -6778,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>162</v>
       </c>
@@ -6802,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>163</v>
       </c>
@@ -6826,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>164</v>
       </c>
@@ -6850,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>165</v>
       </c>
@@ -6874,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>166</v>
       </c>
@@ -6898,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>167</v>
       </c>
@@ -6922,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>168</v>
       </c>
@@ -6946,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -6970,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>170</v>
       </c>
@@ -6994,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>171</v>
       </c>
@@ -7018,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>172</v>
       </c>
@@ -7042,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>173</v>
       </c>
@@ -7066,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>174</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>175</v>
       </c>
@@ -7111,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>176</v>
       </c>
@@ -7135,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>177</v>
       </c>
@@ -7159,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>178</v>
       </c>
@@ -7183,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>179</v>
       </c>
@@ -7207,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>180</v>
       </c>
@@ -7231,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>181</v>
       </c>
@@ -7255,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>182</v>
       </c>
@@ -7279,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>183</v>
       </c>
@@ -7341,7 +7350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>185</v>
       </c>
@@ -7365,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>186</v>
       </c>
@@ -7389,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>187</v>
       </c>
@@ -7413,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>188</v>
       </c>
@@ -7473,7 +7482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>190</v>
       </c>
@@ -7497,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>191</v>
       </c>
@@ -7521,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>192</v>
       </c>
@@ -7545,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>193</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>194</v>
       </c>
@@ -7593,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>195</v>
       </c>
@@ -7617,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>196</v>
       </c>
@@ -7641,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>197</v>
       </c>
@@ -7665,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>198</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7713,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7737,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7761,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202</v>
       </c>
@@ -7785,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>203</v>
       </c>
@@ -7809,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>204</v>
       </c>
@@ -7833,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>205</v>
       </c>
@@ -7857,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>206</v>
       </c>
@@ -7881,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>207</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>208</v>
       </c>
@@ -7929,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>209</v>
       </c>
@@ -7953,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>210</v>
       </c>
@@ -7977,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>211</v>
       </c>
@@ -8001,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>212</v>
       </c>
@@ -8025,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>213</v>
       </c>
@@ -8049,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>214</v>
       </c>
@@ -8073,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>215</v>
       </c>
@@ -8097,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>216</v>
       </c>
@@ -8121,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>217</v>
       </c>
@@ -8145,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>218</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>219</v>
       </c>
@@ -8193,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>220</v>
       </c>
@@ -8217,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>221</v>
       </c>
@@ -8241,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>222</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>223</v>
       </c>
@@ -8289,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>224</v>
       </c>
@@ -8349,7 +8358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>226</v>
       </c>
@@ -8373,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>227</v>
       </c>
@@ -8397,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>228</v>
       </c>
@@ -8421,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>229</v>
       </c>
@@ -8445,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>230</v>
       </c>
@@ -8469,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>231</v>
       </c>
@@ -8493,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>232</v>
       </c>
@@ -8517,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>233</v>
       </c>
@@ -8541,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>234</v>
       </c>
@@ -8565,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>235</v>
       </c>
@@ -8589,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>236</v>
       </c>
@@ -8613,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>237</v>
       </c>
@@ -8637,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>238</v>
       </c>
@@ -8661,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
@@ -8685,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>240</v>
       </c>
@@ -8709,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>241</v>
       </c>
@@ -8733,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>242</v>
       </c>
@@ -8757,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>243</v>
       </c>
@@ -8781,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>244</v>
       </c>
@@ -8805,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>245</v>
       </c>
@@ -8829,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>246</v>
       </c>
@@ -8853,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>247</v>
       </c>
@@ -8877,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>248</v>
       </c>
@@ -8901,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>249</v>
       </c>
@@ -8925,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>250</v>
       </c>
@@ -8949,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>251</v>
       </c>
@@ -8973,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>252</v>
       </c>
@@ -8997,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>253</v>
       </c>
@@ -9021,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>254</v>
       </c>
@@ -9045,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>255</v>
       </c>
@@ -9069,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>256</v>
       </c>
@@ -9093,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>257</v>
       </c>
@@ -9117,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>258</v>
       </c>
@@ -9141,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>259</v>
       </c>
@@ -9165,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>260</v>
       </c>
@@ -9189,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>261</v>
       </c>
@@ -9213,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>262</v>
       </c>
@@ -9237,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>263</v>
       </c>
@@ -9261,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>264</v>
       </c>
@@ -9285,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>265</v>
       </c>
@@ -9309,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>266</v>
       </c>
@@ -9333,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>267</v>
       </c>
@@ -9357,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>268</v>
       </c>
@@ -9381,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>269</v>
       </c>
@@ -9405,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>270</v>
       </c>
@@ -9429,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>271</v>
       </c>
@@ -9453,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>272</v>
       </c>
@@ -9477,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>273</v>
       </c>
@@ -9501,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>274</v>
       </c>
@@ -9525,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>275</v>
       </c>
@@ -9549,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>276</v>
       </c>
@@ -9573,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>277</v>
       </c>
@@ -9597,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>278</v>
       </c>
@@ -9621,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>279</v>
       </c>
@@ -9645,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>280</v>
       </c>
@@ -9669,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>281</v>
       </c>
@@ -9693,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>282</v>
       </c>
@@ -9717,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>283</v>
       </c>
@@ -9741,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>284</v>
       </c>
@@ -9765,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>285</v>
       </c>
@@ -9789,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>286</v>
       </c>
@@ -9813,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>287</v>
       </c>
@@ -9837,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>288</v>
       </c>
@@ -9861,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>289</v>
       </c>
@@ -9885,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>290</v>
       </c>
@@ -9909,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>291</v>
       </c>
@@ -9933,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>292</v>
       </c>
@@ -9957,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>293</v>
       </c>
@@ -9981,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>294</v>
       </c>
@@ -10005,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>295</v>
       </c>
@@ -10029,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>296</v>
       </c>
@@ -10053,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>297</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>298</v>
       </c>
@@ -10101,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>299</v>
       </c>
@@ -10125,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>300</v>
       </c>
@@ -10149,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>301</v>
       </c>
@@ -10173,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>302</v>
       </c>
@@ -10197,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>303</v>
       </c>
@@ -10221,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>304</v>
       </c>
@@ -10245,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>305</v>
       </c>
@@ -10269,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>306</v>
       </c>
@@ -10293,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>307</v>
       </c>
@@ -10317,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>308</v>
       </c>
@@ -10341,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>309</v>
       </c>
@@ -10365,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>310</v>
       </c>
@@ -10389,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311</v>
       </c>
@@ -10413,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>312</v>
       </c>
@@ -10437,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>313</v>
       </c>
@@ -10461,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>314</v>
       </c>
@@ -10485,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>315</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>316</v>
       </c>
@@ -10533,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>317</v>
       </c>
@@ -10557,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>318</v>
       </c>
@@ -10581,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>319</v>
       </c>
@@ -10605,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>320</v>
       </c>
@@ -10629,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>321</v>
       </c>
@@ -10653,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>322</v>
       </c>
@@ -10677,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>323</v>
       </c>
@@ -10701,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>324</v>
       </c>
@@ -10725,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>325</v>
       </c>
@@ -10749,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>326</v>
       </c>
@@ -10773,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>327</v>
       </c>
@@ -10797,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>328</v>
       </c>
@@ -10821,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>329</v>
       </c>
@@ -10845,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>330</v>
       </c>
@@ -10869,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>331</v>
       </c>
@@ -10893,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>332</v>
       </c>
@@ -10914,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>333</v>
       </c>
@@ -10938,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>334</v>
       </c>
@@ -10962,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -10986,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>336</v>
       </c>
@@ -11010,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>337</v>
       </c>
@@ -11034,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>338</v>
       </c>
@@ -11058,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>339</v>
       </c>
@@ -11082,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>340</v>
       </c>
@@ -11106,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>341</v>
       </c>
@@ -11130,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>342</v>
       </c>
@@ -11154,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>343</v>
       </c>
@@ -11178,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>344</v>
       </c>
@@ -11202,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>345</v>
       </c>
@@ -11226,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>346</v>
       </c>
@@ -11250,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>347</v>
       </c>
@@ -11274,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>348</v>
       </c>
@@ -11298,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>349</v>
       </c>
@@ -11322,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>350</v>
       </c>
@@ -11346,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>351</v>
       </c>
@@ -11370,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -11394,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>353</v>
       </c>
@@ -11418,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>354</v>
       </c>
@@ -11442,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>355</v>
       </c>
@@ -11466,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>356</v>
       </c>
@@ -11490,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -11514,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -11538,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>359</v>
       </c>
@@ -11562,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>360</v>
       </c>
@@ -11586,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>361</v>
       </c>
@@ -11610,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -11634,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -11658,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>364</v>
       </c>
@@ -11682,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>365</v>
       </c>
@@ -11706,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>366</v>
       </c>
@@ -11730,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>367</v>
       </c>
@@ -11754,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>368</v>
       </c>
@@ -11778,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>369</v>
       </c>
@@ -11802,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>370</v>
       </c>
@@ -11826,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>371</v>
       </c>
@@ -11850,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>372</v>
       </c>
@@ -11874,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>373</v>
       </c>
@@ -11898,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>374</v>
       </c>
@@ -11922,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>375</v>
       </c>
@@ -11946,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>376</v>
       </c>
@@ -11970,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>377</v>
       </c>
@@ -11994,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>378</v>
       </c>
@@ -12018,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>379</v>
       </c>
@@ -12042,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>380</v>
       </c>
@@ -12066,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>381</v>
       </c>
@@ -12090,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>382</v>
       </c>
@@ -12114,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>383</v>
       </c>
@@ -12138,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>384</v>
       </c>
@@ -12162,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>385</v>
       </c>
@@ -12186,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>386</v>
       </c>
@@ -12210,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>388</v>
       </c>
@@ -12234,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>389</v>
       </c>
@@ -12258,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>390</v>
       </c>
@@ -12282,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>391</v>
       </c>
@@ -12306,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>392</v>
       </c>
@@ -12330,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>393</v>
       </c>
@@ -12354,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>394</v>
       </c>
@@ -12378,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>395</v>
       </c>
@@ -12402,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>396</v>
       </c>
@@ -12426,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>397</v>
       </c>
@@ -12450,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>398</v>
       </c>
@@ -12474,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>399</v>
       </c>
@@ -12498,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>400</v>
       </c>
@@ -12522,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>401</v>
       </c>
@@ -12546,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>402</v>
       </c>
@@ -12570,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>403</v>
       </c>
@@ -12594,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>404</v>
       </c>
@@ -12618,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>405</v>
       </c>
@@ -12642,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>406</v>
       </c>
@@ -12666,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>407</v>
       </c>
@@ -12690,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>408</v>
       </c>
@@ -12714,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>409</v>
       </c>
@@ -12738,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>410</v>
       </c>
@@ -12762,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>411</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>412</v>
       </c>
@@ -12810,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>413</v>
       </c>
@@ -12834,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>414</v>
       </c>
@@ -12858,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>415</v>
       </c>
@@ -12882,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>416</v>
       </c>
@@ -12906,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>417</v>
       </c>
@@ -12930,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>418</v>
       </c>
@@ -12954,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>419</v>
       </c>
@@ -12978,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>420</v>
       </c>
@@ -13002,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>421</v>
       </c>
@@ -13026,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>422</v>
       </c>
@@ -13050,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>423</v>
       </c>
@@ -13074,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>424</v>
       </c>
@@ -13098,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>425</v>
       </c>
@@ -13122,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>426</v>
       </c>
@@ -13146,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>427</v>
       </c>
@@ -13170,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>428</v>
       </c>
@@ -13194,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>429</v>
       </c>
@@ -13218,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>430</v>
       </c>
@@ -13242,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>431</v>
       </c>
@@ -13266,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>432</v>
       </c>
@@ -13290,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>433</v>
       </c>
@@ -13314,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>434</v>
       </c>
@@ -13338,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>435</v>
       </c>
@@ -13362,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>436</v>
       </c>
@@ -13386,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>437</v>
       </c>
@@ -13410,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>438</v>
       </c>
@@ -13434,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>439</v>
       </c>
@@ -13458,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>440</v>
       </c>
@@ -13479,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>441</v>
       </c>
@@ -13503,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>442</v>
       </c>
@@ -13527,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>443</v>
       </c>
@@ -13551,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>444</v>
       </c>
@@ -13575,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>446</v>
       </c>
@@ -13599,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>447</v>
       </c>
@@ -13623,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>448</v>
       </c>
@@ -13647,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>449</v>
       </c>
@@ -13671,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>450</v>
       </c>
@@ -13695,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>451</v>
       </c>
@@ -13719,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>452</v>
       </c>
@@ -13743,7 +13752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>453</v>
       </c>
@@ -13767,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>454</v>
       </c>
@@ -13791,7 +13800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>455</v>
       </c>
@@ -13815,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>456</v>
       </c>
@@ -13839,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>457</v>
       </c>
@@ -13863,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>458</v>
       </c>
@@ -13887,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>459</v>
       </c>
@@ -13911,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>460</v>
       </c>
@@ -13935,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>461</v>
       </c>
@@ -13959,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>462</v>
       </c>
@@ -13983,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>463</v>
       </c>
@@ -14007,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>464</v>
       </c>
@@ -14031,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>465</v>
       </c>
@@ -14055,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>466</v>
       </c>
@@ -14079,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>468</v>
       </c>
@@ -14103,7 +14112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>469</v>
       </c>
@@ -14127,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>470</v>
       </c>
@@ -14151,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>471</v>
       </c>
@@ -14175,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>472</v>
       </c>
@@ -14199,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>473</v>
       </c>
@@ -14223,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>474</v>
       </c>
@@ -14247,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>475</v>
       </c>
@@ -14271,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>476</v>
       </c>
@@ -14295,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>477</v>
       </c>
@@ -14319,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>478</v>
       </c>
@@ -14343,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>479</v>
       </c>
@@ -14367,7 +14376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>480</v>
       </c>
@@ -14391,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>481</v>
       </c>
@@ -14415,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>482</v>
       </c>
@@ -14439,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>483</v>
       </c>
@@ -14463,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>484</v>
       </c>
@@ -14487,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>485</v>
       </c>
@@ -14511,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>486</v>
       </c>
@@ -14535,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>487</v>
       </c>
@@ -14559,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>488</v>
       </c>
@@ -14583,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>489</v>
       </c>
@@ -14607,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>490</v>
       </c>
@@ -14631,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>491</v>
       </c>
@@ -14655,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>492</v>
       </c>
@@ -14679,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>493</v>
       </c>
@@ -14703,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>494</v>
       </c>
@@ -14727,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>495</v>
       </c>
@@ -14751,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>496</v>
       </c>
@@ -14775,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>497</v>
       </c>
@@ -14799,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>498</v>
       </c>
@@ -14823,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>499</v>
       </c>
@@ -14847,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>500</v>
       </c>
@@ -14871,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>501</v>
       </c>
@@ -14895,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>502</v>
       </c>
@@ -14919,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>503</v>
       </c>
@@ -14943,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>504</v>
       </c>
@@ -14967,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>505</v>
       </c>
@@ -14991,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>506</v>
       </c>
@@ -15015,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>507</v>
       </c>
@@ -15039,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>508</v>
       </c>
@@ -15063,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>509</v>
       </c>
@@ -15087,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>510</v>
       </c>
@@ -15111,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>511</v>
       </c>
@@ -15135,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>512</v>
       </c>
@@ -15159,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>513</v>
       </c>
@@ -15183,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>514</v>
       </c>
@@ -15207,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>515</v>
       </c>
@@ -15231,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>516</v>
       </c>
@@ -15255,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>517</v>
       </c>
@@ -15279,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>518</v>
       </c>
@@ -15303,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>519</v>
       </c>
@@ -15327,7 +15336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>520</v>
       </c>
@@ -15351,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>521</v>
       </c>
@@ -15375,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>522</v>
       </c>
@@ -15399,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>523</v>
       </c>
@@ -15420,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>524</v>
       </c>
@@ -15444,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>525</v>
       </c>
@@ -15468,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>526</v>
       </c>
@@ -15492,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>527</v>
       </c>
@@ -15516,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>528</v>
       </c>
@@ -15540,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>529</v>
       </c>
@@ -15564,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>530</v>
       </c>
@@ -15588,7 +15597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>532</v>
       </c>
@@ -15612,7 +15621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>533</v>
       </c>
@@ -15636,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>534</v>
       </c>
@@ -15660,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>535</v>
       </c>
@@ -15684,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>536</v>
       </c>
@@ -15708,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>537</v>
       </c>
@@ -15732,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>538</v>
       </c>
@@ -15756,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>539</v>
       </c>
@@ -15780,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>540</v>
       </c>
@@ -15804,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>541</v>
       </c>
@@ -15828,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>542</v>
       </c>
@@ -15852,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>543</v>
       </c>
@@ -15876,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>544</v>
       </c>
@@ -15900,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>545</v>
       </c>
@@ -15924,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>546</v>
       </c>
@@ -15948,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>547</v>
       </c>
@@ -15972,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>548</v>
       </c>
@@ -15996,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>549</v>
       </c>
@@ -16020,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -16044,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>551</v>
       </c>
@@ -16068,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>552</v>
       </c>
@@ -16092,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>553</v>
       </c>
@@ -16116,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>554</v>
       </c>
@@ -16140,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>555</v>
       </c>
@@ -16164,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>556</v>
       </c>
@@ -16188,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>557</v>
       </c>
@@ -16212,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>558</v>
       </c>
@@ -16236,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>559</v>
       </c>
@@ -16260,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>561</v>
       </c>
@@ -16284,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>562</v>
       </c>
@@ -16308,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>563</v>
       </c>
@@ -16332,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>564</v>
       </c>
@@ -16356,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>565</v>
       </c>
@@ -16380,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>566</v>
       </c>
@@ -16404,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>567</v>
       </c>
@@ -16428,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>568</v>
       </c>
@@ -16452,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>569</v>
       </c>
@@ -16476,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>570</v>
       </c>
@@ -16500,7 +16509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>572</v>
       </c>
@@ -16524,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>573</v>
       </c>
@@ -16548,7 +16557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>574</v>
       </c>
@@ -16572,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>575</v>
       </c>
@@ -16596,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>576</v>
       </c>
@@ -16620,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>577</v>
       </c>
@@ -16644,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>578</v>
       </c>
@@ -16668,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>579</v>
       </c>
@@ -16692,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>581</v>
       </c>
@@ -16716,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>582</v>
       </c>
@@ -16740,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>584</v>
       </c>
@@ -16764,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>586</v>
       </c>
@@ -16788,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>587</v>
       </c>
@@ -16812,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>588</v>
       </c>
@@ -16836,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>589</v>
       </c>
@@ -16860,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>590</v>
       </c>
@@ -16884,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>591</v>
       </c>
@@ -16908,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>592</v>
       </c>
@@ -16932,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>593</v>
       </c>
@@ -16956,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>594</v>
       </c>
@@ -16980,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>595</v>
       </c>
@@ -17004,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>596</v>
       </c>
@@ -17028,7 +17037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>597</v>
       </c>
@@ -17052,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>598</v>
       </c>
@@ -17076,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>599</v>
       </c>
@@ -17100,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>600</v>
       </c>
@@ -17124,7 +17133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>601</v>
       </c>
@@ -17148,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>602</v>
       </c>
@@ -17172,7 +17181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>603</v>
       </c>
@@ -17196,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>604</v>
       </c>
@@ -17220,7 +17229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>605</v>
       </c>
@@ -17244,7 +17253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>606</v>
       </c>
@@ -17268,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>607</v>
       </c>
@@ -17292,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>608</v>
       </c>
@@ -17316,7 +17325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>609</v>
       </c>
@@ -17340,7 +17349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>611</v>
       </c>
@@ -17364,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>612</v>
       </c>
@@ -17388,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>613</v>
       </c>
@@ -17412,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>614</v>
       </c>
@@ -17436,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>615</v>
       </c>
@@ -17460,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>616</v>
       </c>
@@ -17484,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>617</v>
       </c>
@@ -17508,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>619</v>
       </c>
@@ -17532,7 +17541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>620</v>
       </c>
@@ -17556,7 +17565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>621</v>
       </c>
@@ -17580,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>622</v>
       </c>
@@ -17604,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>623</v>
       </c>
@@ -17628,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>624</v>
       </c>
@@ -17652,7 +17661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>625</v>
       </c>
@@ -17676,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>626</v>
       </c>
@@ -17700,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>627</v>
       </c>
@@ -17724,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>628</v>
       </c>
@@ -17748,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>629</v>
       </c>
@@ -17772,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>630</v>
       </c>
@@ -17796,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>631</v>
       </c>
@@ -17820,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>632</v>
       </c>
@@ -17844,7 +17853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>633</v>
       </c>
@@ -17868,7 +17877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>634</v>
       </c>
@@ -17892,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>635</v>
       </c>
@@ -17916,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>636</v>
       </c>
@@ -17940,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>637</v>
       </c>
@@ -17964,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>638</v>
       </c>
@@ -17988,7 +17997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>639</v>
       </c>
@@ -18012,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>640</v>
       </c>
@@ -18036,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>641</v>
       </c>
@@ -18060,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>642</v>
       </c>
@@ -18084,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>643</v>
       </c>
@@ -18108,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>644</v>
       </c>
@@ -18132,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>645</v>
       </c>
@@ -18156,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>646</v>
       </c>
@@ -18180,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>647</v>
       </c>
@@ -18204,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>649</v>
       </c>
@@ -18228,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>650</v>
       </c>
@@ -18252,7 +18261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>651</v>
       </c>
@@ -18276,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>652</v>
       </c>
@@ -18300,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>653</v>
       </c>
@@ -18324,7 +18333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>654</v>
       </c>
@@ -18348,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>655</v>
       </c>
@@ -18372,7 +18381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>657</v>
       </c>
@@ -18396,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>658</v>
       </c>
@@ -18420,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>659</v>
       </c>
@@ -18444,7 +18453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>660</v>
       </c>
@@ -18468,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>661</v>
       </c>
@@ -18492,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>662</v>
       </c>
@@ -18516,7 +18525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>664</v>
       </c>
@@ -18540,7 +18549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>665</v>
       </c>
@@ -18564,7 +18573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>666</v>
       </c>
@@ -18588,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>667</v>
       </c>
@@ -18612,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>668</v>
       </c>
@@ -18636,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>669</v>
       </c>
@@ -18660,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>670</v>
       </c>
@@ -18684,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>671</v>
       </c>
@@ -18708,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>672</v>
       </c>
@@ -18732,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>673</v>
       </c>
@@ -18756,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>674</v>
       </c>
@@ -18780,7 +18789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>675</v>
       </c>
@@ -18804,7 +18813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>676</v>
       </c>
@@ -18828,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>677</v>
       </c>
@@ -18852,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>678</v>
       </c>
@@ -18876,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>679</v>
       </c>
@@ -18900,7 +18909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>680</v>
       </c>
@@ -18924,7 +18933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>681</v>
       </c>
@@ -18948,7 +18957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>682</v>
       </c>
@@ -18972,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>683</v>
       </c>
@@ -18996,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>684</v>
       </c>
@@ -19020,7 +19029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>685</v>
       </c>
@@ -19044,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>686</v>
       </c>
@@ -19068,7 +19077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>687</v>
       </c>
@@ -19092,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>688</v>
       </c>
@@ -19116,7 +19125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>689</v>
       </c>
@@ -19140,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>690</v>
       </c>
@@ -19164,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>691</v>
       </c>
@@ -19188,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>692</v>
       </c>
@@ -19212,7 +19221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>693</v>
       </c>
@@ -19236,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>694</v>
       </c>
@@ -19260,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>696</v>
       </c>
@@ -19284,7 +19293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>697</v>
       </c>
@@ -19308,7 +19317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>698</v>
       </c>
@@ -19332,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>699</v>
       </c>
@@ -19356,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>700</v>
       </c>
@@ -19380,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>701</v>
       </c>
@@ -19404,7 +19413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>702</v>
       </c>
@@ -19428,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>703</v>
       </c>
@@ -19452,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>704</v>
       </c>
@@ -19476,7 +19485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>705</v>
       </c>
@@ -19500,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>706</v>
       </c>
@@ -19524,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>707</v>
       </c>
@@ -19548,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>708</v>
       </c>
@@ -19572,7 +19581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>709</v>
       </c>
@@ -19596,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>710</v>
       </c>
@@ -19620,7 +19629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>711</v>
       </c>
@@ -19644,7 +19653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>712</v>
       </c>
@@ -19668,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>713</v>
       </c>
@@ -19692,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>714</v>
       </c>
@@ -19716,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>715</v>
       </c>
@@ -19740,7 +19749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>716</v>
       </c>
@@ -19764,7 +19773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>717</v>
       </c>
@@ -19788,7 +19797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>718</v>
       </c>
@@ -19812,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>719</v>
       </c>
@@ -19836,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>720</v>
       </c>
@@ -19860,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>721</v>
       </c>
@@ -19884,7 +19893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>722</v>
       </c>
@@ -19908,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>723</v>
       </c>
@@ -19932,7 +19941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>724</v>
       </c>
@@ -19956,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>725</v>
       </c>
@@ -19980,7 +19989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>726</v>
       </c>
@@ -20004,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>727</v>
       </c>
@@ -20028,7 +20037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>728</v>
       </c>
@@ -20052,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>729</v>
       </c>
@@ -20076,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>730</v>
       </c>
@@ -20100,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>731</v>
       </c>
@@ -20124,7 +20133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>732</v>
       </c>
@@ -20148,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>733</v>
       </c>
@@ -20172,7 +20181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>734</v>
       </c>
@@ -20196,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>735</v>
       </c>
@@ -20220,7 +20229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>736</v>
       </c>
@@ -20244,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>737</v>
       </c>
@@ -20268,7 +20277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>738</v>
       </c>
@@ -20292,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>739</v>
       </c>
@@ -20316,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>740</v>
       </c>
@@ -20340,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>741</v>
       </c>
@@ -20364,7 +20373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>742</v>
       </c>
@@ -20388,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>743</v>
       </c>
@@ -20412,7 +20421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>744</v>
       </c>
@@ -20436,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>745</v>
       </c>
@@ -20460,7 +20469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>746</v>
       </c>
@@ -20484,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>747</v>
       </c>
@@ -20508,7 +20517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>748</v>
       </c>
@@ -20532,7 +20541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>749</v>
       </c>
@@ -20556,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750</v>
       </c>
@@ -20580,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>751</v>
       </c>
@@ -20604,7 +20613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>752</v>
       </c>
@@ -20628,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>753</v>
       </c>
@@ -20652,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>754</v>
       </c>
@@ -20676,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>755</v>
       </c>
@@ -20700,7 +20709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>756</v>
       </c>
@@ -20724,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>757</v>
       </c>
@@ -20748,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>758</v>
       </c>
@@ -20772,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>759</v>
       </c>
@@ -20796,7 +20805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>760</v>
       </c>
@@ -20820,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>761</v>
       </c>
@@ -20844,7 +20853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>763</v>
       </c>
@@ -20868,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>764</v>
       </c>
@@ -20892,7 +20901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>765</v>
       </c>
@@ -20916,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>766</v>
       </c>
@@ -20940,7 +20949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>767</v>
       </c>
@@ -20964,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>768</v>
       </c>
@@ -20988,7 +20997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>769</v>
       </c>
@@ -21012,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>770</v>
       </c>
@@ -21036,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>771</v>
       </c>
@@ -21060,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>772</v>
       </c>
@@ -21084,7 +21093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>773</v>
       </c>
@@ -21108,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>775</v>
       </c>
@@ -21132,7 +21141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>776</v>
       </c>
@@ -21156,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>777</v>
       </c>
@@ -21180,7 +21189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>778</v>
       </c>
@@ -21204,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>779</v>
       </c>
@@ -21228,7 +21237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>780</v>
       </c>
@@ -21252,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>781</v>
       </c>
@@ -21276,7 +21285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>782</v>
       </c>
@@ -21300,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>783</v>
       </c>
@@ -21324,7 +21333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>784</v>
       </c>
@@ -21348,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>785</v>
       </c>
@@ -21372,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>786</v>
       </c>
@@ -21396,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>787</v>
       </c>
@@ -21420,7 +21429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>788</v>
       </c>
@@ -21444,7 +21453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>789</v>
       </c>
@@ -21468,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>790</v>
       </c>
@@ -21492,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>791</v>
       </c>
@@ -21516,7 +21525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>792</v>
       </c>
@@ -21540,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>793</v>
       </c>
@@ -21564,7 +21573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>794</v>
       </c>
@@ -21588,7 +21597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>795</v>
       </c>
@@ -21612,7 +21621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>796</v>
       </c>
@@ -21636,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>797</v>
       </c>
@@ -21660,7 +21669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>798</v>
       </c>
@@ -21684,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>799</v>
       </c>
@@ -21708,7 +21717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>800</v>
       </c>
@@ -21732,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>801</v>
       </c>
@@ -21756,7 +21765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>802</v>
       </c>
@@ -21780,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>803</v>
       </c>
@@ -21804,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>804</v>
       </c>
@@ -21828,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>805</v>
       </c>
@@ -21852,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>806</v>
       </c>
@@ -21876,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>807</v>
       </c>
@@ -21900,7 +21909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>808</v>
       </c>
@@ -21924,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>809</v>
       </c>
@@ -21948,7 +21957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>810</v>
       </c>
@@ -21972,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>811</v>
       </c>
@@ -21996,7 +22005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>812</v>
       </c>
@@ -22020,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>813</v>
       </c>
@@ -22044,7 +22053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>814</v>
       </c>
@@ -22068,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>815</v>
       </c>
@@ -22092,7 +22101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>816</v>
       </c>
@@ -22116,7 +22125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>817</v>
       </c>
@@ -22140,7 +22149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>818</v>
       </c>
@@ -22164,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>819</v>
       </c>
@@ -22188,7 +22197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>820</v>
       </c>
@@ -22212,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>821</v>
       </c>
@@ -22236,7 +22245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>822</v>
       </c>
@@ -22260,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>823</v>
       </c>
@@ -22284,7 +22293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>824</v>
       </c>
@@ -22308,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>825</v>
       </c>
@@ -22332,7 +22341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>826</v>
       </c>
@@ -22356,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>827</v>
       </c>
@@ -22380,7 +22389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>828</v>
       </c>
@@ -22404,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>829</v>
       </c>
@@ -22428,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>830</v>
       </c>
@@ -22452,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>831</v>
       </c>
@@ -22476,7 +22485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>832</v>
       </c>
@@ -22500,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>833</v>
       </c>
@@ -22524,7 +22533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>834</v>
       </c>
@@ -22548,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>835</v>
       </c>
@@ -22572,7 +22581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>836</v>
       </c>
@@ -22596,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>837</v>
       </c>
@@ -22620,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>839</v>
       </c>
@@ -22644,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>840</v>
       </c>
@@ -22668,7 +22677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>841</v>
       </c>
@@ -22689,7 +22698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>842</v>
       </c>
@@ -22713,7 +22722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>843</v>
       </c>
@@ -22737,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>844</v>
       </c>
@@ -22761,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>845</v>
       </c>
@@ -22785,7 +22794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>846</v>
       </c>
@@ -22809,7 +22818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>847</v>
       </c>
@@ -22833,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>848</v>
       </c>
@@ -22857,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>849</v>
       </c>
@@ -22881,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>850</v>
       </c>
@@ -22905,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>851</v>
       </c>
@@ -22929,7 +22938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>852</v>
       </c>
@@ -22953,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>854</v>
       </c>
@@ -22977,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>855</v>
       </c>
@@ -23001,7 +23010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>856</v>
       </c>
@@ -23025,7 +23034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>857</v>
       </c>
@@ -23049,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>858</v>
       </c>
@@ -23073,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>859</v>
       </c>
@@ -23097,7 +23106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>860</v>
       </c>
@@ -23121,7 +23130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>861</v>
       </c>
@@ -23145,7 +23154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>862</v>
       </c>
@@ -23169,7 +23178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>863</v>
       </c>
@@ -23193,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>864</v>
       </c>
@@ -23217,7 +23226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>865</v>
       </c>
@@ -23241,7 +23250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>866</v>
       </c>
@@ -23265,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>867</v>
       </c>
@@ -23289,7 +23298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>868</v>
       </c>
@@ -23313,7 +23322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>869</v>
       </c>
@@ -23337,7 +23346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>871</v>
       </c>
@@ -23361,7 +23370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>872</v>
       </c>
@@ -23385,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>873</v>
       </c>
@@ -23409,7 +23418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>874</v>
       </c>
@@ -23433,7 +23442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>875</v>
       </c>
@@ -23457,7 +23466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>876</v>
       </c>
@@ -23481,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>877</v>
       </c>
@@ -23505,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>878</v>
       </c>
@@ -23529,7 +23538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>880</v>
       </c>
@@ -23553,7 +23562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>881</v>
       </c>
@@ -23577,7 +23586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>882</v>
       </c>
@@ -23601,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>883</v>
       </c>
@@ -23625,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>884</v>
       </c>
@@ -23649,7 +23658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>885</v>
       </c>
@@ -23673,7 +23682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>886</v>
       </c>
@@ -23697,7 +23706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>887</v>
       </c>
@@ -23721,7 +23730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>888</v>
       </c>
@@ -23745,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>889</v>
       </c>
@@ -23769,7 +23778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>890</v>
       </c>
@@ -23793,7 +23802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>891</v>
       </c>
@@ -23817,7 +23826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>892</v>
       </c>
@@ -23841,7 +23850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>893</v>
       </c>
@@ -23865,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>895</v>
       </c>
@@ -23889,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>897</v>
       </c>
@@ -23913,7 +23922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>898</v>
       </c>
@@ -23937,7 +23946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>899</v>
       </c>
@@ -23961,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>900</v>
       </c>
@@ -23985,7 +23994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>901</v>
       </c>
@@ -24009,7 +24018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>902</v>
       </c>
@@ -24033,7 +24042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>903</v>
       </c>
@@ -24057,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>904</v>
       </c>
@@ -24081,7 +24090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>905</v>
       </c>
@@ -24105,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>906</v>
       </c>
@@ -24129,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>907</v>
       </c>
@@ -24153,7 +24162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>908</v>
       </c>
@@ -24177,7 +24186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>909</v>
       </c>
@@ -24201,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>910</v>
       </c>
@@ -24225,7 +24234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>911</v>
       </c>
@@ -24249,7 +24258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>912</v>
       </c>
@@ -24273,7 +24282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>913</v>
       </c>
@@ -24297,7 +24306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>914</v>
       </c>
@@ -24321,7 +24330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>915</v>
       </c>
@@ -24345,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>916</v>
       </c>
@@ -24369,7 +24378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>917</v>
       </c>
@@ -24393,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>918</v>
       </c>
@@ -24417,7 +24426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>919</v>
       </c>
@@ -24441,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>920</v>
       </c>
@@ -24465,7 +24474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>921</v>
       </c>
@@ -24489,7 +24498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>922</v>
       </c>
@@ -24513,7 +24522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>923</v>
       </c>
@@ -24537,7 +24546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>924</v>
       </c>
@@ -24561,7 +24570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>925</v>
       </c>
@@ -24585,7 +24594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>926</v>
       </c>
@@ -24609,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>927</v>
       </c>
@@ -24633,7 +24642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>928</v>
       </c>
@@ -24657,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>929</v>
       </c>
@@ -24681,7 +24690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>930</v>
       </c>
@@ -24705,7 +24714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>931</v>
       </c>
@@ -24729,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>932</v>
       </c>
@@ -24753,7 +24762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>933</v>
       </c>
@@ -24777,7 +24786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>934</v>
       </c>
@@ -24801,7 +24810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>935</v>
       </c>
@@ -24825,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>936</v>
       </c>
@@ -24849,7 +24858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>937</v>
       </c>
@@ -24873,7 +24882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>938</v>
       </c>
@@ -24897,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>939</v>
       </c>
@@ -24921,7 +24930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>940</v>
       </c>
@@ -24945,7 +24954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>941</v>
       </c>
@@ -24969,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>942</v>
       </c>
@@ -24993,7 +25002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>943</v>
       </c>
@@ -25017,7 +25026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>944</v>
       </c>
@@ -25041,7 +25050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>945</v>
       </c>
@@ -25065,7 +25074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>946</v>
       </c>
@@ -25089,7 +25098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>947</v>
       </c>
@@ -25113,7 +25122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>949</v>
       </c>
@@ -25137,7 +25146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>950</v>
       </c>
@@ -25161,7 +25170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>951</v>
       </c>
@@ -25185,7 +25194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>952</v>
       </c>
@@ -25209,7 +25218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>953</v>
       </c>
@@ -25233,7 +25242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>954</v>
       </c>
@@ -25257,7 +25266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>955</v>
       </c>
@@ -25281,7 +25290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>956</v>
       </c>
@@ -25305,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>957</v>
       </c>
@@ -25329,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>958</v>
       </c>
@@ -25353,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>959</v>
       </c>
@@ -25377,7 +25386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>960</v>
       </c>
@@ -25401,7 +25410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>961</v>
       </c>
@@ -25425,7 +25434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>962</v>
       </c>
@@ -25449,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>963</v>
       </c>
@@ -25473,7 +25482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>964</v>
       </c>
@@ -25497,7 +25506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>965</v>
       </c>
@@ -25521,7 +25530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>967</v>
       </c>
@@ -25545,7 +25554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>968</v>
       </c>
@@ -25569,7 +25578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>969</v>
       </c>
@@ -25593,7 +25602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>970</v>
       </c>
@@ -25617,7 +25626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>971</v>
       </c>
@@ -25641,7 +25650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>972</v>
       </c>
@@ -25665,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>973</v>
       </c>
@@ -25689,7 +25698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>974</v>
       </c>
@@ -25713,7 +25722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>975</v>
       </c>
@@ -25737,7 +25746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>976</v>
       </c>
@@ -25761,7 +25770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>977</v>
       </c>
@@ -25785,7 +25794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>978</v>
       </c>
@@ -25809,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>979</v>
       </c>
@@ -25833,7 +25842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>980</v>
       </c>
@@ -25857,7 +25866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>981</v>
       </c>
@@ -25881,7 +25890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>982</v>
       </c>
@@ -25905,7 +25914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>983</v>
       </c>
@@ -25929,7 +25938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>984</v>
       </c>
@@ -25953,7 +25962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>985</v>
       </c>
@@ -25977,7 +25986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>986</v>
       </c>
@@ -26001,7 +26010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>987</v>
       </c>
@@ -26025,7 +26034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>988</v>
       </c>
@@ -26049,7 +26058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>989</v>
       </c>
@@ -26073,7 +26082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>990</v>
       </c>
@@ -26097,7 +26106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>991</v>
       </c>
@@ -26121,7 +26130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>992</v>
       </c>
@@ -26145,7 +26154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>993</v>
       </c>
@@ -26169,7 +26178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>994</v>
       </c>
@@ -26193,7 +26202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>995</v>
       </c>
@@ -26217,7 +26226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>996</v>
       </c>
@@ -26241,7 +26250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>997</v>
       </c>
@@ -26265,7 +26274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>998</v>
       </c>
@@ -26289,7 +26298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>999</v>
       </c>
@@ -26313,7 +26322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1000</v>
       </c>
@@ -26337,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1001</v>
       </c>
@@ -26361,7 +26370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1002</v>
       </c>
@@ -26385,7 +26394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1003</v>
       </c>
@@ -26409,7 +26418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1004</v>
       </c>
@@ -26433,7 +26442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1005</v>
       </c>
@@ -26457,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1006</v>
       </c>
@@ -26481,7 +26490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1007</v>
       </c>
@@ -26505,7 +26514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1008</v>
       </c>
@@ -26529,7 +26538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1009</v>
       </c>
@@ -26553,7 +26562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1010</v>
       </c>
@@ -26577,7 +26586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1011</v>
       </c>
@@ -26601,7 +26610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1013</v>
       </c>
@@ -26625,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1014</v>
       </c>
@@ -26649,7 +26658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1015</v>
       </c>
@@ -26673,7 +26682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1016</v>
       </c>
@@ -26697,7 +26706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1018</v>
       </c>
@@ -26721,7 +26730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1019</v>
       </c>
@@ -26745,7 +26754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1020</v>
       </c>
@@ -26769,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1021</v>
       </c>
@@ -26793,7 +26802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1022</v>
       </c>
@@ -26817,7 +26826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1023</v>
       </c>
@@ -26841,7 +26850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1024</v>
       </c>
@@ -26865,7 +26874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1025</v>
       </c>
@@ -26889,7 +26898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1026</v>
       </c>
@@ -26913,7 +26922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1027</v>
       </c>
@@ -26937,7 +26946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1028</v>
       </c>
@@ -26961,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1029</v>
       </c>
@@ -26985,7 +26994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1030</v>
       </c>
@@ -27009,7 +27018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1031</v>
       </c>
@@ -27033,7 +27042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1032</v>
       </c>
@@ -27057,7 +27066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1033</v>
       </c>
@@ -27081,7 +27090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1034</v>
       </c>
@@ -27105,7 +27114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1035</v>
       </c>
@@ -27129,7 +27138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1036</v>
       </c>
@@ -27153,7 +27162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1037</v>
       </c>
@@ -27177,7 +27186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1038</v>
       </c>
@@ -27201,7 +27210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1039</v>
       </c>
@@ -27225,7 +27234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1040</v>
       </c>
@@ -27249,7 +27258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1041</v>
       </c>
@@ -27273,7 +27282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1042</v>
       </c>
@@ -27297,7 +27306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1043</v>
       </c>
@@ -27321,7 +27330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1044</v>
       </c>
@@ -27345,7 +27354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1045</v>
       </c>
@@ -27366,7 +27375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1046</v>
       </c>
@@ -27390,7 +27399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1047</v>
       </c>
@@ -27414,7 +27423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1048</v>
       </c>
@@ -27438,7 +27447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1049</v>
       </c>
@@ -27462,7 +27471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1050</v>
       </c>
@@ -27486,7 +27495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1051</v>
       </c>
@@ -27510,7 +27519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1052</v>
       </c>
@@ -27534,7 +27543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1053</v>
       </c>
@@ -27558,7 +27567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1054</v>
       </c>
@@ -27582,7 +27591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1055</v>
       </c>
@@ -27606,7 +27615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1056</v>
       </c>
@@ -27630,7 +27639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1057</v>
       </c>
@@ -27654,7 +27663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1058</v>
       </c>
@@ -27678,7 +27687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1059</v>
       </c>
@@ -27702,7 +27711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1060</v>
       </c>
@@ -27726,7 +27735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1061</v>
       </c>
@@ -27750,7 +27759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1062</v>
       </c>
@@ -27774,7 +27783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1063</v>
       </c>
@@ -27798,7 +27807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1064</v>
       </c>
@@ -27822,7 +27831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1065</v>
       </c>
@@ -27846,7 +27855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1066</v>
       </c>
@@ -27870,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1068</v>
       </c>
@@ -27894,7 +27903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1069</v>
       </c>
@@ -27918,7 +27927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1070</v>
       </c>
@@ -27942,7 +27951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1071</v>
       </c>
@@ -27966,7 +27975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1072</v>
       </c>
@@ -27990,7 +27999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1073</v>
       </c>
@@ -28014,7 +28023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1074</v>
       </c>
@@ -28038,7 +28047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1075</v>
       </c>
@@ -28062,7 +28071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1076</v>
       </c>
@@ -28086,7 +28095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1077</v>
       </c>
@@ -28110,7 +28119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1078</v>
       </c>
@@ -28134,7 +28143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1079</v>
       </c>
@@ -28158,7 +28167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1080</v>
       </c>
@@ -28182,7 +28191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1082</v>
       </c>
@@ -28206,7 +28215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1083</v>
       </c>
@@ -28230,7 +28239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1084</v>
       </c>
@@ -28254,7 +28263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1085</v>
       </c>
@@ -28278,7 +28287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1086</v>
       </c>
@@ -28302,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1087</v>
       </c>
@@ -28326,7 +28335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1088</v>
       </c>
@@ -28350,7 +28359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1089</v>
       </c>
@@ -28374,7 +28383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1090</v>
       </c>
@@ -28398,7 +28407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1091</v>
       </c>
@@ -28422,7 +28431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1092</v>
       </c>
@@ -28446,7 +28455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1093</v>
       </c>
@@ -28470,7 +28479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1094</v>
       </c>
@@ -28494,7 +28503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1095</v>
       </c>
@@ -28518,7 +28527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1096</v>
       </c>
@@ -28542,7 +28551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1097</v>
       </c>
@@ -28566,7 +28575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1098</v>
       </c>
@@ -28590,7 +28599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1099</v>
       </c>
@@ -28614,7 +28623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1100</v>
       </c>
@@ -28638,7 +28647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1101</v>
       </c>
@@ -28662,7 +28671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1102</v>
       </c>
@@ -28686,7 +28695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1103</v>
       </c>
@@ -28710,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1104</v>
       </c>
@@ -28734,7 +28743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1105</v>
       </c>
@@ -28758,7 +28767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1106</v>
       </c>
@@ -28782,7 +28791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1107</v>
       </c>
@@ -28806,7 +28815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1108</v>
       </c>
@@ -28830,7 +28839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1109</v>
       </c>
@@ -28890,7 +28899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1111</v>
       </c>
@@ -28914,7 +28923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1113</v>
       </c>
@@ -28938,7 +28947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1114</v>
       </c>
@@ -28962,7 +28971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1116</v>
       </c>
@@ -28986,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1117</v>
       </c>
@@ -29010,7 +29019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1118</v>
       </c>
@@ -29034,7 +29043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1119</v>
       </c>
@@ -29058,7 +29067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1120</v>
       </c>
@@ -29082,7 +29091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1121</v>
       </c>
@@ -29106,7 +29115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1122</v>
       </c>
@@ -29130,7 +29139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1123</v>
       </c>
@@ -29154,7 +29163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1124</v>
       </c>
@@ -29178,7 +29187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1125</v>
       </c>
@@ -29202,7 +29211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1126</v>
       </c>
@@ -29226,7 +29235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1127</v>
       </c>
@@ -29250,7 +29259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1128</v>
       </c>
@@ -29274,7 +29283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1129</v>
       </c>
@@ -29310,7 +29319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29351,15 +29360,15 @@
       </c>
       <c r="C3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Solved")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Not Started")</f>
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="4">
         <f>IF(B3&gt;0,C3/B3,0)</f>
-        <v>4.49438202247191E-2</v>
+        <v>4.7752808988764044E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -29414,15 +29423,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>1.662049861495845E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29447,7 +29456,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.27659574468085107</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29460,7 +29469,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>8.5106382978723402E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29469,11 +29478,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.38297872340425532</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29486,7 +29495,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>6.3829787234042548E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29499,7 +29508,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29512,7 +29521,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>2.1276595744680851E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29525,7 +29534,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2.1276595744680851E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29538,7 +29547,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>4.2553191489361701E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29547,7 +29556,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6192332-FDCE-2B4E-9412-4EFDB6E4FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414A998-F7CB-AA4F-8181-FD51FDA25BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -2747,13 +2747,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9113E3AB-9A94-8748-8F61-9409DC6182C2}" name="Problems" displayName="Problems" ref="A1:O1084" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Solved"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{54C7E216-905B-6F41-86EB-AA874697E079}" name="Problem #"/>
     <tableColumn id="2" xr3:uid="{8B490E7E-7D92-AF45-862C-1DA57ACC6850}" name="Difficulty"/>
@@ -3064,9 +3058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3151,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3199,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3223,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3307,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3331,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3355,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3403,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3427,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3451,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3475,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3499,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3523,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3547,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3571,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3622,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3646,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3670,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3694,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3718,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3780,7 +3774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3831,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3855,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3879,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3903,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3927,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3951,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3975,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4032,7 +4026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4056,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4080,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4104,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4128,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4186,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4210,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4234,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4289,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4349,7 +4343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4373,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4397,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4421,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4445,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4469,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4493,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4517,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4541,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4565,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4589,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4613,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4637,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4661,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4685,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4709,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4733,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4757,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4781,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4841,7 +4835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4865,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4889,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4955,7 +4949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4979,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5003,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5057,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5129,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5153,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5177,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5201,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5225,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5249,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5273,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5297,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -5321,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -5345,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -5369,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -5393,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -5417,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -5434,14 +5428,17 @@
         <v>219</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="J93" s="5">
+        <v>46035</v>
       </c>
       <c r="O93">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -5465,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -5489,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -5513,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -5537,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5561,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -5609,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5633,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5681,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5777,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5801,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5825,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5849,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5873,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5897,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5921,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5945,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -6005,7 +6002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -6053,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -6077,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -6101,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>125</v>
       </c>
@@ -6149,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>126</v>
       </c>
@@ -6173,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>127</v>
       </c>
@@ -6197,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>130</v>
       </c>
@@ -6221,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>133</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>134</v>
       </c>
@@ -6269,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -6293,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -6317,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -6365,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -6389,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -6413,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -6437,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6461,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6485,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>148</v>
       </c>
@@ -6509,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>149</v>
       </c>
@@ -6533,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>150</v>
       </c>
@@ -6557,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>152</v>
       </c>
@@ -6581,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>154</v>
       </c>
@@ -6605,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>155</v>
       </c>
@@ -6629,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>156</v>
       </c>
@@ -6653,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>157</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>158</v>
       </c>
@@ -6739,7 +6736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160</v>
       </c>
@@ -6763,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>161</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>162</v>
       </c>
@@ -6811,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>163</v>
       </c>
@@ -6835,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>164</v>
       </c>
@@ -6859,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>165</v>
       </c>
@@ -6883,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>166</v>
       </c>
@@ -6907,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>167</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>168</v>
       </c>
@@ -6955,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -6979,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>170</v>
       </c>
@@ -7003,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>171</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>172</v>
       </c>
@@ -7051,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>173</v>
       </c>
@@ -7075,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>174</v>
       </c>
@@ -7096,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>175</v>
       </c>
@@ -7120,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>176</v>
       </c>
@@ -7144,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>177</v>
       </c>
@@ -7168,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>178</v>
       </c>
@@ -7192,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>179</v>
       </c>
@@ -7216,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>180</v>
       </c>
@@ -7240,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>181</v>
       </c>
@@ -7264,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>182</v>
       </c>
@@ -7288,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>183</v>
       </c>
@@ -7350,7 +7347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>185</v>
       </c>
@@ -7374,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>186</v>
       </c>
@@ -7398,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>187</v>
       </c>
@@ -7422,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>188</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>190</v>
       </c>
@@ -7506,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>191</v>
       </c>
@@ -7530,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>192</v>
       </c>
@@ -7554,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>193</v>
       </c>
@@ -7578,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>194</v>
       </c>
@@ -7602,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>195</v>
       </c>
@@ -7626,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>196</v>
       </c>
@@ -7650,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>197</v>
       </c>
@@ -7674,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>198</v>
       </c>
@@ -7698,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7722,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7746,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7770,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202</v>
       </c>
@@ -7794,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>203</v>
       </c>
@@ -7818,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>204</v>
       </c>
@@ -7842,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>205</v>
       </c>
@@ -7866,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>206</v>
       </c>
@@ -7890,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>207</v>
       </c>
@@ -7914,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>208</v>
       </c>
@@ -7938,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>209</v>
       </c>
@@ -7962,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>210</v>
       </c>
@@ -7986,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>211</v>
       </c>
@@ -8010,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>212</v>
       </c>
@@ -8034,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>213</v>
       </c>
@@ -8058,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>214</v>
       </c>
@@ -8082,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>215</v>
       </c>
@@ -8106,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>216</v>
       </c>
@@ -8130,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>217</v>
       </c>
@@ -8154,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>218</v>
       </c>
@@ -8178,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>219</v>
       </c>
@@ -8202,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>220</v>
       </c>
@@ -8226,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>221</v>
       </c>
@@ -8250,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>222</v>
       </c>
@@ -8274,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>223</v>
       </c>
@@ -8298,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>224</v>
       </c>
@@ -8358,7 +8355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>226</v>
       </c>
@@ -8382,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>227</v>
       </c>
@@ -8406,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>228</v>
       </c>
@@ -8430,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>229</v>
       </c>
@@ -8454,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>230</v>
       </c>
@@ -8478,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>231</v>
       </c>
@@ -8502,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>232</v>
       </c>
@@ -8526,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>233</v>
       </c>
@@ -8550,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>234</v>
       </c>
@@ -8574,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>235</v>
       </c>
@@ -8598,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>236</v>
       </c>
@@ -8622,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>237</v>
       </c>
@@ -8646,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>238</v>
       </c>
@@ -8670,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
@@ -8694,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>240</v>
       </c>
@@ -8718,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>241</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>242</v>
       </c>
@@ -8766,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>243</v>
       </c>
@@ -8790,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>244</v>
       </c>
@@ -8814,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>245</v>
       </c>
@@ -8838,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>246</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>247</v>
       </c>
@@ -8886,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>248</v>
       </c>
@@ -8910,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>249</v>
       </c>
@@ -8934,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>250</v>
       </c>
@@ -8958,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>251</v>
       </c>
@@ -8982,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>252</v>
       </c>
@@ -9006,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>253</v>
       </c>
@@ -9030,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>254</v>
       </c>
@@ -9054,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>255</v>
       </c>
@@ -9078,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>256</v>
       </c>
@@ -9102,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>257</v>
       </c>
@@ -9126,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>258</v>
       </c>
@@ -9150,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>259</v>
       </c>
@@ -9174,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>260</v>
       </c>
@@ -9198,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>261</v>
       </c>
@@ -9222,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>262</v>
       </c>
@@ -9246,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>263</v>
       </c>
@@ -9270,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>264</v>
       </c>
@@ -9294,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>265</v>
       </c>
@@ -9318,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>266</v>
       </c>
@@ -9342,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>267</v>
       </c>
@@ -9366,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>268</v>
       </c>
@@ -9390,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>269</v>
       </c>
@@ -9414,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>270</v>
       </c>
@@ -9438,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>271</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>272</v>
       </c>
@@ -9486,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>273</v>
       </c>
@@ -9510,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>274</v>
       </c>
@@ -9534,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>275</v>
       </c>
@@ -9558,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>276</v>
       </c>
@@ -9582,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>277</v>
       </c>
@@ -9606,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>278</v>
       </c>
@@ -9630,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>279</v>
       </c>
@@ -9654,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>280</v>
       </c>
@@ -9678,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>281</v>
       </c>
@@ -9702,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>282</v>
       </c>
@@ -9726,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>283</v>
       </c>
@@ -9750,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>284</v>
       </c>
@@ -9774,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>285</v>
       </c>
@@ -9798,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>286</v>
       </c>
@@ -9822,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>287</v>
       </c>
@@ -9846,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>288</v>
       </c>
@@ -9870,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>289</v>
       </c>
@@ -9894,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>290</v>
       </c>
@@ -9918,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>291</v>
       </c>
@@ -9942,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>292</v>
       </c>
@@ -9966,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>293</v>
       </c>
@@ -9990,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>294</v>
       </c>
@@ -10014,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>295</v>
       </c>
@@ -10038,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>296</v>
       </c>
@@ -10062,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>297</v>
       </c>
@@ -10086,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>298</v>
       </c>
@@ -10110,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>299</v>
       </c>
@@ -10134,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>300</v>
       </c>
@@ -10158,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>301</v>
       </c>
@@ -10182,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>302</v>
       </c>
@@ -10206,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>303</v>
       </c>
@@ -10230,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>304</v>
       </c>
@@ -10254,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>305</v>
       </c>
@@ -10278,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>306</v>
       </c>
@@ -10302,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>307</v>
       </c>
@@ -10326,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>308</v>
       </c>
@@ -10350,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>309</v>
       </c>
@@ -10374,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>310</v>
       </c>
@@ -10398,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311</v>
       </c>
@@ -10422,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>312</v>
       </c>
@@ -10446,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>313</v>
       </c>
@@ -10470,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>314</v>
       </c>
@@ -10494,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>315</v>
       </c>
@@ -10518,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>316</v>
       </c>
@@ -10542,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>317</v>
       </c>
@@ -10566,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>318</v>
       </c>
@@ -10590,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>319</v>
       </c>
@@ -10614,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>320</v>
       </c>
@@ -10638,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>321</v>
       </c>
@@ -10662,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>322</v>
       </c>
@@ -10686,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>323</v>
       </c>
@@ -10710,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>324</v>
       </c>
@@ -10734,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>325</v>
       </c>
@@ -10758,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>326</v>
       </c>
@@ -10782,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>327</v>
       </c>
@@ -10806,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>328</v>
       </c>
@@ -10830,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>329</v>
       </c>
@@ -10854,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>330</v>
       </c>
@@ -10878,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>331</v>
       </c>
@@ -10902,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>332</v>
       </c>
@@ -10923,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>333</v>
       </c>
@@ -10947,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>334</v>
       </c>
@@ -10971,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -10995,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>336</v>
       </c>
@@ -11019,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>337</v>
       </c>
@@ -11043,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>338</v>
       </c>
@@ -11067,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>339</v>
       </c>
@@ -11091,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>340</v>
       </c>
@@ -11115,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>341</v>
       </c>
@@ -11139,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>342</v>
       </c>
@@ -11163,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>343</v>
       </c>
@@ -11187,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>344</v>
       </c>
@@ -11211,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>345</v>
       </c>
@@ -11235,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>346</v>
       </c>
@@ -11259,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>347</v>
       </c>
@@ -11283,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>348</v>
       </c>
@@ -11307,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>349</v>
       </c>
@@ -11331,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>350</v>
       </c>
@@ -11355,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>351</v>
       </c>
@@ -11379,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -11403,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>353</v>
       </c>
@@ -11427,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>354</v>
       </c>
@@ -11451,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>355</v>
       </c>
@@ -11475,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>356</v>
       </c>
@@ -11499,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -11523,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -11547,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>359</v>
       </c>
@@ -11571,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>360</v>
       </c>
@@ -11595,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>361</v>
       </c>
@@ -11619,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -11643,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -11667,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>364</v>
       </c>
@@ -11691,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>365</v>
       </c>
@@ -11715,7 +11712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>366</v>
       </c>
@@ -11739,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>367</v>
       </c>
@@ -11763,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>368</v>
       </c>
@@ -11787,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>369</v>
       </c>
@@ -11811,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>370</v>
       </c>
@@ -11835,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>371</v>
       </c>
@@ -11859,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>372</v>
       </c>
@@ -11883,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>373</v>
       </c>
@@ -11907,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>374</v>
       </c>
@@ -11931,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>375</v>
       </c>
@@ -11955,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>376</v>
       </c>
@@ -11979,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>377</v>
       </c>
@@ -12003,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>378</v>
       </c>
@@ -12027,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>379</v>
       </c>
@@ -12051,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>380</v>
       </c>
@@ -12075,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>381</v>
       </c>
@@ -12099,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>382</v>
       </c>
@@ -12123,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>383</v>
       </c>
@@ -12147,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>384</v>
       </c>
@@ -12171,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>385</v>
       </c>
@@ -12195,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>386</v>
       </c>
@@ -12219,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>388</v>
       </c>
@@ -12243,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>389</v>
       </c>
@@ -12267,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>390</v>
       </c>
@@ -12291,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>391</v>
       </c>
@@ -12315,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>392</v>
       </c>
@@ -12339,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>393</v>
       </c>
@@ -12363,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>394</v>
       </c>
@@ -12387,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>395</v>
       </c>
@@ -12411,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>396</v>
       </c>
@@ -12435,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>397</v>
       </c>
@@ -12459,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>398</v>
       </c>
@@ -12483,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>399</v>
       </c>
@@ -12507,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>400</v>
       </c>
@@ -12531,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>401</v>
       </c>
@@ -12555,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>402</v>
       </c>
@@ -12579,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>403</v>
       </c>
@@ -12603,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>404</v>
       </c>
@@ -12627,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>405</v>
       </c>
@@ -12651,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>406</v>
       </c>
@@ -12675,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>407</v>
       </c>
@@ -12699,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>408</v>
       </c>
@@ -12723,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>409</v>
       </c>
@@ -12747,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>410</v>
       </c>
@@ -12771,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>411</v>
       </c>
@@ -12795,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>412</v>
       </c>
@@ -12819,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>413</v>
       </c>
@@ -12843,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>414</v>
       </c>
@@ -12867,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>415</v>
       </c>
@@ -12891,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>416</v>
       </c>
@@ -12915,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>417</v>
       </c>
@@ -12939,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>418</v>
       </c>
@@ -12963,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>419</v>
       </c>
@@ -12987,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>420</v>
       </c>
@@ -13011,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>421</v>
       </c>
@@ -13035,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>422</v>
       </c>
@@ -13059,7 +13056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>423</v>
       </c>
@@ -13083,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>424</v>
       </c>
@@ -13107,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>425</v>
       </c>
@@ -13131,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>426</v>
       </c>
@@ -13155,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>427</v>
       </c>
@@ -13179,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>428</v>
       </c>
@@ -13203,7 +13200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>429</v>
       </c>
@@ -13227,7 +13224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>430</v>
       </c>
@@ -13251,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>431</v>
       </c>
@@ -13275,7 +13272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>432</v>
       </c>
@@ -13299,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>433</v>
       </c>
@@ -13323,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>434</v>
       </c>
@@ -13347,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>435</v>
       </c>
@@ -13371,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>436</v>
       </c>
@@ -13395,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>437</v>
       </c>
@@ -13419,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>438</v>
       </c>
@@ -13443,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>439</v>
       </c>
@@ -13467,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>440</v>
       </c>
@@ -13488,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>441</v>
       </c>
@@ -13512,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>442</v>
       </c>
@@ -13536,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>443</v>
       </c>
@@ -13560,7 +13557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>444</v>
       </c>
@@ -13584,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>446</v>
       </c>
@@ -13608,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>447</v>
       </c>
@@ -13632,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>448</v>
       </c>
@@ -13656,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>449</v>
       </c>
@@ -13680,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>450</v>
       </c>
@@ -13704,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>451</v>
       </c>
@@ -13728,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>452</v>
       </c>
@@ -13752,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>453</v>
       </c>
@@ -13776,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>454</v>
       </c>
@@ -13800,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>455</v>
       </c>
@@ -13824,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>456</v>
       </c>
@@ -13848,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>457</v>
       </c>
@@ -13872,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>458</v>
       </c>
@@ -13896,7 +13893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>459</v>
       </c>
@@ -13920,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>460</v>
       </c>
@@ -13944,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>461</v>
       </c>
@@ -13968,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>462</v>
       </c>
@@ -13992,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>463</v>
       </c>
@@ -14016,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>464</v>
       </c>
@@ -14040,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>465</v>
       </c>
@@ -14064,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>466</v>
       </c>
@@ -14088,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>468</v>
       </c>
@@ -14112,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>469</v>
       </c>
@@ -14136,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>470</v>
       </c>
@@ -14160,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>471</v>
       </c>
@@ -14184,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>472</v>
       </c>
@@ -14208,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>473</v>
       </c>
@@ -14232,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>474</v>
       </c>
@@ -14256,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>475</v>
       </c>
@@ -14280,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>476</v>
       </c>
@@ -14304,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>477</v>
       </c>
@@ -14328,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>478</v>
       </c>
@@ -14352,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>479</v>
       </c>
@@ -14376,7 +14373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>480</v>
       </c>
@@ -14400,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>481</v>
       </c>
@@ -14424,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>482</v>
       </c>
@@ -14448,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>483</v>
       </c>
@@ -14472,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>484</v>
       </c>
@@ -14496,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>485</v>
       </c>
@@ -14520,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>486</v>
       </c>
@@ -14544,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>487</v>
       </c>
@@ -14568,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>488</v>
       </c>
@@ -14592,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>489</v>
       </c>
@@ -14616,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>490</v>
       </c>
@@ -14640,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>491</v>
       </c>
@@ -14664,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>492</v>
       </c>
@@ -14688,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>493</v>
       </c>
@@ -14712,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>494</v>
       </c>
@@ -14736,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>495</v>
       </c>
@@ -14760,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>496</v>
       </c>
@@ -14784,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>497</v>
       </c>
@@ -14808,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>498</v>
       </c>
@@ -14832,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>499</v>
       </c>
@@ -14856,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>500</v>
       </c>
@@ -14880,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>501</v>
       </c>
@@ -14904,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>502</v>
       </c>
@@ -14928,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>503</v>
       </c>
@@ -14952,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>504</v>
       </c>
@@ -14976,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>505</v>
       </c>
@@ -15000,7 +14997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>506</v>
       </c>
@@ -15024,7 +15021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>507</v>
       </c>
@@ -15048,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>508</v>
       </c>
@@ -15072,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>509</v>
       </c>
@@ -15096,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>510</v>
       </c>
@@ -15120,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>511</v>
       </c>
@@ -15144,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>512</v>
       </c>
@@ -15168,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>513</v>
       </c>
@@ -15192,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>514</v>
       </c>
@@ -15216,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>515</v>
       </c>
@@ -15240,7 +15237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>516</v>
       </c>
@@ -15264,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>517</v>
       </c>
@@ -15288,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>518</v>
       </c>
@@ -15312,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>519</v>
       </c>
@@ -15336,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>520</v>
       </c>
@@ -15360,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>521</v>
       </c>
@@ -15384,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>522</v>
       </c>
@@ -15408,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>523</v>
       </c>
@@ -15429,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>524</v>
       </c>
@@ -15453,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>525</v>
       </c>
@@ -15477,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>526</v>
       </c>
@@ -15501,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>527</v>
       </c>
@@ -15525,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>528</v>
       </c>
@@ -15549,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>529</v>
       </c>
@@ -15573,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>530</v>
       </c>
@@ -15597,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>532</v>
       </c>
@@ -15621,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>533</v>
       </c>
@@ -15645,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>534</v>
       </c>
@@ -15669,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>535</v>
       </c>
@@ -15693,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>536</v>
       </c>
@@ -15717,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>537</v>
       </c>
@@ -15741,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>538</v>
       </c>
@@ -15765,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>539</v>
       </c>
@@ -15789,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>540</v>
       </c>
@@ -15813,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>541</v>
       </c>
@@ -15837,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>542</v>
       </c>
@@ -15861,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>543</v>
       </c>
@@ -15885,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>544</v>
       </c>
@@ -15909,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>545</v>
       </c>
@@ -15933,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>546</v>
       </c>
@@ -15957,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>547</v>
       </c>
@@ -15981,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>548</v>
       </c>
@@ -16005,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>549</v>
       </c>
@@ -16029,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -16053,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>551</v>
       </c>
@@ -16077,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>552</v>
       </c>
@@ -16101,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>553</v>
       </c>
@@ -16125,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>554</v>
       </c>
@@ -16149,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>555</v>
       </c>
@@ -16173,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>556</v>
       </c>
@@ -16197,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>557</v>
       </c>
@@ -16221,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>558</v>
       </c>
@@ -16245,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>559</v>
       </c>
@@ -16269,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>561</v>
       </c>
@@ -16293,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>562</v>
       </c>
@@ -16317,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>563</v>
       </c>
@@ -16341,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>564</v>
       </c>
@@ -16365,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>565</v>
       </c>
@@ -16389,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>566</v>
       </c>
@@ -16413,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>567</v>
       </c>
@@ -16437,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>568</v>
       </c>
@@ -16461,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>569</v>
       </c>
@@ -16485,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>570</v>
       </c>
@@ -16509,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>572</v>
       </c>
@@ -16533,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>573</v>
       </c>
@@ -16557,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>574</v>
       </c>
@@ -16581,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>575</v>
       </c>
@@ -16605,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>576</v>
       </c>
@@ -16629,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>577</v>
       </c>
@@ -16653,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>578</v>
       </c>
@@ -16677,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>579</v>
       </c>
@@ -16701,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>581</v>
       </c>
@@ -16725,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>582</v>
       </c>
@@ -16749,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>584</v>
       </c>
@@ -16773,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>586</v>
       </c>
@@ -16797,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>587</v>
       </c>
@@ -16821,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>588</v>
       </c>
@@ -16845,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>589</v>
       </c>
@@ -16869,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>590</v>
       </c>
@@ -16893,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>591</v>
       </c>
@@ -16917,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>592</v>
       </c>
@@ -16941,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>593</v>
       </c>
@@ -16965,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>594</v>
       </c>
@@ -16989,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>595</v>
       </c>
@@ -17013,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>596</v>
       </c>
@@ -17037,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>597</v>
       </c>
@@ -17061,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>598</v>
       </c>
@@ -17085,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>599</v>
       </c>
@@ -17109,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>600</v>
       </c>
@@ -17133,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>601</v>
       </c>
@@ -17157,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>602</v>
       </c>
@@ -17181,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>603</v>
       </c>
@@ -17205,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>604</v>
       </c>
@@ -17229,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>605</v>
       </c>
@@ -17253,7 +17250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>606</v>
       </c>
@@ -17277,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>607</v>
       </c>
@@ -17301,7 +17298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>608</v>
       </c>
@@ -17325,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>609</v>
       </c>
@@ -17349,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>611</v>
       </c>
@@ -17373,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>612</v>
       </c>
@@ -17397,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>613</v>
       </c>
@@ -17421,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>614</v>
       </c>
@@ -17445,7 +17442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>615</v>
       </c>
@@ -17469,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>616</v>
       </c>
@@ -17493,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>617</v>
       </c>
@@ -17517,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>619</v>
       </c>
@@ -17541,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>620</v>
       </c>
@@ -17565,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>621</v>
       </c>
@@ -17589,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>622</v>
       </c>
@@ -17613,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>623</v>
       </c>
@@ -17637,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>624</v>
       </c>
@@ -17661,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>625</v>
       </c>
@@ -17685,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>626</v>
       </c>
@@ -17709,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>627</v>
       </c>
@@ -17733,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>628</v>
       </c>
@@ -17757,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>629</v>
       </c>
@@ -17781,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>630</v>
       </c>
@@ -17805,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>631</v>
       </c>
@@ -17829,7 +17826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>632</v>
       </c>
@@ -17853,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>633</v>
       </c>
@@ -17877,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>634</v>
       </c>
@@ -17901,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>635</v>
       </c>
@@ -17925,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>636</v>
       </c>
@@ -17949,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>637</v>
       </c>
@@ -17973,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>638</v>
       </c>
@@ -17997,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>639</v>
       </c>
@@ -18021,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>640</v>
       </c>
@@ -18045,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>641</v>
       </c>
@@ -18069,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>642</v>
       </c>
@@ -18093,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>643</v>
       </c>
@@ -18117,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>644</v>
       </c>
@@ -18141,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>645</v>
       </c>
@@ -18165,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>646</v>
       </c>
@@ -18189,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>647</v>
       </c>
@@ -18213,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>649</v>
       </c>
@@ -18237,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>650</v>
       </c>
@@ -18261,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>651</v>
       </c>
@@ -18285,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>652</v>
       </c>
@@ -18309,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>653</v>
       </c>
@@ -18333,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>654</v>
       </c>
@@ -18357,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>655</v>
       </c>
@@ -18381,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>657</v>
       </c>
@@ -18405,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>658</v>
       </c>
@@ -18429,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>659</v>
       </c>
@@ -18453,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>660</v>
       </c>
@@ -18477,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>661</v>
       </c>
@@ -18501,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>662</v>
       </c>
@@ -18525,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>664</v>
       </c>
@@ -18549,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>665</v>
       </c>
@@ -18573,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>666</v>
       </c>
@@ -18597,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>667</v>
       </c>
@@ -18621,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>668</v>
       </c>
@@ -18645,7 +18642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>669</v>
       </c>
@@ -18669,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>670</v>
       </c>
@@ -18693,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>671</v>
       </c>
@@ -18717,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>672</v>
       </c>
@@ -18741,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>673</v>
       </c>
@@ -18765,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>674</v>
       </c>
@@ -18789,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>675</v>
       </c>
@@ -18813,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>676</v>
       </c>
@@ -18837,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>677</v>
       </c>
@@ -18861,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>678</v>
       </c>
@@ -18885,7 +18882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>679</v>
       </c>
@@ -18909,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>680</v>
       </c>
@@ -18933,7 +18930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>681</v>
       </c>
@@ -18957,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>682</v>
       </c>
@@ -18981,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>683</v>
       </c>
@@ -19005,7 +19002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>684</v>
       </c>
@@ -19029,7 +19026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>685</v>
       </c>
@@ -19053,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>686</v>
       </c>
@@ -19077,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>687</v>
       </c>
@@ -19101,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>688</v>
       </c>
@@ -19125,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>689</v>
       </c>
@@ -19149,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>690</v>
       </c>
@@ -19173,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>691</v>
       </c>
@@ -19197,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>692</v>
       </c>
@@ -19221,7 +19218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>693</v>
       </c>
@@ -19245,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>694</v>
       </c>
@@ -19269,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>696</v>
       </c>
@@ -19293,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>697</v>
       </c>
@@ -19317,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>698</v>
       </c>
@@ -19341,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>699</v>
       </c>
@@ -19365,7 +19362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>700</v>
       </c>
@@ -19389,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>701</v>
       </c>
@@ -19413,7 +19410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>702</v>
       </c>
@@ -19437,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>703</v>
       </c>
@@ -19461,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>704</v>
       </c>
@@ -19485,7 +19482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>705</v>
       </c>
@@ -19509,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>706</v>
       </c>
@@ -19533,7 +19530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>707</v>
       </c>
@@ -19557,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>708</v>
       </c>
@@ -19581,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>709</v>
       </c>
@@ -19605,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>710</v>
       </c>
@@ -19629,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>711</v>
       </c>
@@ -19653,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>712</v>
       </c>
@@ -19677,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>713</v>
       </c>
@@ -19701,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>714</v>
       </c>
@@ -19725,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>715</v>
       </c>
@@ -19749,7 +19746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>716</v>
       </c>
@@ -19773,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>717</v>
       </c>
@@ -19797,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>718</v>
       </c>
@@ -19821,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>719</v>
       </c>
@@ -19845,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>720</v>
       </c>
@@ -19869,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>721</v>
       </c>
@@ -19893,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>722</v>
       </c>
@@ -19917,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>723</v>
       </c>
@@ -19941,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>724</v>
       </c>
@@ -19965,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>725</v>
       </c>
@@ -19989,7 +19986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>726</v>
       </c>
@@ -20013,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>727</v>
       </c>
@@ -20037,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>728</v>
       </c>
@@ -20061,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>729</v>
       </c>
@@ -20085,7 +20082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>730</v>
       </c>
@@ -20109,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>731</v>
       </c>
@@ -20133,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>732</v>
       </c>
@@ -20157,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>733</v>
       </c>
@@ -20181,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>734</v>
       </c>
@@ -20205,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>735</v>
       </c>
@@ -20229,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>736</v>
       </c>
@@ -20253,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>737</v>
       </c>
@@ -20277,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>738</v>
       </c>
@@ -20301,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>739</v>
       </c>
@@ -20325,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>740</v>
       </c>
@@ -20349,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>741</v>
       </c>
@@ -20373,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>742</v>
       </c>
@@ -20397,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>743</v>
       </c>
@@ -20421,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>744</v>
       </c>
@@ -20445,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>745</v>
       </c>
@@ -20469,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>746</v>
       </c>
@@ -20493,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>747</v>
       </c>
@@ -20517,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>748</v>
       </c>
@@ -20541,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>749</v>
       </c>
@@ -20565,7 +20562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750</v>
       </c>
@@ -20589,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>751</v>
       </c>
@@ -20613,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>752</v>
       </c>
@@ -20637,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>753</v>
       </c>
@@ -20661,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>754</v>
       </c>
@@ -20685,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>755</v>
       </c>
@@ -20709,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>756</v>
       </c>
@@ -20733,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>757</v>
       </c>
@@ -20757,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>758</v>
       </c>
@@ -20781,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>759</v>
       </c>
@@ -20805,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>760</v>
       </c>
@@ -20829,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>761</v>
       </c>
@@ -20853,7 +20850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>763</v>
       </c>
@@ -20877,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>764</v>
       </c>
@@ -20901,7 +20898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>765</v>
       </c>
@@ -20925,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>766</v>
       </c>
@@ -20949,7 +20946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>767</v>
       </c>
@@ -20973,7 +20970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>768</v>
       </c>
@@ -20997,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>769</v>
       </c>
@@ -21021,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>770</v>
       </c>
@@ -21045,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>771</v>
       </c>
@@ -21069,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>772</v>
       </c>
@@ -21093,7 +21090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>773</v>
       </c>
@@ -21117,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>775</v>
       </c>
@@ -21141,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>776</v>
       </c>
@@ -21165,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>777</v>
       </c>
@@ -21189,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>778</v>
       </c>
@@ -21213,7 +21210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>779</v>
       </c>
@@ -21237,7 +21234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>780</v>
       </c>
@@ -21261,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>781</v>
       </c>
@@ -21285,7 +21282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>782</v>
       </c>
@@ -21309,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>783</v>
       </c>
@@ -21333,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>784</v>
       </c>
@@ -21357,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>785</v>
       </c>
@@ -21381,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>786</v>
       </c>
@@ -21405,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>787</v>
       </c>
@@ -21429,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>788</v>
       </c>
@@ -21453,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>789</v>
       </c>
@@ -21477,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>790</v>
       </c>
@@ -21501,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>791</v>
       </c>
@@ -21525,7 +21522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>792</v>
       </c>
@@ -21549,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>793</v>
       </c>
@@ -21573,7 +21570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>794</v>
       </c>
@@ -21597,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>795</v>
       </c>
@@ -21621,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>796</v>
       </c>
@@ -21645,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>797</v>
       </c>
@@ -21669,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>798</v>
       </c>
@@ -21693,7 +21690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>799</v>
       </c>
@@ -21717,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>800</v>
       </c>
@@ -21741,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>801</v>
       </c>
@@ -21765,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>802</v>
       </c>
@@ -21789,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>803</v>
       </c>
@@ -21813,7 +21810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>804</v>
       </c>
@@ -21837,7 +21834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>805</v>
       </c>
@@ -21861,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>806</v>
       </c>
@@ -21885,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>807</v>
       </c>
@@ -21909,7 +21906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>808</v>
       </c>
@@ -21933,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>809</v>
       </c>
@@ -21957,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>810</v>
       </c>
@@ -21981,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>811</v>
       </c>
@@ -22005,7 +22002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>812</v>
       </c>
@@ -22029,7 +22026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>813</v>
       </c>
@@ -22053,7 +22050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>814</v>
       </c>
@@ -22077,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>815</v>
       </c>
@@ -22101,7 +22098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>816</v>
       </c>
@@ -22125,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>817</v>
       </c>
@@ -22149,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>818</v>
       </c>
@@ -22173,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>819</v>
       </c>
@@ -22197,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>820</v>
       </c>
@@ -22221,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>821</v>
       </c>
@@ -22245,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>822</v>
       </c>
@@ -22269,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>823</v>
       </c>
@@ -22293,7 +22290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>824</v>
       </c>
@@ -22317,7 +22314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>825</v>
       </c>
@@ -22341,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>826</v>
       </c>
@@ -22365,7 +22362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>827</v>
       </c>
@@ -22389,7 +22386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>828</v>
       </c>
@@ -22413,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>829</v>
       </c>
@@ -22437,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>830</v>
       </c>
@@ -22461,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>831</v>
       </c>
@@ -22485,7 +22482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>832</v>
       </c>
@@ -22509,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>833</v>
       </c>
@@ -22533,7 +22530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>834</v>
       </c>
@@ -22557,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>835</v>
       </c>
@@ -22581,7 +22578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>836</v>
       </c>
@@ -22605,7 +22602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>837</v>
       </c>
@@ -22629,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>839</v>
       </c>
@@ -22653,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>840</v>
       </c>
@@ -22677,7 +22674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>841</v>
       </c>
@@ -22698,7 +22695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>842</v>
       </c>
@@ -22722,7 +22719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>843</v>
       </c>
@@ -22746,7 +22743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>844</v>
       </c>
@@ -22770,7 +22767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>845</v>
       </c>
@@ -22794,7 +22791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>846</v>
       </c>
@@ -22818,7 +22815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>847</v>
       </c>
@@ -22842,7 +22839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>848</v>
       </c>
@@ -22866,7 +22863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>849</v>
       </c>
@@ -22890,7 +22887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>850</v>
       </c>
@@ -22914,7 +22911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>851</v>
       </c>
@@ -22938,7 +22935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>852</v>
       </c>
@@ -22962,7 +22959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>854</v>
       </c>
@@ -22986,7 +22983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>855</v>
       </c>
@@ -23010,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>856</v>
       </c>
@@ -23034,7 +23031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>857</v>
       </c>
@@ -23058,7 +23055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>858</v>
       </c>
@@ -23082,7 +23079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>859</v>
       </c>
@@ -23106,7 +23103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>860</v>
       </c>
@@ -23130,7 +23127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>861</v>
       </c>
@@ -23154,7 +23151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>862</v>
       </c>
@@ -23178,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>863</v>
       </c>
@@ -23202,7 +23199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>864</v>
       </c>
@@ -23226,7 +23223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>865</v>
       </c>
@@ -23250,7 +23247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>866</v>
       </c>
@@ -23274,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>867</v>
       </c>
@@ -23298,7 +23295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>868</v>
       </c>
@@ -23322,7 +23319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>869</v>
       </c>
@@ -23346,7 +23343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>871</v>
       </c>
@@ -23370,7 +23367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>872</v>
       </c>
@@ -23394,7 +23391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>873</v>
       </c>
@@ -23418,7 +23415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>874</v>
       </c>
@@ -23442,7 +23439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>875</v>
       </c>
@@ -23466,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>876</v>
       </c>
@@ -23490,7 +23487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>877</v>
       </c>
@@ -23514,7 +23511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>878</v>
       </c>
@@ -23538,7 +23535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>880</v>
       </c>
@@ -23562,7 +23559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>881</v>
       </c>
@@ -23586,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>882</v>
       </c>
@@ -23610,7 +23607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>883</v>
       </c>
@@ -23634,7 +23631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>884</v>
       </c>
@@ -23658,7 +23655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>885</v>
       </c>
@@ -23682,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>886</v>
       </c>
@@ -23706,7 +23703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>887</v>
       </c>
@@ -23730,7 +23727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>888</v>
       </c>
@@ -23754,7 +23751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>889</v>
       </c>
@@ -23778,7 +23775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>890</v>
       </c>
@@ -23802,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>891</v>
       </c>
@@ -23826,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>892</v>
       </c>
@@ -23850,7 +23847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>893</v>
       </c>
@@ -23874,7 +23871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>895</v>
       </c>
@@ -23898,7 +23895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>897</v>
       </c>
@@ -23922,7 +23919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>898</v>
       </c>
@@ -23946,7 +23943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>899</v>
       </c>
@@ -23970,7 +23967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>900</v>
       </c>
@@ -23994,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>901</v>
       </c>
@@ -24018,7 +24015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>902</v>
       </c>
@@ -24042,7 +24039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>903</v>
       </c>
@@ -24066,7 +24063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>904</v>
       </c>
@@ -24090,7 +24087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>905</v>
       </c>
@@ -24114,7 +24111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>906</v>
       </c>
@@ -24138,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>907</v>
       </c>
@@ -24162,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>908</v>
       </c>
@@ -24186,7 +24183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>909</v>
       </c>
@@ -24210,7 +24207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>910</v>
       </c>
@@ -24234,7 +24231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>911</v>
       </c>
@@ -24258,7 +24255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>912</v>
       </c>
@@ -24282,7 +24279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>913</v>
       </c>
@@ -24306,7 +24303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>914</v>
       </c>
@@ -24330,7 +24327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>915</v>
       </c>
@@ -24354,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>916</v>
       </c>
@@ -24378,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>917</v>
       </c>
@@ -24402,7 +24399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>918</v>
       </c>
@@ -24426,7 +24423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>919</v>
       </c>
@@ -24450,7 +24447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>920</v>
       </c>
@@ -24474,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>921</v>
       </c>
@@ -24498,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>922</v>
       </c>
@@ -24522,7 +24519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>923</v>
       </c>
@@ -24546,7 +24543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>924</v>
       </c>
@@ -24570,7 +24567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>925</v>
       </c>
@@ -24594,7 +24591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>926</v>
       </c>
@@ -24618,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>927</v>
       </c>
@@ -24642,7 +24639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>928</v>
       </c>
@@ -24666,7 +24663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>929</v>
       </c>
@@ -24690,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>930</v>
       </c>
@@ -24714,7 +24711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>931</v>
       </c>
@@ -24738,7 +24735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>932</v>
       </c>
@@ -24762,7 +24759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>933</v>
       </c>
@@ -24786,7 +24783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>934</v>
       </c>
@@ -24810,7 +24807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>935</v>
       </c>
@@ -24834,7 +24831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>936</v>
       </c>
@@ -24858,7 +24855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>937</v>
       </c>
@@ -24882,7 +24879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>938</v>
       </c>
@@ -24906,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>939</v>
       </c>
@@ -24930,7 +24927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>940</v>
       </c>
@@ -24954,7 +24951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>941</v>
       </c>
@@ -24978,7 +24975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>942</v>
       </c>
@@ -25002,7 +24999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>943</v>
       </c>
@@ -25026,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>944</v>
       </c>
@@ -25050,7 +25047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>945</v>
       </c>
@@ -25074,7 +25071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>946</v>
       </c>
@@ -25098,7 +25095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>947</v>
       </c>
@@ -25122,7 +25119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>949</v>
       </c>
@@ -25146,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>950</v>
       </c>
@@ -25170,7 +25167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>951</v>
       </c>
@@ -25194,7 +25191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>952</v>
       </c>
@@ -25218,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>953</v>
       </c>
@@ -25242,7 +25239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>954</v>
       </c>
@@ -25266,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>955</v>
       </c>
@@ -25290,7 +25287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>956</v>
       </c>
@@ -25314,7 +25311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>957</v>
       </c>
@@ -25338,7 +25335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>958</v>
       </c>
@@ -25362,7 +25359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>959</v>
       </c>
@@ -25386,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>960</v>
       </c>
@@ -25410,7 +25407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>961</v>
       </c>
@@ -25434,7 +25431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>962</v>
       </c>
@@ -25458,7 +25455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>963</v>
       </c>
@@ -25482,7 +25479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>964</v>
       </c>
@@ -25506,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>965</v>
       </c>
@@ -25530,7 +25527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>967</v>
       </c>
@@ -25554,7 +25551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>968</v>
       </c>
@@ -25578,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>969</v>
       </c>
@@ -25602,7 +25599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>970</v>
       </c>
@@ -25626,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>971</v>
       </c>
@@ -25650,7 +25647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>972</v>
       </c>
@@ -25674,7 +25671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>973</v>
       </c>
@@ -25698,7 +25695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>974</v>
       </c>
@@ -25722,7 +25719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>975</v>
       </c>
@@ -25746,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>976</v>
       </c>
@@ -25770,7 +25767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>977</v>
       </c>
@@ -25794,7 +25791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>978</v>
       </c>
@@ -25818,7 +25815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>979</v>
       </c>
@@ -25842,7 +25839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>980</v>
       </c>
@@ -25866,7 +25863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>981</v>
       </c>
@@ -25890,7 +25887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>982</v>
       </c>
@@ -25914,7 +25911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>983</v>
       </c>
@@ -25938,7 +25935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>984</v>
       </c>
@@ -25962,7 +25959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>985</v>
       </c>
@@ -25986,7 +25983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>986</v>
       </c>
@@ -26010,7 +26007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>987</v>
       </c>
@@ -26034,7 +26031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>988</v>
       </c>
@@ -26058,7 +26055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>989</v>
       </c>
@@ -26082,7 +26079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>990</v>
       </c>
@@ -26106,7 +26103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>991</v>
       </c>
@@ -26130,7 +26127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>992</v>
       </c>
@@ -26154,7 +26151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>993</v>
       </c>
@@ -26178,7 +26175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>994</v>
       </c>
@@ -26202,7 +26199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>995</v>
       </c>
@@ -26226,7 +26223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>996</v>
       </c>
@@ -26250,7 +26247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>997</v>
       </c>
@@ -26274,7 +26271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>998</v>
       </c>
@@ -26298,7 +26295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>999</v>
       </c>
@@ -26322,7 +26319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1000</v>
       </c>
@@ -26346,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1001</v>
       </c>
@@ -26370,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1002</v>
       </c>
@@ -26394,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1003</v>
       </c>
@@ -26418,7 +26415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1004</v>
       </c>
@@ -26442,7 +26439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1005</v>
       </c>
@@ -26466,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1006</v>
       </c>
@@ -26490,7 +26487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1007</v>
       </c>
@@ -26514,7 +26511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1008</v>
       </c>
@@ -26538,7 +26535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1009</v>
       </c>
@@ -26562,7 +26559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1010</v>
       </c>
@@ -26586,7 +26583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1011</v>
       </c>
@@ -26610,7 +26607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1013</v>
       </c>
@@ -26634,7 +26631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1014</v>
       </c>
@@ -26658,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1015</v>
       </c>
@@ -26682,7 +26679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1016</v>
       </c>
@@ -26706,7 +26703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1018</v>
       </c>
@@ -26730,7 +26727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1019</v>
       </c>
@@ -26754,7 +26751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1020</v>
       </c>
@@ -26778,7 +26775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1021</v>
       </c>
@@ -26802,7 +26799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1022</v>
       </c>
@@ -26826,7 +26823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1023</v>
       </c>
@@ -26850,7 +26847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1024</v>
       </c>
@@ -26874,7 +26871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1025</v>
       </c>
@@ -26898,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1026</v>
       </c>
@@ -26922,7 +26919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1027</v>
       </c>
@@ -26946,7 +26943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1028</v>
       </c>
@@ -26970,7 +26967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1029</v>
       </c>
@@ -26994,7 +26991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1030</v>
       </c>
@@ -27018,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1031</v>
       </c>
@@ -27042,7 +27039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1032</v>
       </c>
@@ -27066,7 +27063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1033</v>
       </c>
@@ -27090,7 +27087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1034</v>
       </c>
@@ -27114,7 +27111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1035</v>
       </c>
@@ -27138,7 +27135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1036</v>
       </c>
@@ -27162,7 +27159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1037</v>
       </c>
@@ -27186,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1038</v>
       </c>
@@ -27210,7 +27207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1039</v>
       </c>
@@ -27234,7 +27231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1040</v>
       </c>
@@ -27258,7 +27255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1041</v>
       </c>
@@ -27282,7 +27279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1042</v>
       </c>
@@ -27306,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1043</v>
       </c>
@@ -27330,7 +27327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1044</v>
       </c>
@@ -27354,7 +27351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1045</v>
       </c>
@@ -27375,7 +27372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1046</v>
       </c>
@@ -27399,7 +27396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1047</v>
       </c>
@@ -27423,7 +27420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1048</v>
       </c>
@@ -27447,7 +27444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1049</v>
       </c>
@@ -27471,7 +27468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1050</v>
       </c>
@@ -27495,7 +27492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1051</v>
       </c>
@@ -27519,7 +27516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1052</v>
       </c>
@@ -27543,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1053</v>
       </c>
@@ -27567,7 +27564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1054</v>
       </c>
@@ -27591,7 +27588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1055</v>
       </c>
@@ -27615,7 +27612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1056</v>
       </c>
@@ -27639,7 +27636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1057</v>
       </c>
@@ -27663,7 +27660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1058</v>
       </c>
@@ -27687,7 +27684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1059</v>
       </c>
@@ -27711,7 +27708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1060</v>
       </c>
@@ -27735,7 +27732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1061</v>
       </c>
@@ -27759,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1062</v>
       </c>
@@ -27783,7 +27780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1063</v>
       </c>
@@ -27807,7 +27804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1064</v>
       </c>
@@ -27831,7 +27828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1065</v>
       </c>
@@ -27855,7 +27852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1066</v>
       </c>
@@ -27879,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1068</v>
       </c>
@@ -27903,7 +27900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1069</v>
       </c>
@@ -27927,7 +27924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1070</v>
       </c>
@@ -27951,7 +27948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1071</v>
       </c>
@@ -27975,7 +27972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1072</v>
       </c>
@@ -27999,7 +27996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1073</v>
       </c>
@@ -28023,7 +28020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1074</v>
       </c>
@@ -28047,7 +28044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1075</v>
       </c>
@@ -28071,7 +28068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1076</v>
       </c>
@@ -28095,7 +28092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1077</v>
       </c>
@@ -28119,7 +28116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1078</v>
       </c>
@@ -28143,7 +28140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1079</v>
       </c>
@@ -28167,7 +28164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1080</v>
       </c>
@@ -28191,7 +28188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1082</v>
       </c>
@@ -28215,7 +28212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1083</v>
       </c>
@@ -28239,7 +28236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1084</v>
       </c>
@@ -28263,7 +28260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1085</v>
       </c>
@@ -28287,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1086</v>
       </c>
@@ -28311,7 +28308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1087</v>
       </c>
@@ -28335,7 +28332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1088</v>
       </c>
@@ -28359,7 +28356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1089</v>
       </c>
@@ -28383,7 +28380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1090</v>
       </c>
@@ -28407,7 +28404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1091</v>
       </c>
@@ -28431,7 +28428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1092</v>
       </c>
@@ -28455,7 +28452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1093</v>
       </c>
@@ -28479,7 +28476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1094</v>
       </c>
@@ -28503,7 +28500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1095</v>
       </c>
@@ -28527,7 +28524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1096</v>
       </c>
@@ -28551,7 +28548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1097</v>
       </c>
@@ -28575,7 +28572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1098</v>
       </c>
@@ -28599,7 +28596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1099</v>
       </c>
@@ -28623,7 +28620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1100</v>
       </c>
@@ -28647,7 +28644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1101</v>
       </c>
@@ -28671,7 +28668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1102</v>
       </c>
@@ -28695,7 +28692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1103</v>
       </c>
@@ -28719,7 +28716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1104</v>
       </c>
@@ -28743,7 +28740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1105</v>
       </c>
@@ -28767,7 +28764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1106</v>
       </c>
@@ -28791,7 +28788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1107</v>
       </c>
@@ -28815,7 +28812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1108</v>
       </c>
@@ -28839,7 +28836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1109</v>
       </c>
@@ -28899,7 +28896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1111</v>
       </c>
@@ -28923,7 +28920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1113</v>
       </c>
@@ -28947,7 +28944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1114</v>
       </c>
@@ -28971,7 +28968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1116</v>
       </c>
@@ -28995,7 +28992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1117</v>
       </c>
@@ -29019,7 +29016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1118</v>
       </c>
@@ -29043,7 +29040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1119</v>
       </c>
@@ -29067,7 +29064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1120</v>
       </c>
@@ -29091,7 +29088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1121</v>
       </c>
@@ -29115,7 +29112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1122</v>
       </c>
@@ -29139,7 +29136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1123</v>
       </c>
@@ -29163,7 +29160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1124</v>
       </c>
@@ -29187,7 +29184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1125</v>
       </c>
@@ -29211,7 +29208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1126</v>
       </c>
@@ -29235,7 +29232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1127</v>
       </c>
@@ -29259,7 +29256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1128</v>
       </c>
@@ -29283,7 +29280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1129</v>
       </c>
@@ -29319,7 +29316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29360,15 +29357,15 @@
       </c>
       <c r="C3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Solved")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Not Started")</f>
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3" s="4">
         <f>IF(B3&gt;0,C3/B3,0)</f>
-        <v>4.7752808988764044E-2</v>
+        <v>5.0561797752808987E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -29423,15 +29420,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>1.8467220683287166E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29456,7 +29453,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.27083333333333331</v>
+        <v>0.26530612244897961</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29469,7 +29466,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.1632653061224483E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29478,11 +29475,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.39583333333333331</v>
+        <v>0.40816326530612246</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29495,7 +29492,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>6.1224489795918366E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29508,7 +29505,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
+        <v>0.10204081632653061</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29521,7 +29518,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29534,7 +29531,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29547,7 +29544,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>4.0816326530612242E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29556,7 +29553,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414A998-F7CB-AA4F-8181-FD51FDA25BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D3E92E-490F-4B48-AAF4-B0DFD4996F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -3058,9 +3058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3486,11 +3486,14 @@
         <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="J16" s="5">
+        <v>46036</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
@@ -6717,7 +6720,9 @@
       <c r="F145" t="s">
         <v>82</v>
       </c>
-      <c r="G145" s="5"/>
+      <c r="G145" s="5">
+        <v>46035</v>
+      </c>
       <c r="H145" s="5">
         <v>46015</v>
       </c>
@@ -6733,7 +6738,7 @@
       <c r="N145" s="5"/>
       <c r="O145">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
@@ -29316,7 +29321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29357,15 +29362,15 @@
       </c>
       <c r="C3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Solved")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Not Started")</f>
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" s="4">
         <f>IF(B3&gt;0,C3/B3,0)</f>
-        <v>5.0561797752808987E-2</v>
+        <v>5.3370786516853931E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -29420,15 +29425,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>1.8467220683287166E-2</v>
+        <v>1.9390581717451522E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29449,11 +29454,11 @@
       </c>
       <c r="B10">
         <f>COUNTA(Problems[Python])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.26530612244897961</v>
+        <v>0.27450980392156865</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29466,7 +29471,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>8.1632653061224483E-2</v>
+        <v>7.8431372549019607E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29475,11 +29480,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.40816326530612246</v>
+        <v>0.41176470588235292</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29492,7 +29497,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>6.1224489795918366E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29505,7 +29510,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0.10204081632653061</v>
+        <v>9.8039215686274508E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29518,7 +29523,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>2.0408163265306121E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29531,7 +29536,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>2.0408163265306121E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29544,7 +29549,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>4.0816326530612242E-2</v>
+        <v>3.9215686274509803E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29553,7 +29558,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21508F36-EFD5-654F-B416-C37A2BF1AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39D071-B54F-7945-AAD4-30629FE4DF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -3064,9 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4953,12 +4953,14 @@
       <c r="K73" s="5">
         <v>46029</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="5">
+        <v>46037</v>
+      </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -29330,7 +29332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29467,7 +29469,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.26923076923076922</v>
+        <v>0.26415094339622641</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29480,7 +29482,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29493,7 +29495,7 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.40384615384615385</v>
+        <v>0.39622641509433965</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29506,7 +29508,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>5.7692307692307696E-2</v>
+        <v>5.6603773584905662E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29519,7 +29521,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>9.6153846153846159E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29532,7 +29534,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>1.9230769230769232E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29541,11 +29543,11 @@
       </c>
       <c r="B16">
         <f>COUNTA(Problems[C])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <v>5.6603773584905662E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29558,7 +29560,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29567,7 +29569,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39D071-B54F-7945-AAD4-30629FE4DF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64758ABF-6750-8245-9C9C-9B61C8B3CDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2750,7 +2750,7 @@
   <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="Solved"/>
+        <filter val="Not Started"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3065,8 +3065,8 @@
   <dimension ref="A1:O1084"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L77" sqref="L77"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5154,14 +5154,17 @@
         <v>194</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="G81" s="5">
+        <v>46038</v>
       </c>
       <c r="O81">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>108</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -5980,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>118</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>125</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>126</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>127</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>130</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>133</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>134</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>148</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>149</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>150</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>152</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>154</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>155</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>156</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>157</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>158</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>159</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>161</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>162</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>163</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>164</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>165</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>166</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>167</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>168</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>170</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>171</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>172</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>173</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>174</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>175</v>
       </c>
@@ -7133,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>176</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>177</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>178</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>179</v>
       </c>
@@ -7229,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>180</v>
       </c>
@@ -7253,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>181</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>182</v>
       </c>
@@ -7301,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>183</v>
       </c>
@@ -7325,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>184</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>185</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>186</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>187</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>188</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>189</v>
       </c>
@@ -7495,7 +7498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>190</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>191</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>192</v>
       </c>
@@ -7567,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>193</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>194</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>195</v>
       </c>
@@ -7639,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>196</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>197</v>
       </c>
@@ -7687,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>198</v>
       </c>
@@ -7711,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7759,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>203</v>
       </c>
@@ -7831,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>204</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>205</v>
       </c>
@@ -7879,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>206</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>207</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>208</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>209</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>210</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>211</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>212</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>213</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>214</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>215</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>216</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>217</v>
       </c>
@@ -8167,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>218</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>219</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>220</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>221</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>222</v>
       </c>
@@ -8287,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>223</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>224</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>225</v>
       </c>
@@ -8371,7 +8374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>226</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>227</v>
       </c>
@@ -8419,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>228</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>229</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>230</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>231</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>232</v>
       </c>
@@ -8539,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>233</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>234</v>
       </c>
@@ -8587,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>235</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>236</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>237</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>238</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>240</v>
       </c>
@@ -8731,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>241</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>242</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>243</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>244</v>
       </c>
@@ -8827,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>245</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>246</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>247</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>248</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>249</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>250</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>251</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>252</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>253</v>
       </c>
@@ -9043,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>254</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>255</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>256</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>257</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>258</v>
       </c>
@@ -9163,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>259</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>260</v>
       </c>
@@ -9211,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>261</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>262</v>
       </c>
@@ -9259,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>263</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>264</v>
       </c>
@@ -9307,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>265</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>266</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>267</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>268</v>
       </c>
@@ -9403,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>269</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>270</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>271</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>272</v>
       </c>
@@ -9499,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>273</v>
       </c>
@@ -9523,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>274</v>
       </c>
@@ -9547,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>275</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>276</v>
       </c>
@@ -9595,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>277</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>278</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>279</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>280</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>281</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>282</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>283</v>
       </c>
@@ -9763,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>284</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>285</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>286</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>287</v>
       </c>
@@ -9859,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>288</v>
       </c>
@@ -9883,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>289</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>290</v>
       </c>
@@ -9931,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>291</v>
       </c>
@@ -9955,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>292</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>293</v>
       </c>
@@ -10003,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>294</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>295</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>296</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>297</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>298</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>299</v>
       </c>
@@ -10147,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>300</v>
       </c>
@@ -10171,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>301</v>
       </c>
@@ -10195,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>302</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>303</v>
       </c>
@@ -10243,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>304</v>
       </c>
@@ -10267,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>305</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>306</v>
       </c>
@@ -10315,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>307</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>308</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>309</v>
       </c>
@@ -10387,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>310</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>312</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>313</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>314</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>315</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>316</v>
       </c>
@@ -10555,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>317</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>318</v>
       </c>
@@ -10603,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>319</v>
       </c>
@@ -10627,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>320</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>321</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>322</v>
       </c>
@@ -10699,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>323</v>
       </c>
@@ -10723,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>324</v>
       </c>
@@ -10747,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>325</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>326</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>327</v>
       </c>
@@ -10819,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>328</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>329</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>330</v>
       </c>
@@ -10891,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>331</v>
       </c>
@@ -10915,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>332</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>333</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>334</v>
       </c>
@@ -10984,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>336</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>337</v>
       </c>
@@ -11056,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>338</v>
       </c>
@@ -11080,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>339</v>
       </c>
@@ -11104,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>340</v>
       </c>
@@ -11128,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>341</v>
       </c>
@@ -11152,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>342</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>343</v>
       </c>
@@ -11200,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>344</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>345</v>
       </c>
@@ -11248,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>346</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>347</v>
       </c>
@@ -11296,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>348</v>
       </c>
@@ -11320,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>349</v>
       </c>
@@ -11344,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>350</v>
       </c>
@@ -11368,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>351</v>
       </c>
@@ -11392,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -11416,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>353</v>
       </c>
@@ -11440,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>354</v>
       </c>
@@ -11464,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>355</v>
       </c>
@@ -11488,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>356</v>
       </c>
@@ -11512,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -11560,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>359</v>
       </c>
@@ -11584,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>360</v>
       </c>
@@ -11608,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>361</v>
       </c>
@@ -11632,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -11656,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>364</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>365</v>
       </c>
@@ -11728,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>366</v>
       </c>
@@ -11752,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>367</v>
       </c>
@@ -11776,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>368</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>369</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>370</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>371</v>
       </c>
@@ -11872,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>372</v>
       </c>
@@ -11896,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>373</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>374</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>375</v>
       </c>
@@ -11968,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>376</v>
       </c>
@@ -11992,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>377</v>
       </c>
@@ -12016,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>378</v>
       </c>
@@ -12040,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>379</v>
       </c>
@@ -12064,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>380</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>381</v>
       </c>
@@ -12112,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>382</v>
       </c>
@@ -12136,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>383</v>
       </c>
@@ -12160,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>384</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>385</v>
       </c>
@@ -12208,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>386</v>
       </c>
@@ -12232,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>388</v>
       </c>
@@ -12256,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>389</v>
       </c>
@@ -12280,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>390</v>
       </c>
@@ -12304,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>391</v>
       </c>
@@ -12328,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>392</v>
       </c>
@@ -12352,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>393</v>
       </c>
@@ -12376,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>394</v>
       </c>
@@ -12400,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>395</v>
       </c>
@@ -12424,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>396</v>
       </c>
@@ -12448,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>397</v>
       </c>
@@ -12472,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>398</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>399</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>400</v>
       </c>
@@ -12544,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>401</v>
       </c>
@@ -12568,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>402</v>
       </c>
@@ -12592,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>403</v>
       </c>
@@ -12616,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>404</v>
       </c>
@@ -12640,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>405</v>
       </c>
@@ -12664,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>406</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>407</v>
       </c>
@@ -12712,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>408</v>
       </c>
@@ -12736,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>409</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>410</v>
       </c>
@@ -12784,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>411</v>
       </c>
@@ -12808,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>412</v>
       </c>
@@ -12832,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>413</v>
       </c>
@@ -12856,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>414</v>
       </c>
@@ -12880,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>415</v>
       </c>
@@ -12904,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>416</v>
       </c>
@@ -12928,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>417</v>
       </c>
@@ -12952,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>418</v>
       </c>
@@ -12976,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>419</v>
       </c>
@@ -13000,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>420</v>
       </c>
@@ -13024,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>421</v>
       </c>
@@ -13048,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>422</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>423</v>
       </c>
@@ -13096,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>424</v>
       </c>
@@ -13120,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>425</v>
       </c>
@@ -13144,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>426</v>
       </c>
@@ -13168,7 +13171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>427</v>
       </c>
@@ -13192,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>428</v>
       </c>
@@ -13216,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>429</v>
       </c>
@@ -13240,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>430</v>
       </c>
@@ -13264,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>431</v>
       </c>
@@ -13288,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>432</v>
       </c>
@@ -13312,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>433</v>
       </c>
@@ -13336,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>434</v>
       </c>
@@ -13360,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>435</v>
       </c>
@@ -13384,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>436</v>
       </c>
@@ -13408,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>437</v>
       </c>
@@ -13432,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>438</v>
       </c>
@@ -13456,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>439</v>
       </c>
@@ -13480,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>440</v>
       </c>
@@ -13501,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>441</v>
       </c>
@@ -13525,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>442</v>
       </c>
@@ -13549,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>443</v>
       </c>
@@ -13573,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>444</v>
       </c>
@@ -13597,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>446</v>
       </c>
@@ -13621,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>447</v>
       </c>
@@ -13645,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>448</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>449</v>
       </c>
@@ -13693,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>450</v>
       </c>
@@ -13717,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>451</v>
       </c>
@@ -13741,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>452</v>
       </c>
@@ -13765,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>453</v>
       </c>
@@ -13789,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>454</v>
       </c>
@@ -13813,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>455</v>
       </c>
@@ -13837,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>456</v>
       </c>
@@ -13861,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>457</v>
       </c>
@@ -13885,7 +13888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>458</v>
       </c>
@@ -13909,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>459</v>
       </c>
@@ -13933,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>460</v>
       </c>
@@ -13957,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>461</v>
       </c>
@@ -13981,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>462</v>
       </c>
@@ -14005,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>463</v>
       </c>
@@ -14029,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>464</v>
       </c>
@@ -14053,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>465</v>
       </c>
@@ -14077,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>466</v>
       </c>
@@ -14101,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>468</v>
       </c>
@@ -14125,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>469</v>
       </c>
@@ -14149,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>470</v>
       </c>
@@ -14173,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>471</v>
       </c>
@@ -14197,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>472</v>
       </c>
@@ -14221,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>473</v>
       </c>
@@ -14245,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>474</v>
       </c>
@@ -14269,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>475</v>
       </c>
@@ -14293,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>476</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>477</v>
       </c>
@@ -14341,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>478</v>
       </c>
@@ -14365,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>479</v>
       </c>
@@ -14389,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>480</v>
       </c>
@@ -14413,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>481</v>
       </c>
@@ -14437,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>482</v>
       </c>
@@ -14461,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>483</v>
       </c>
@@ -14485,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>484</v>
       </c>
@@ -14509,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>485</v>
       </c>
@@ -14533,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>486</v>
       </c>
@@ -14557,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>487</v>
       </c>
@@ -14581,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>488</v>
       </c>
@@ -14605,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>489</v>
       </c>
@@ -14629,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>490</v>
       </c>
@@ -14653,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>491</v>
       </c>
@@ -14677,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>492</v>
       </c>
@@ -14701,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>493</v>
       </c>
@@ -14725,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>494</v>
       </c>
@@ -14749,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>495</v>
       </c>
@@ -14773,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>496</v>
       </c>
@@ -14797,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>497</v>
       </c>
@@ -14821,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>498</v>
       </c>
@@ -14845,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>499</v>
       </c>
@@ -14869,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>500</v>
       </c>
@@ -14893,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>501</v>
       </c>
@@ -14917,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>502</v>
       </c>
@@ -14941,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>503</v>
       </c>
@@ -14965,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>504</v>
       </c>
@@ -14989,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>505</v>
       </c>
@@ -15013,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>506</v>
       </c>
@@ -15037,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>507</v>
       </c>
@@ -15061,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>508</v>
       </c>
@@ -15085,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>509</v>
       </c>
@@ -15109,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>510</v>
       </c>
@@ -15133,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>511</v>
       </c>
@@ -15157,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>512</v>
       </c>
@@ -15181,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>513</v>
       </c>
@@ -15205,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>514</v>
       </c>
@@ -15229,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>515</v>
       </c>
@@ -15253,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>516</v>
       </c>
@@ -15277,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>517</v>
       </c>
@@ -15301,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>518</v>
       </c>
@@ -15325,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>519</v>
       </c>
@@ -15349,7 +15352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>520</v>
       </c>
@@ -15373,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>521</v>
       </c>
@@ -15397,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>522</v>
       </c>
@@ -15421,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>523</v>
       </c>
@@ -15442,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>524</v>
       </c>
@@ -15466,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>525</v>
       </c>
@@ -15490,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>526</v>
       </c>
@@ -15514,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>527</v>
       </c>
@@ -15538,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>528</v>
       </c>
@@ -15562,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>529</v>
       </c>
@@ -15586,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>530</v>
       </c>
@@ -15610,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>532</v>
       </c>
@@ -15634,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>533</v>
       </c>
@@ -15658,7 +15661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>534</v>
       </c>
@@ -15682,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>535</v>
       </c>
@@ -15706,7 +15709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>536</v>
       </c>
@@ -15730,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>537</v>
       </c>
@@ -15754,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>538</v>
       </c>
@@ -15778,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>539</v>
       </c>
@@ -15802,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>540</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>541</v>
       </c>
@@ -15850,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>542</v>
       </c>
@@ -15874,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>543</v>
       </c>
@@ -15898,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>544</v>
       </c>
@@ -15922,7 +15925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>545</v>
       </c>
@@ -15946,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>546</v>
       </c>
@@ -15970,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>547</v>
       </c>
@@ -15994,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>548</v>
       </c>
@@ -16018,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>549</v>
       </c>
@@ -16042,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -16066,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>551</v>
       </c>
@@ -16090,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>552</v>
       </c>
@@ -16114,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>553</v>
       </c>
@@ -16138,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>554</v>
       </c>
@@ -16162,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>555</v>
       </c>
@@ -16186,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>556</v>
       </c>
@@ -16210,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>557</v>
       </c>
@@ -16234,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>558</v>
       </c>
@@ -16258,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>559</v>
       </c>
@@ -16282,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>561</v>
       </c>
@@ -16306,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>562</v>
       </c>
@@ -16330,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>563</v>
       </c>
@@ -16354,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>564</v>
       </c>
@@ -16378,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>565</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>566</v>
       </c>
@@ -16426,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>567</v>
       </c>
@@ -16450,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>568</v>
       </c>
@@ -16474,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>569</v>
       </c>
@@ -16498,7 +16501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>570</v>
       </c>
@@ -16522,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>572</v>
       </c>
@@ -16546,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>573</v>
       </c>
@@ -16570,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>574</v>
       </c>
@@ -16594,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>575</v>
       </c>
@@ -16618,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>576</v>
       </c>
@@ -16642,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>577</v>
       </c>
@@ -16666,7 +16669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>578</v>
       </c>
@@ -16690,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>579</v>
       </c>
@@ -16714,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>581</v>
       </c>
@@ -16738,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>582</v>
       </c>
@@ -16762,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>584</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>586</v>
       </c>
@@ -16810,7 +16813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>587</v>
       </c>
@@ -16834,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>588</v>
       </c>
@@ -16858,7 +16861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>589</v>
       </c>
@@ -16882,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>590</v>
       </c>
@@ -16906,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>591</v>
       </c>
@@ -16930,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>592</v>
       </c>
@@ -16954,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>593</v>
       </c>
@@ -16978,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>594</v>
       </c>
@@ -17002,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>595</v>
       </c>
@@ -17026,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>596</v>
       </c>
@@ -17050,7 +17053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>597</v>
       </c>
@@ -17074,7 +17077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>598</v>
       </c>
@@ -17098,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>599</v>
       </c>
@@ -17122,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>600</v>
       </c>
@@ -17146,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>601</v>
       </c>
@@ -17170,7 +17173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>602</v>
       </c>
@@ -17194,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>603</v>
       </c>
@@ -17218,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>604</v>
       </c>
@@ -17242,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>605</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>606</v>
       </c>
@@ -17290,7 +17293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>607</v>
       </c>
@@ -17314,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>608</v>
       </c>
@@ -17338,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>609</v>
       </c>
@@ -17362,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>611</v>
       </c>
@@ -17386,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>612</v>
       </c>
@@ -17410,7 +17413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>613</v>
       </c>
@@ -17434,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>614</v>
       </c>
@@ -17458,7 +17461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>615</v>
       </c>
@@ -17482,7 +17485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>616</v>
       </c>
@@ -17506,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>617</v>
       </c>
@@ -17530,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>619</v>
       </c>
@@ -17554,7 +17557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>620</v>
       </c>
@@ -17578,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>621</v>
       </c>
@@ -17602,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>622</v>
       </c>
@@ -17626,7 +17629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>623</v>
       </c>
@@ -17650,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>624</v>
       </c>
@@ -17674,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>625</v>
       </c>
@@ -17698,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>626</v>
       </c>
@@ -17722,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>627</v>
       </c>
@@ -17746,7 +17749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>628</v>
       </c>
@@ -17770,7 +17773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>629</v>
       </c>
@@ -17794,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>630</v>
       </c>
@@ -17818,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>631</v>
       </c>
@@ -17842,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>632</v>
       </c>
@@ -17866,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>633</v>
       </c>
@@ -17890,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>634</v>
       </c>
@@ -17914,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>635</v>
       </c>
@@ -17938,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>636</v>
       </c>
@@ -17962,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>637</v>
       </c>
@@ -17986,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>638</v>
       </c>
@@ -18010,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>639</v>
       </c>
@@ -18034,7 +18037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>640</v>
       </c>
@@ -18058,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>641</v>
       </c>
@@ -18082,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>642</v>
       </c>
@@ -18106,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>643</v>
       </c>
@@ -18130,7 +18133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>644</v>
       </c>
@@ -18154,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>645</v>
       </c>
@@ -18178,7 +18181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>646</v>
       </c>
@@ -18202,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>647</v>
       </c>
@@ -18226,7 +18229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>649</v>
       </c>
@@ -18250,7 +18253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>650</v>
       </c>
@@ -18274,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>651</v>
       </c>
@@ -18298,7 +18301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>652</v>
       </c>
@@ -18322,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>653</v>
       </c>
@@ -18346,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>654</v>
       </c>
@@ -18370,7 +18373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>655</v>
       </c>
@@ -18394,7 +18397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>657</v>
       </c>
@@ -18418,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>658</v>
       </c>
@@ -18442,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>659</v>
       </c>
@@ -18466,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>660</v>
       </c>
@@ -18490,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>661</v>
       </c>
@@ -18514,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>662</v>
       </c>
@@ -18538,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>664</v>
       </c>
@@ -18562,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>665</v>
       </c>
@@ -18586,7 +18589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>666</v>
       </c>
@@ -18610,7 +18613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>667</v>
       </c>
@@ -18634,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>668</v>
       </c>
@@ -18658,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>669</v>
       </c>
@@ -18682,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>670</v>
       </c>
@@ -18706,7 +18709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>671</v>
       </c>
@@ -18730,7 +18733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>672</v>
       </c>
@@ -18754,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>673</v>
       </c>
@@ -18778,7 +18781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>674</v>
       </c>
@@ -18802,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>675</v>
       </c>
@@ -18826,7 +18829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>676</v>
       </c>
@@ -18850,7 +18853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>677</v>
       </c>
@@ -18874,7 +18877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>678</v>
       </c>
@@ -18898,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>679</v>
       </c>
@@ -18922,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>680</v>
       </c>
@@ -18946,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>681</v>
       </c>
@@ -18970,7 +18973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>682</v>
       </c>
@@ -18994,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>683</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>684</v>
       </c>
@@ -19042,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>685</v>
       </c>
@@ -19066,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>686</v>
       </c>
@@ -19090,7 +19093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>687</v>
       </c>
@@ -19114,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>688</v>
       </c>
@@ -19138,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>689</v>
       </c>
@@ -19162,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>690</v>
       </c>
@@ -19186,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>691</v>
       </c>
@@ -19210,7 +19213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>692</v>
       </c>
@@ -19234,7 +19237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>693</v>
       </c>
@@ -19258,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>694</v>
       </c>
@@ -19282,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>696</v>
       </c>
@@ -19306,7 +19309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>697</v>
       </c>
@@ -19330,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>698</v>
       </c>
@@ -19354,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>699</v>
       </c>
@@ -19378,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>700</v>
       </c>
@@ -19402,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>701</v>
       </c>
@@ -19426,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>702</v>
       </c>
@@ -19450,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>703</v>
       </c>
@@ -19474,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>704</v>
       </c>
@@ -19498,7 +19501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>705</v>
       </c>
@@ -19522,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>706</v>
       </c>
@@ -19546,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>707</v>
       </c>
@@ -19570,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>708</v>
       </c>
@@ -19594,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>709</v>
       </c>
@@ -19618,7 +19621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>710</v>
       </c>
@@ -19642,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>711</v>
       </c>
@@ -19666,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>712</v>
       </c>
@@ -19690,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>713</v>
       </c>
@@ -19714,7 +19717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>714</v>
       </c>
@@ -19738,7 +19741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>715</v>
       </c>
@@ -19762,7 +19765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>716</v>
       </c>
@@ -19786,7 +19789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>717</v>
       </c>
@@ -19810,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>718</v>
       </c>
@@ -19834,7 +19837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>719</v>
       </c>
@@ -19858,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>720</v>
       </c>
@@ -19882,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>721</v>
       </c>
@@ -19906,7 +19909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>722</v>
       </c>
@@ -19930,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>723</v>
       </c>
@@ -19954,7 +19957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>724</v>
       </c>
@@ -19978,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>725</v>
       </c>
@@ -20002,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>726</v>
       </c>
@@ -20026,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>727</v>
       </c>
@@ -20050,7 +20053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>728</v>
       </c>
@@ -20074,7 +20077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>729</v>
       </c>
@@ -20098,7 +20101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>730</v>
       </c>
@@ -20122,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>731</v>
       </c>
@@ -20146,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>732</v>
       </c>
@@ -20170,7 +20173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>733</v>
       </c>
@@ -20194,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>734</v>
       </c>
@@ -20218,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>735</v>
       </c>
@@ -20242,7 +20245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>736</v>
       </c>
@@ -20266,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>737</v>
       </c>
@@ -20290,7 +20293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>738</v>
       </c>
@@ -20314,7 +20317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>739</v>
       </c>
@@ -20338,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>740</v>
       </c>
@@ -20362,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>741</v>
       </c>
@@ -20386,7 +20389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>742</v>
       </c>
@@ -20410,7 +20413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>743</v>
       </c>
@@ -20434,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>744</v>
       </c>
@@ -20458,7 +20461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>745</v>
       </c>
@@ -20482,7 +20485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>746</v>
       </c>
@@ -20506,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>747</v>
       </c>
@@ -20530,7 +20533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>748</v>
       </c>
@@ -20554,7 +20557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>749</v>
       </c>
@@ -20578,7 +20581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750</v>
       </c>
@@ -20602,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>751</v>
       </c>
@@ -20626,7 +20629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>752</v>
       </c>
@@ -20650,7 +20653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>753</v>
       </c>
@@ -20674,7 +20677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>754</v>
       </c>
@@ -20698,7 +20701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>755</v>
       </c>
@@ -20722,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>756</v>
       </c>
@@ -20746,7 +20749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>757</v>
       </c>
@@ -20770,7 +20773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>758</v>
       </c>
@@ -20794,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>759</v>
       </c>
@@ -20818,7 +20821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>760</v>
       </c>
@@ -20842,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>761</v>
       </c>
@@ -20866,7 +20869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>763</v>
       </c>
@@ -20890,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>764</v>
       </c>
@@ -20914,7 +20917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>765</v>
       </c>
@@ -20938,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>766</v>
       </c>
@@ -20962,7 +20965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>767</v>
       </c>
@@ -20986,7 +20989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>768</v>
       </c>
@@ -21010,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>769</v>
       </c>
@@ -21034,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>770</v>
       </c>
@@ -21058,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>771</v>
       </c>
@@ -21082,7 +21085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>772</v>
       </c>
@@ -21106,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>773</v>
       </c>
@@ -21130,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>775</v>
       </c>
@@ -21154,7 +21157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>776</v>
       </c>
@@ -21178,7 +21181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>777</v>
       </c>
@@ -21202,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>778</v>
       </c>
@@ -21226,7 +21229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>779</v>
       </c>
@@ -21250,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>780</v>
       </c>
@@ -21274,7 +21277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>781</v>
       </c>
@@ -21298,7 +21301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>782</v>
       </c>
@@ -21322,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>783</v>
       </c>
@@ -21346,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>784</v>
       </c>
@@ -21370,7 +21373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>785</v>
       </c>
@@ -21394,7 +21397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>786</v>
       </c>
@@ -21418,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>787</v>
       </c>
@@ -21442,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>788</v>
       </c>
@@ -21466,7 +21469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>789</v>
       </c>
@@ -21490,7 +21493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>790</v>
       </c>
@@ -21514,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>791</v>
       </c>
@@ -21538,7 +21541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>792</v>
       </c>
@@ -21562,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>793</v>
       </c>
@@ -21586,7 +21589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>794</v>
       </c>
@@ -21610,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>795</v>
       </c>
@@ -21634,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>796</v>
       </c>
@@ -21658,7 +21661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>797</v>
       </c>
@@ -21682,7 +21685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>798</v>
       </c>
@@ -21706,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>799</v>
       </c>
@@ -21730,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>800</v>
       </c>
@@ -21754,7 +21757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>801</v>
       </c>
@@ -21778,7 +21781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>802</v>
       </c>
@@ -21802,7 +21805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>803</v>
       </c>
@@ -21826,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>804</v>
       </c>
@@ -21850,7 +21853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>805</v>
       </c>
@@ -21874,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>806</v>
       </c>
@@ -21898,7 +21901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>807</v>
       </c>
@@ -21922,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>808</v>
       </c>
@@ -21946,7 +21949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>809</v>
       </c>
@@ -21970,7 +21973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>810</v>
       </c>
@@ -21994,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>811</v>
       </c>
@@ -22018,7 +22021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>812</v>
       </c>
@@ -22042,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>813</v>
       </c>
@@ -22066,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>814</v>
       </c>
@@ -22090,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>815</v>
       </c>
@@ -22114,7 +22117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>816</v>
       </c>
@@ -22138,7 +22141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>817</v>
       </c>
@@ -22162,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>818</v>
       </c>
@@ -22186,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>819</v>
       </c>
@@ -22210,7 +22213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>820</v>
       </c>
@@ -22234,7 +22237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>821</v>
       </c>
@@ -22258,7 +22261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>822</v>
       </c>
@@ -22282,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>823</v>
       </c>
@@ -22306,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>824</v>
       </c>
@@ -22330,7 +22333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>825</v>
       </c>
@@ -22354,7 +22357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>826</v>
       </c>
@@ -22378,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>827</v>
       </c>
@@ -22402,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>828</v>
       </c>
@@ -22426,7 +22429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>829</v>
       </c>
@@ -22450,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>830</v>
       </c>
@@ -22474,7 +22477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>831</v>
       </c>
@@ -22498,7 +22501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>832</v>
       </c>
@@ -22522,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>833</v>
       </c>
@@ -22546,7 +22549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>834</v>
       </c>
@@ -22570,7 +22573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>835</v>
       </c>
@@ -22594,7 +22597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>836</v>
       </c>
@@ -22618,7 +22621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>837</v>
       </c>
@@ -22642,7 +22645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>839</v>
       </c>
@@ -22666,7 +22669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>840</v>
       </c>
@@ -22690,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>841</v>
       </c>
@@ -22711,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>842</v>
       </c>
@@ -22735,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>843</v>
       </c>
@@ -22759,7 +22762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>844</v>
       </c>
@@ -22783,7 +22786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>845</v>
       </c>
@@ -22807,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>846</v>
       </c>
@@ -22831,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>847</v>
       </c>
@@ -22855,7 +22858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>848</v>
       </c>
@@ -22879,7 +22882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>849</v>
       </c>
@@ -22903,7 +22906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>850</v>
       </c>
@@ -22927,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>851</v>
       </c>
@@ -22951,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>852</v>
       </c>
@@ -22975,7 +22978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>854</v>
       </c>
@@ -22999,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>855</v>
       </c>
@@ -23023,7 +23026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>856</v>
       </c>
@@ -23047,7 +23050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>857</v>
       </c>
@@ -23071,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>858</v>
       </c>
@@ -23095,7 +23098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>859</v>
       </c>
@@ -23119,7 +23122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>860</v>
       </c>
@@ -23143,7 +23146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>861</v>
       </c>
@@ -23167,7 +23170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>862</v>
       </c>
@@ -23191,7 +23194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>863</v>
       </c>
@@ -23215,7 +23218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>864</v>
       </c>
@@ -23239,7 +23242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>865</v>
       </c>
@@ -23263,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>866</v>
       </c>
@@ -23287,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>867</v>
       </c>
@@ -23311,7 +23314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>868</v>
       </c>
@@ -23335,7 +23338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>869</v>
       </c>
@@ -23359,7 +23362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>871</v>
       </c>
@@ -23383,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>872</v>
       </c>
@@ -23407,7 +23410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>873</v>
       </c>
@@ -23431,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>874</v>
       </c>
@@ -23455,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>875</v>
       </c>
@@ -23479,7 +23482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>876</v>
       </c>
@@ -23503,7 +23506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>877</v>
       </c>
@@ -23527,7 +23530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>878</v>
       </c>
@@ -23551,7 +23554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>880</v>
       </c>
@@ -23575,7 +23578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>881</v>
       </c>
@@ -23599,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>882</v>
       </c>
@@ -23623,7 +23626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>883</v>
       </c>
@@ -23647,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>884</v>
       </c>
@@ -23671,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>885</v>
       </c>
@@ -23695,7 +23698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>886</v>
       </c>
@@ -23719,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>887</v>
       </c>
@@ -23743,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>888</v>
       </c>
@@ -23767,7 +23770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>889</v>
       </c>
@@ -23791,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>890</v>
       </c>
@@ -23815,7 +23818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>891</v>
       </c>
@@ -23839,7 +23842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>892</v>
       </c>
@@ -23863,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>893</v>
       </c>
@@ -23887,7 +23890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>895</v>
       </c>
@@ -23911,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>897</v>
       </c>
@@ -23935,7 +23938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>898</v>
       </c>
@@ -23959,7 +23962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>899</v>
       </c>
@@ -23983,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>900</v>
       </c>
@@ -24007,7 +24010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>901</v>
       </c>
@@ -24031,7 +24034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>902</v>
       </c>
@@ -24055,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>903</v>
       </c>
@@ -24079,7 +24082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>904</v>
       </c>
@@ -24103,7 +24106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>905</v>
       </c>
@@ -24127,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>906</v>
       </c>
@@ -24151,7 +24154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>907</v>
       </c>
@@ -24175,7 +24178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>908</v>
       </c>
@@ -24199,7 +24202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>909</v>
       </c>
@@ -24223,7 +24226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>910</v>
       </c>
@@ -24247,7 +24250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>911</v>
       </c>
@@ -24271,7 +24274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>912</v>
       </c>
@@ -24295,7 +24298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>913</v>
       </c>
@@ -24319,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>914</v>
       </c>
@@ -24343,7 +24346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>915</v>
       </c>
@@ -24367,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>916</v>
       </c>
@@ -24391,7 +24394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>917</v>
       </c>
@@ -24415,7 +24418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>918</v>
       </c>
@@ -24439,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>919</v>
       </c>
@@ -24463,7 +24466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>920</v>
       </c>
@@ -24487,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>921</v>
       </c>
@@ -24511,7 +24514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>922</v>
       </c>
@@ -24535,7 +24538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>923</v>
       </c>
@@ -24559,7 +24562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>924</v>
       </c>
@@ -24583,7 +24586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>925</v>
       </c>
@@ -24607,7 +24610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>926</v>
       </c>
@@ -24631,7 +24634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>927</v>
       </c>
@@ -24655,7 +24658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>928</v>
       </c>
@@ -24679,7 +24682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>929</v>
       </c>
@@ -24703,7 +24706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>930</v>
       </c>
@@ -24727,7 +24730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>931</v>
       </c>
@@ -24751,7 +24754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>932</v>
       </c>
@@ -24775,7 +24778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>933</v>
       </c>
@@ -24799,7 +24802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>934</v>
       </c>
@@ -24823,7 +24826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>935</v>
       </c>
@@ -24847,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>936</v>
       </c>
@@ -24871,7 +24874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>937</v>
       </c>
@@ -24895,7 +24898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>938</v>
       </c>
@@ -24919,7 +24922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>939</v>
       </c>
@@ -24943,7 +24946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>940</v>
       </c>
@@ -24967,7 +24970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>941</v>
       </c>
@@ -24991,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>942</v>
       </c>
@@ -25015,7 +25018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>943</v>
       </c>
@@ -25039,7 +25042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>944</v>
       </c>
@@ -25063,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>945</v>
       </c>
@@ -25087,7 +25090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>946</v>
       </c>
@@ -25111,7 +25114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>947</v>
       </c>
@@ -25135,7 +25138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>949</v>
       </c>
@@ -25159,7 +25162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>950</v>
       </c>
@@ -25183,7 +25186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>951</v>
       </c>
@@ -25207,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>952</v>
       </c>
@@ -25231,7 +25234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>953</v>
       </c>
@@ -25255,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>954</v>
       </c>
@@ -25279,7 +25282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>955</v>
       </c>
@@ -25303,7 +25306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>956</v>
       </c>
@@ -25327,7 +25330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>957</v>
       </c>
@@ -25351,7 +25354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>958</v>
       </c>
@@ -25375,7 +25378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>959</v>
       </c>
@@ -25399,7 +25402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>960</v>
       </c>
@@ -25423,7 +25426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>961</v>
       </c>
@@ -25447,7 +25450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>962</v>
       </c>
@@ -25471,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>963</v>
       </c>
@@ -25495,7 +25498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>964</v>
       </c>
@@ -25519,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>965</v>
       </c>
@@ -25543,7 +25546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>967</v>
       </c>
@@ -25567,7 +25570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>968</v>
       </c>
@@ -25591,7 +25594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>969</v>
       </c>
@@ -25615,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>970</v>
       </c>
@@ -25639,7 +25642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>971</v>
       </c>
@@ -25663,7 +25666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>972</v>
       </c>
@@ -25687,7 +25690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>973</v>
       </c>
@@ -25711,7 +25714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>974</v>
       </c>
@@ -25735,7 +25738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>975</v>
       </c>
@@ -25759,7 +25762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>976</v>
       </c>
@@ -25783,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>977</v>
       </c>
@@ -25807,7 +25810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>978</v>
       </c>
@@ -25831,7 +25834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>979</v>
       </c>
@@ -25855,7 +25858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>980</v>
       </c>
@@ -25879,7 +25882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>981</v>
       </c>
@@ -25903,7 +25906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>982</v>
       </c>
@@ -25927,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>983</v>
       </c>
@@ -25951,7 +25954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>984</v>
       </c>
@@ -25975,7 +25978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>985</v>
       </c>
@@ -25999,7 +26002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>986</v>
       </c>
@@ -26023,7 +26026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>987</v>
       </c>
@@ -26047,7 +26050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>988</v>
       </c>
@@ -26071,7 +26074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>989</v>
       </c>
@@ -26095,7 +26098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>990</v>
       </c>
@@ -26119,7 +26122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>991</v>
       </c>
@@ -26143,7 +26146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>992</v>
       </c>
@@ -26167,7 +26170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>993</v>
       </c>
@@ -26191,7 +26194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>994</v>
       </c>
@@ -26215,7 +26218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>995</v>
       </c>
@@ -26239,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>996</v>
       </c>
@@ -26263,7 +26266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>997</v>
       </c>
@@ -26287,7 +26290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>998</v>
       </c>
@@ -26311,7 +26314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>999</v>
       </c>
@@ -26335,7 +26338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1000</v>
       </c>
@@ -26359,7 +26362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1001</v>
       </c>
@@ -26383,7 +26386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1002</v>
       </c>
@@ -26407,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1003</v>
       </c>
@@ -26431,7 +26434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1004</v>
       </c>
@@ -26455,7 +26458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1005</v>
       </c>
@@ -26479,7 +26482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1006</v>
       </c>
@@ -26503,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1007</v>
       </c>
@@ -26527,7 +26530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1008</v>
       </c>
@@ -26551,7 +26554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1009</v>
       </c>
@@ -26575,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1010</v>
       </c>
@@ -26599,7 +26602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1011</v>
       </c>
@@ -26623,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1013</v>
       </c>
@@ -26647,7 +26650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1014</v>
       </c>
@@ -26671,7 +26674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1015</v>
       </c>
@@ -26695,7 +26698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1016</v>
       </c>
@@ -26719,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1018</v>
       </c>
@@ -26743,7 +26746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1019</v>
       </c>
@@ -26767,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1020</v>
       </c>
@@ -26791,7 +26794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1021</v>
       </c>
@@ -26815,7 +26818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1022</v>
       </c>
@@ -26839,7 +26842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1023</v>
       </c>
@@ -26863,7 +26866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1024</v>
       </c>
@@ -26887,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1025</v>
       </c>
@@ -26911,7 +26914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1026</v>
       </c>
@@ -26935,7 +26938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1027</v>
       </c>
@@ -26959,7 +26962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1028</v>
       </c>
@@ -26983,7 +26986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1029</v>
       </c>
@@ -27007,7 +27010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1030</v>
       </c>
@@ -27031,7 +27034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1031</v>
       </c>
@@ -27055,7 +27058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1032</v>
       </c>
@@ -27079,7 +27082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1033</v>
       </c>
@@ -27103,7 +27106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1034</v>
       </c>
@@ -27127,7 +27130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1035</v>
       </c>
@@ -27151,7 +27154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1036</v>
       </c>
@@ -27175,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1037</v>
       </c>
@@ -27199,7 +27202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1038</v>
       </c>
@@ -27223,7 +27226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1039</v>
       </c>
@@ -27247,7 +27250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1040</v>
       </c>
@@ -27271,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1041</v>
       </c>
@@ -27295,7 +27298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1042</v>
       </c>
@@ -27319,7 +27322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1043</v>
       </c>
@@ -27343,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1044</v>
       </c>
@@ -27367,7 +27370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1045</v>
       </c>
@@ -27388,7 +27391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1046</v>
       </c>
@@ -27412,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1047</v>
       </c>
@@ -27436,7 +27439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1048</v>
       </c>
@@ -27460,7 +27463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1049</v>
       </c>
@@ -27484,7 +27487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1050</v>
       </c>
@@ -27508,7 +27511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1051</v>
       </c>
@@ -27532,7 +27535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1052</v>
       </c>
@@ -27556,7 +27559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1053</v>
       </c>
@@ -27580,7 +27583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1054</v>
       </c>
@@ -27604,7 +27607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1055</v>
       </c>
@@ -27628,7 +27631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1056</v>
       </c>
@@ -27652,7 +27655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1057</v>
       </c>
@@ -27676,7 +27679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1058</v>
       </c>
@@ -27700,7 +27703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1059</v>
       </c>
@@ -27724,7 +27727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1060</v>
       </c>
@@ -27748,7 +27751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1061</v>
       </c>
@@ -27772,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1062</v>
       </c>
@@ -27796,7 +27799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1063</v>
       </c>
@@ -27820,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1064</v>
       </c>
@@ -27844,7 +27847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1065</v>
       </c>
@@ -27868,7 +27871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1066</v>
       </c>
@@ -27892,7 +27895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1068</v>
       </c>
@@ -27916,7 +27919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1069</v>
       </c>
@@ -27940,7 +27943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1070</v>
       </c>
@@ -27964,7 +27967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1071</v>
       </c>
@@ -27988,7 +27991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1072</v>
       </c>
@@ -28012,7 +28015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1073</v>
       </c>
@@ -28036,7 +28039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1074</v>
       </c>
@@ -28060,7 +28063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1075</v>
       </c>
@@ -28084,7 +28087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1076</v>
       </c>
@@ -28108,7 +28111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1077</v>
       </c>
@@ -28132,7 +28135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1078</v>
       </c>
@@ -28156,7 +28159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1079</v>
       </c>
@@ -28180,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1080</v>
       </c>
@@ -28204,7 +28207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1082</v>
       </c>
@@ -28228,7 +28231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1083</v>
       </c>
@@ -28252,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1084</v>
       </c>
@@ -28276,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1085</v>
       </c>
@@ -28300,7 +28303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1086</v>
       </c>
@@ -28324,7 +28327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1087</v>
       </c>
@@ -28348,7 +28351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1088</v>
       </c>
@@ -28372,7 +28375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1089</v>
       </c>
@@ -28396,7 +28399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1090</v>
       </c>
@@ -28420,7 +28423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1091</v>
       </c>
@@ -28444,7 +28447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1092</v>
       </c>
@@ -28468,7 +28471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1093</v>
       </c>
@@ -28492,7 +28495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1094</v>
       </c>
@@ -28516,7 +28519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1095</v>
       </c>
@@ -28540,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1096</v>
       </c>
@@ -28564,7 +28567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1097</v>
       </c>
@@ -28588,7 +28591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1098</v>
       </c>
@@ -28612,7 +28615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1099</v>
       </c>
@@ -28636,7 +28639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1100</v>
       </c>
@@ -28660,7 +28663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1101</v>
       </c>
@@ -28684,7 +28687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1102</v>
       </c>
@@ -28708,7 +28711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1103</v>
       </c>
@@ -28732,7 +28735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1104</v>
       </c>
@@ -28756,7 +28759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1105</v>
       </c>
@@ -28780,7 +28783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1106</v>
       </c>
@@ -28804,7 +28807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1107</v>
       </c>
@@ -28828,7 +28831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1108</v>
       </c>
@@ -28852,7 +28855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1109</v>
       </c>
@@ -28876,7 +28879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>1110</v>
       </c>
@@ -28912,7 +28915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1111</v>
       </c>
@@ -28936,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1113</v>
       </c>
@@ -28960,7 +28963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1114</v>
       </c>
@@ -28984,7 +28987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1116</v>
       </c>
@@ -29008,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1117</v>
       </c>
@@ -29032,7 +29035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1118</v>
       </c>
@@ -29056,7 +29059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1119</v>
       </c>
@@ -29080,7 +29083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1120</v>
       </c>
@@ -29104,7 +29107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1121</v>
       </c>
@@ -29128,7 +29131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1122</v>
       </c>
@@ -29152,7 +29155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1123</v>
       </c>
@@ -29176,7 +29179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1124</v>
       </c>
@@ -29200,7 +29203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1125</v>
       </c>
@@ -29224,7 +29227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1126</v>
       </c>
@@ -29248,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1127</v>
       </c>
@@ -29272,7 +29275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1128</v>
       </c>
@@ -29296,7 +29299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1129</v>
       </c>
@@ -29373,15 +29376,15 @@
       </c>
       <c r="C3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Solved")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Not Started")</f>
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="4">
         <f>IF(B3&gt;0,C3/B3,0)</f>
-        <v>5.3370786516853931E-2</v>
+        <v>5.6179775280898875E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -29436,15 +29439,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>1.9390581717451522E-2</v>
+        <v>2.0313942751615882E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29465,11 +29468,11 @@
       </c>
       <c r="B10">
         <f>COUNTA(Problems[Python])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.26415094339622641</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29482,7 +29485,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>7.5471698113207544E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29495,7 +29498,7 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.39622641509433965</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29508,7 +29511,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>5.6603773584905662E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29521,7 +29524,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>9.4339622641509441E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29534,7 +29537,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29547,7 +29550,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>5.6603773584905662E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29560,7 +29563,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>3.7735849056603772E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29569,7 +29572,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64758ABF-6750-8245-9C9C-9B61C8B3CDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B88C089-66CB-EB49-8FD3-443EFD20D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3065,8 +3065,8 @@
   <dimension ref="A1:O1084"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4372,11 +4372,14 @@
         <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="G50" s="5">
+        <v>46039</v>
       </c>
       <c r="O50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -29376,15 +29379,15 @@
       </c>
       <c r="C3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Solved")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Problems!B:B,"Easy",Problems!F:F,"Not Started")</f>
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="4">
         <f>IF(B3&gt;0,C3/B3,0)</f>
-        <v>5.6179775280898875E-2</v>
+        <v>5.8988764044943819E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -29439,15 +29442,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>2.0313942751615882E-2</v>
+        <v>2.1237303785780239E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29468,11 +29471,11 @@
       </c>
       <c r="B10">
         <f>COUNTA(Problems[Python])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.27777777777777779</v>
+        <v>0.29090909090909089</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29485,7 +29488,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>7.407407407407407E-2</v>
+        <v>7.2727272727272724E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29498,7 +29501,7 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
+        <v>0.38181818181818183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29511,7 +29514,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29524,7 +29527,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>9.2592592592592587E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29537,7 +29540,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>1.8518518518518517E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29550,7 +29553,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29563,7 +29566,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
+        <v>3.6363636363636362E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29572,7 +29575,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B88C089-66CB-EB49-8FD3-443EFD20D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900C42C-AE14-3842-9E80-D872A0959EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -2750,7 +2750,7 @@
   <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="Not Started"/>
+        <filter val="Solved"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3064,9 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4447,14 +4447,17 @@
         <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="J53" s="5">
+        <v>46040</v>
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5167,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -5482,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>108</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>118</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>125</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>126</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>127</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>130</v>
       </c>
@@ -6238,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>133</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>134</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -6334,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>148</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>149</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>150</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>152</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>154</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>155</v>
       </c>
@@ -6646,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>156</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>157</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>158</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>159</v>
       </c>
@@ -6758,7 +6761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>161</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>162</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>163</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>164</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>165</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>166</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>167</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>168</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>170</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>171</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>172</v>
       </c>
@@ -7070,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>173</v>
       </c>
@@ -7094,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>174</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>175</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>176</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>177</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>178</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>179</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>180</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>181</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>182</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>183</v>
       </c>
@@ -7331,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>184</v>
       </c>
@@ -7369,7 +7372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>185</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>186</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>187</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>188</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>189</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>190</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>191</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>192</v>
       </c>
@@ -7573,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>193</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>194</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>195</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>196</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>197</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>198</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>203</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>204</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>205</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>206</v>
       </c>
@@ -7909,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>207</v>
       </c>
@@ -7933,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>208</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>209</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>210</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>211</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>212</v>
       </c>
@@ -8053,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>213</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>214</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>215</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>216</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>217</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>218</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>219</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>220</v>
       </c>
@@ -8245,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>221</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>222</v>
       </c>
@@ -8293,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>223</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>224</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>225</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>226</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>227</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>228</v>
       </c>
@@ -8449,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>229</v>
       </c>
@@ -8473,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>230</v>
       </c>
@@ -8497,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>231</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>232</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>233</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>234</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>235</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>236</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>237</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>238</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
@@ -8713,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>240</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>241</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>242</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>243</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>244</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>245</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>246</v>
       </c>
@@ -8881,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>247</v>
       </c>
@@ -8905,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>248</v>
       </c>
@@ -8929,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>249</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>250</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>251</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>252</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>253</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>254</v>
       </c>
@@ -9073,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>255</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>256</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>257</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>258</v>
       </c>
@@ -9169,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>259</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>260</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>261</v>
       </c>
@@ -9241,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>262</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>263</v>
       </c>
@@ -9289,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>264</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>265</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>266</v>
       </c>
@@ -9361,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>267</v>
       </c>
@@ -9385,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>268</v>
       </c>
@@ -9409,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>269</v>
       </c>
@@ -9433,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>270</v>
       </c>
@@ -9457,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>271</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>272</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>273</v>
       </c>
@@ -9529,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>274</v>
       </c>
@@ -9553,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>275</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>276</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>277</v>
       </c>
@@ -9625,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>278</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>279</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>280</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>281</v>
       </c>
@@ -9721,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>282</v>
       </c>
@@ -9745,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>283</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>284</v>
       </c>
@@ -9793,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>285</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>286</v>
       </c>
@@ -9841,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>287</v>
       </c>
@@ -9865,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>288</v>
       </c>
@@ -9889,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>289</v>
       </c>
@@ -9913,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>290</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>291</v>
       </c>
@@ -9961,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>292</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>293</v>
       </c>
@@ -10009,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>294</v>
       </c>
@@ -10033,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>295</v>
       </c>
@@ -10057,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>296</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>297</v>
       </c>
@@ -10105,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>298</v>
       </c>
@@ -10129,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>299</v>
       </c>
@@ -10153,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>300</v>
       </c>
@@ -10177,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>301</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>302</v>
       </c>
@@ -10225,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>303</v>
       </c>
@@ -10249,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>304</v>
       </c>
@@ -10273,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>305</v>
       </c>
@@ -10297,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>306</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>307</v>
       </c>
@@ -10345,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>308</v>
       </c>
@@ -10369,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>309</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>310</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311</v>
       </c>
@@ -10441,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>312</v>
       </c>
@@ -10465,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>313</v>
       </c>
@@ -10489,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>314</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>315</v>
       </c>
@@ -10537,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>316</v>
       </c>
@@ -10561,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>317</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>318</v>
       </c>
@@ -10609,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>319</v>
       </c>
@@ -10633,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>320</v>
       </c>
@@ -10657,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>321</v>
       </c>
@@ -10681,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>322</v>
       </c>
@@ -10705,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>323</v>
       </c>
@@ -10729,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>324</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>325</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>326</v>
       </c>
@@ -10801,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>327</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>328</v>
       </c>
@@ -10849,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>329</v>
       </c>
@@ -10873,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>330</v>
       </c>
@@ -10897,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>331</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>332</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>333</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>334</v>
       </c>
@@ -10990,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -11014,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>336</v>
       </c>
@@ -11038,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>337</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>338</v>
       </c>
@@ -11086,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>339</v>
       </c>
@@ -11110,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>340</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>341</v>
       </c>
@@ -11158,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>342</v>
       </c>
@@ -11182,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>343</v>
       </c>
@@ -11206,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>344</v>
       </c>
@@ -11230,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>345</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>346</v>
       </c>
@@ -11278,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>347</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>348</v>
       </c>
@@ -11326,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>349</v>
       </c>
@@ -11350,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>350</v>
       </c>
@@ -11374,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>351</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -11422,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>353</v>
       </c>
@@ -11446,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>354</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>355</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>356</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -11542,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -11566,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>359</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>360</v>
       </c>
@@ -11614,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>361</v>
       </c>
@@ -11638,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -11662,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -11686,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>364</v>
       </c>
@@ -11710,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>365</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>366</v>
       </c>
@@ -11758,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>367</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>368</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>369</v>
       </c>
@@ -11830,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>370</v>
       </c>
@@ -11854,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>371</v>
       </c>
@@ -11878,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>372</v>
       </c>
@@ -11902,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>373</v>
       </c>
@@ -11926,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>374</v>
       </c>
@@ -11950,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>375</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>376</v>
       </c>
@@ -11998,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>377</v>
       </c>
@@ -12022,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>378</v>
       </c>
@@ -12046,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>379</v>
       </c>
@@ -12070,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>380</v>
       </c>
@@ -12094,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>381</v>
       </c>
@@ -12118,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>382</v>
       </c>
@@ -12142,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>383</v>
       </c>
@@ -12166,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>384</v>
       </c>
@@ -12190,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>385</v>
       </c>
@@ -12214,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>386</v>
       </c>
@@ -12238,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>388</v>
       </c>
@@ -12262,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>389</v>
       </c>
@@ -12286,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>390</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>391</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>392</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>393</v>
       </c>
@@ -12382,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>394</v>
       </c>
@@ -12406,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>395</v>
       </c>
@@ -12430,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>396</v>
       </c>
@@ -12454,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>397</v>
       </c>
@@ -12478,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>398</v>
       </c>
@@ -12502,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>399</v>
       </c>
@@ -12526,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>400</v>
       </c>
@@ -12550,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>401</v>
       </c>
@@ -12574,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>402</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>403</v>
       </c>
@@ -12622,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>404</v>
       </c>
@@ -12646,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>405</v>
       </c>
@@ -12670,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>406</v>
       </c>
@@ -12694,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>407</v>
       </c>
@@ -12718,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>408</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>409</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>410</v>
       </c>
@@ -12790,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>411</v>
       </c>
@@ -12814,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>412</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>413</v>
       </c>
@@ -12862,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>414</v>
       </c>
@@ -12886,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>415</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>416</v>
       </c>
@@ -12934,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>417</v>
       </c>
@@ -12958,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>418</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>419</v>
       </c>
@@ -13006,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>420</v>
       </c>
@@ -13030,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>421</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>422</v>
       </c>
@@ -13078,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>423</v>
       </c>
@@ -13102,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>424</v>
       </c>
@@ -13126,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>425</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>426</v>
       </c>
@@ -13174,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>427</v>
       </c>
@@ -13198,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>428</v>
       </c>
@@ -13222,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>429</v>
       </c>
@@ -13246,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>430</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>431</v>
       </c>
@@ -13294,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>432</v>
       </c>
@@ -13318,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>433</v>
       </c>
@@ -13342,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>434</v>
       </c>
@@ -13366,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>435</v>
       </c>
@@ -13390,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>436</v>
       </c>
@@ -13414,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>437</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>438</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>439</v>
       </c>
@@ -13486,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>440</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>441</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>442</v>
       </c>
@@ -13555,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>443</v>
       </c>
@@ -13579,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>444</v>
       </c>
@@ -13603,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>446</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>447</v>
       </c>
@@ -13651,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>448</v>
       </c>
@@ -13675,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>449</v>
       </c>
@@ -13699,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>450</v>
       </c>
@@ -13723,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>451</v>
       </c>
@@ -13747,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>452</v>
       </c>
@@ -13771,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>453</v>
       </c>
@@ -13795,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>454</v>
       </c>
@@ -13819,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>455</v>
       </c>
@@ -13843,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>456</v>
       </c>
@@ -13867,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>457</v>
       </c>
@@ -13891,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>458</v>
       </c>
@@ -13915,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>459</v>
       </c>
@@ -13939,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>460</v>
       </c>
@@ -13963,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>461</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>462</v>
       </c>
@@ -14011,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>463</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>464</v>
       </c>
@@ -14059,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>465</v>
       </c>
@@ -14083,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>466</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>468</v>
       </c>
@@ -14131,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>469</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>470</v>
       </c>
@@ -14179,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>471</v>
       </c>
@@ -14203,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>472</v>
       </c>
@@ -14227,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>473</v>
       </c>
@@ -14251,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>474</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>475</v>
       </c>
@@ -14299,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>476</v>
       </c>
@@ -14323,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>477</v>
       </c>
@@ -14347,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>478</v>
       </c>
@@ -14371,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>479</v>
       </c>
@@ -14395,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>480</v>
       </c>
@@ -14419,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>481</v>
       </c>
@@ -14443,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>482</v>
       </c>
@@ -14467,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>483</v>
       </c>
@@ -14491,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>484</v>
       </c>
@@ -14515,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>485</v>
       </c>
@@ -14539,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>486</v>
       </c>
@@ -14563,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>487</v>
       </c>
@@ -14587,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>488</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>489</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>490</v>
       </c>
@@ -14659,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>491</v>
       </c>
@@ -14683,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>492</v>
       </c>
@@ -14707,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>493</v>
       </c>
@@ -14731,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>494</v>
       </c>
@@ -14755,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>495</v>
       </c>
@@ -14779,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>496</v>
       </c>
@@ -14803,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>497</v>
       </c>
@@ -14827,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>498</v>
       </c>
@@ -14851,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>499</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>500</v>
       </c>
@@ -14899,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>501</v>
       </c>
@@ -14923,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>502</v>
       </c>
@@ -14947,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>503</v>
       </c>
@@ -14971,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>504</v>
       </c>
@@ -14995,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>505</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>506</v>
       </c>
@@ -15043,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>507</v>
       </c>
@@ -15067,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>508</v>
       </c>
@@ -15091,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>509</v>
       </c>
@@ -15115,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>510</v>
       </c>
@@ -15139,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>511</v>
       </c>
@@ -15163,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>512</v>
       </c>
@@ -15187,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>513</v>
       </c>
@@ -15211,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>514</v>
       </c>
@@ -15235,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>515</v>
       </c>
@@ -15259,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>516</v>
       </c>
@@ -15283,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>517</v>
       </c>
@@ -15307,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>518</v>
       </c>
@@ -15331,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>519</v>
       </c>
@@ -15355,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>520</v>
       </c>
@@ -15379,7 +15382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>521</v>
       </c>
@@ -15403,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>522</v>
       </c>
@@ -15427,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>523</v>
       </c>
@@ -15448,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>524</v>
       </c>
@@ -15472,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>525</v>
       </c>
@@ -15496,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>526</v>
       </c>
@@ -15520,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>527</v>
       </c>
@@ -15544,7 +15547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>528</v>
       </c>
@@ -15568,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>529</v>
       </c>
@@ -15592,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>530</v>
       </c>
@@ -15616,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>532</v>
       </c>
@@ -15640,7 +15643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>533</v>
       </c>
@@ -15664,7 +15667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>534</v>
       </c>
@@ -15688,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>535</v>
       </c>
@@ -15712,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>536</v>
       </c>
@@ -15736,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>537</v>
       </c>
@@ -15760,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>538</v>
       </c>
@@ -15784,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>539</v>
       </c>
@@ -15808,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>540</v>
       </c>
@@ -15832,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>541</v>
       </c>
@@ -15856,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>542</v>
       </c>
@@ -15880,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>543</v>
       </c>
@@ -15904,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>544</v>
       </c>
@@ -15928,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>545</v>
       </c>
@@ -15952,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>546</v>
       </c>
@@ -15976,7 +15979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>547</v>
       </c>
@@ -16000,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>548</v>
       </c>
@@ -16024,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>549</v>
       </c>
@@ -16048,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -16072,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>551</v>
       </c>
@@ -16096,7 +16099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>552</v>
       </c>
@@ -16120,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>553</v>
       </c>
@@ -16144,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>554</v>
       </c>
@@ -16168,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>555</v>
       </c>
@@ -16192,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>556</v>
       </c>
@@ -16216,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>557</v>
       </c>
@@ -16240,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>558</v>
       </c>
@@ -16264,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>559</v>
       </c>
@@ -16288,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>561</v>
       </c>
@@ -16312,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>562</v>
       </c>
@@ -16336,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>563</v>
       </c>
@@ -16360,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>564</v>
       </c>
@@ -16384,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>565</v>
       </c>
@@ -16408,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>566</v>
       </c>
@@ -16432,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>567</v>
       </c>
@@ -16456,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>568</v>
       </c>
@@ -16480,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>569</v>
       </c>
@@ -16504,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>570</v>
       </c>
@@ -16528,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>572</v>
       </c>
@@ -16552,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>573</v>
       </c>
@@ -16576,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>574</v>
       </c>
@@ -16600,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>575</v>
       </c>
@@ -16624,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>576</v>
       </c>
@@ -16648,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>577</v>
       </c>
@@ -16672,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>578</v>
       </c>
@@ -16696,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>579</v>
       </c>
@@ -16720,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>581</v>
       </c>
@@ -16744,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>582</v>
       </c>
@@ -16768,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>584</v>
       </c>
@@ -16792,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>586</v>
       </c>
@@ -16816,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>587</v>
       </c>
@@ -16840,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>588</v>
       </c>
@@ -16864,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>589</v>
       </c>
@@ -16888,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>590</v>
       </c>
@@ -16912,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>591</v>
       </c>
@@ -16936,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>592</v>
       </c>
@@ -16960,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>593</v>
       </c>
@@ -16984,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>594</v>
       </c>
@@ -17008,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>595</v>
       </c>
@@ -17032,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>596</v>
       </c>
@@ -17056,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>597</v>
       </c>
@@ -17080,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>598</v>
       </c>
@@ -17104,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>599</v>
       </c>
@@ -17128,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>600</v>
       </c>
@@ -17152,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>601</v>
       </c>
@@ -17176,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>602</v>
       </c>
@@ -17200,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>603</v>
       </c>
@@ -17224,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>604</v>
       </c>
@@ -17248,7 +17251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>605</v>
       </c>
@@ -17272,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>606</v>
       </c>
@@ -17296,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>607</v>
       </c>
@@ -17320,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>608</v>
       </c>
@@ -17344,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>609</v>
       </c>
@@ -17368,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>611</v>
       </c>
@@ -17392,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>612</v>
       </c>
@@ -17416,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>613</v>
       </c>
@@ -17440,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>614</v>
       </c>
@@ -17464,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>615</v>
       </c>
@@ -17488,7 +17491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>616</v>
       </c>
@@ -17512,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>617</v>
       </c>
@@ -17536,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>619</v>
       </c>
@@ -17560,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>620</v>
       </c>
@@ -17584,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>621</v>
       </c>
@@ -17608,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>622</v>
       </c>
@@ -17632,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>623</v>
       </c>
@@ -17656,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>624</v>
       </c>
@@ -17680,7 +17683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>625</v>
       </c>
@@ -17704,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>626</v>
       </c>
@@ -17728,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>627</v>
       </c>
@@ -17752,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>628</v>
       </c>
@@ -17776,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>629</v>
       </c>
@@ -17800,7 +17803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>630</v>
       </c>
@@ -17824,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>631</v>
       </c>
@@ -17848,7 +17851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>632</v>
       </c>
@@ -17872,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>633</v>
       </c>
@@ -17896,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>634</v>
       </c>
@@ -17920,7 +17923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>635</v>
       </c>
@@ -17944,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>636</v>
       </c>
@@ -17968,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>637</v>
       </c>
@@ -17992,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>638</v>
       </c>
@@ -18016,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>639</v>
       </c>
@@ -18040,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>640</v>
       </c>
@@ -18064,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>641</v>
       </c>
@@ -18088,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>642</v>
       </c>
@@ -18112,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>643</v>
       </c>
@@ -18136,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>644</v>
       </c>
@@ -18160,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>645</v>
       </c>
@@ -18184,7 +18187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>646</v>
       </c>
@@ -18208,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>647</v>
       </c>
@@ -18232,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>649</v>
       </c>
@@ -18256,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>650</v>
       </c>
@@ -18280,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>651</v>
       </c>
@@ -18304,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>652</v>
       </c>
@@ -18328,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>653</v>
       </c>
@@ -18352,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>654</v>
       </c>
@@ -18376,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>655</v>
       </c>
@@ -18400,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>657</v>
       </c>
@@ -18424,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>658</v>
       </c>
@@ -18448,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>659</v>
       </c>
@@ -18472,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>660</v>
       </c>
@@ -18496,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>661</v>
       </c>
@@ -18520,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>662</v>
       </c>
@@ -18544,7 +18547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>664</v>
       </c>
@@ -18568,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>665</v>
       </c>
@@ -18592,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>666</v>
       </c>
@@ -18616,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>667</v>
       </c>
@@ -18640,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>668</v>
       </c>
@@ -18664,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>669</v>
       </c>
@@ -18688,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>670</v>
       </c>
@@ -18712,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>671</v>
       </c>
@@ -18736,7 +18739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>672</v>
       </c>
@@ -18760,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>673</v>
       </c>
@@ -18784,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>674</v>
       </c>
@@ -18808,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>675</v>
       </c>
@@ -18832,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>676</v>
       </c>
@@ -18856,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>677</v>
       </c>
@@ -18880,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>678</v>
       </c>
@@ -18904,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>679</v>
       </c>
@@ -18928,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>680</v>
       </c>
@@ -18952,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>681</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>682</v>
       </c>
@@ -19000,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>683</v>
       </c>
@@ -19024,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>684</v>
       </c>
@@ -19048,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>685</v>
       </c>
@@ -19072,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>686</v>
       </c>
@@ -19096,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>687</v>
       </c>
@@ -19120,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>688</v>
       </c>
@@ -19144,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>689</v>
       </c>
@@ -19168,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>690</v>
       </c>
@@ -19192,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>691</v>
       </c>
@@ -19216,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>692</v>
       </c>
@@ -19240,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>693</v>
       </c>
@@ -19264,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>694</v>
       </c>
@@ -19288,7 +19291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>696</v>
       </c>
@@ -19312,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>697</v>
       </c>
@@ -19336,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>698</v>
       </c>
@@ -19360,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>699</v>
       </c>
@@ -19384,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>700</v>
       </c>
@@ -19408,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>701</v>
       </c>
@@ -19432,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>702</v>
       </c>
@@ -19456,7 +19459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>703</v>
       </c>
@@ -19480,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>704</v>
       </c>
@@ -19504,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>705</v>
       </c>
@@ -19528,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>706</v>
       </c>
@@ -19552,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>707</v>
       </c>
@@ -19576,7 +19579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>708</v>
       </c>
@@ -19600,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>709</v>
       </c>
@@ -19624,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>710</v>
       </c>
@@ -19648,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>711</v>
       </c>
@@ -19672,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>712</v>
       </c>
@@ -19696,7 +19699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>713</v>
       </c>
@@ -19720,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>714</v>
       </c>
@@ -19744,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>715</v>
       </c>
@@ -19768,7 +19771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>716</v>
       </c>
@@ -19792,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>717</v>
       </c>
@@ -19816,7 +19819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>718</v>
       </c>
@@ -19840,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>719</v>
       </c>
@@ -19864,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>720</v>
       </c>
@@ -19888,7 +19891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>721</v>
       </c>
@@ -19912,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>722</v>
       </c>
@@ -19936,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>723</v>
       </c>
@@ -19960,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>724</v>
       </c>
@@ -19984,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>725</v>
       </c>
@@ -20008,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>726</v>
       </c>
@@ -20032,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>727</v>
       </c>
@@ -20056,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>728</v>
       </c>
@@ -20080,7 +20083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>729</v>
       </c>
@@ -20104,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>730</v>
       </c>
@@ -20128,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>731</v>
       </c>
@@ -20152,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>732</v>
       </c>
@@ -20176,7 +20179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>733</v>
       </c>
@@ -20200,7 +20203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>734</v>
       </c>
@@ -20224,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>735</v>
       </c>
@@ -20248,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>736</v>
       </c>
@@ -20272,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>737</v>
       </c>
@@ -20296,7 +20299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>738</v>
       </c>
@@ -20320,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>739</v>
       </c>
@@ -20344,7 +20347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>740</v>
       </c>
@@ -20368,7 +20371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>741</v>
       </c>
@@ -20392,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>742</v>
       </c>
@@ -20416,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>743</v>
       </c>
@@ -20440,7 +20443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>744</v>
       </c>
@@ -20464,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>745</v>
       </c>
@@ -20488,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>746</v>
       </c>
@@ -20512,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>747</v>
       </c>
@@ -20536,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>748</v>
       </c>
@@ -20560,7 +20563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>749</v>
       </c>
@@ -20584,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750</v>
       </c>
@@ -20608,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>751</v>
       </c>
@@ -20632,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>752</v>
       </c>
@@ -20656,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>753</v>
       </c>
@@ -20680,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>754</v>
       </c>
@@ -20704,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>755</v>
       </c>
@@ -20728,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>756</v>
       </c>
@@ -20752,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>757</v>
       </c>
@@ -20776,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>758</v>
       </c>
@@ -20800,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>759</v>
       </c>
@@ -20824,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>760</v>
       </c>
@@ -20848,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>761</v>
       </c>
@@ -20872,7 +20875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>763</v>
       </c>
@@ -20896,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>764</v>
       </c>
@@ -20920,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>765</v>
       </c>
@@ -20944,7 +20947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>766</v>
       </c>
@@ -20968,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>767</v>
       </c>
@@ -20992,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>768</v>
       </c>
@@ -21016,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>769</v>
       </c>
@@ -21040,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>770</v>
       </c>
@@ -21064,7 +21067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>771</v>
       </c>
@@ -21088,7 +21091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>772</v>
       </c>
@@ -21112,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>773</v>
       </c>
@@ -21136,7 +21139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>775</v>
       </c>
@@ -21160,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>776</v>
       </c>
@@ -21184,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>777</v>
       </c>
@@ -21208,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>778</v>
       </c>
@@ -21232,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>779</v>
       </c>
@@ -21256,7 +21259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>780</v>
       </c>
@@ -21280,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>781</v>
       </c>
@@ -21304,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>782</v>
       </c>
@@ -21328,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>783</v>
       </c>
@@ -21352,7 +21355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>784</v>
       </c>
@@ -21376,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>785</v>
       </c>
@@ -21400,7 +21403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>786</v>
       </c>
@@ -21424,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>787</v>
       </c>
@@ -21448,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>788</v>
       </c>
@@ -21472,7 +21475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>789</v>
       </c>
@@ -21496,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>790</v>
       </c>
@@ -21520,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>791</v>
       </c>
@@ -21544,7 +21547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>792</v>
       </c>
@@ -21568,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>793</v>
       </c>
@@ -21592,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>794</v>
       </c>
@@ -21616,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>795</v>
       </c>
@@ -21640,7 +21643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>796</v>
       </c>
@@ -21664,7 +21667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>797</v>
       </c>
@@ -21688,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>798</v>
       </c>
@@ -21712,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>799</v>
       </c>
@@ -21736,7 +21739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>800</v>
       </c>
@@ -21760,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>801</v>
       </c>
@@ -21784,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>802</v>
       </c>
@@ -21808,7 +21811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>803</v>
       </c>
@@ -21832,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>804</v>
       </c>
@@ -21856,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>805</v>
       </c>
@@ -21880,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>806</v>
       </c>
@@ -21904,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>807</v>
       </c>
@@ -21928,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>808</v>
       </c>
@@ -21952,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>809</v>
       </c>
@@ -21976,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>810</v>
       </c>
@@ -22000,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>811</v>
       </c>
@@ -22024,7 +22027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>812</v>
       </c>
@@ -22048,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>813</v>
       </c>
@@ -22072,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>814</v>
       </c>
@@ -22096,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>815</v>
       </c>
@@ -22120,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>816</v>
       </c>
@@ -22144,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>817</v>
       </c>
@@ -22168,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>818</v>
       </c>
@@ -22192,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>819</v>
       </c>
@@ -22216,7 +22219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>820</v>
       </c>
@@ -22240,7 +22243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>821</v>
       </c>
@@ -22264,7 +22267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>822</v>
       </c>
@@ -22288,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>823</v>
       </c>
@@ -22312,7 +22315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>824</v>
       </c>
@@ -22336,7 +22339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>825</v>
       </c>
@@ -22360,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>826</v>
       </c>
@@ -22384,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>827</v>
       </c>
@@ -22408,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>828</v>
       </c>
@@ -22432,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>829</v>
       </c>
@@ -22456,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>830</v>
       </c>
@@ -22480,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>831</v>
       </c>
@@ -22504,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>832</v>
       </c>
@@ -22528,7 +22531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>833</v>
       </c>
@@ -22552,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>834</v>
       </c>
@@ -22576,7 +22579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>835</v>
       </c>
@@ -22600,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>836</v>
       </c>
@@ -22624,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>837</v>
       </c>
@@ -22648,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>839</v>
       </c>
@@ -22672,7 +22675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>840</v>
       </c>
@@ -22696,7 +22699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>841</v>
       </c>
@@ -22717,7 +22720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>842</v>
       </c>
@@ -22741,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>843</v>
       </c>
@@ -22765,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>844</v>
       </c>
@@ -22789,7 +22792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>845</v>
       </c>
@@ -22813,7 +22816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>846</v>
       </c>
@@ -22837,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>847</v>
       </c>
@@ -22861,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>848</v>
       </c>
@@ -22885,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>849</v>
       </c>
@@ -22909,7 +22912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>850</v>
       </c>
@@ -22933,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>851</v>
       </c>
@@ -22957,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>852</v>
       </c>
@@ -22981,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>854</v>
       </c>
@@ -23005,7 +23008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>855</v>
       </c>
@@ -23029,7 +23032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>856</v>
       </c>
@@ -23053,7 +23056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>857</v>
       </c>
@@ -23077,7 +23080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>858</v>
       </c>
@@ -23101,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>859</v>
       </c>
@@ -23125,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>860</v>
       </c>
@@ -23149,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>861</v>
       </c>
@@ -23173,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>862</v>
       </c>
@@ -23197,7 +23200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>863</v>
       </c>
@@ -23221,7 +23224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>864</v>
       </c>
@@ -23245,7 +23248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>865</v>
       </c>
@@ -23269,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>866</v>
       </c>
@@ -23293,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>867</v>
       </c>
@@ -23317,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>868</v>
       </c>
@@ -23341,7 +23344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>869</v>
       </c>
@@ -23365,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>871</v>
       </c>
@@ -23389,7 +23392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>872</v>
       </c>
@@ -23413,7 +23416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>873</v>
       </c>
@@ -23437,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>874</v>
       </c>
@@ -23461,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>875</v>
       </c>
@@ -23485,7 +23488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>876</v>
       </c>
@@ -23509,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>877</v>
       </c>
@@ -23533,7 +23536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>878</v>
       </c>
@@ -23557,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>880</v>
       </c>
@@ -23581,7 +23584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>881</v>
       </c>
@@ -23605,7 +23608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>882</v>
       </c>
@@ -23629,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>883</v>
       </c>
@@ -23653,7 +23656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>884</v>
       </c>
@@ -23677,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>885</v>
       </c>
@@ -23701,7 +23704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>886</v>
       </c>
@@ -23725,7 +23728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>887</v>
       </c>
@@ -23749,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>888</v>
       </c>
@@ -23773,7 +23776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>889</v>
       </c>
@@ -23797,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>890</v>
       </c>
@@ -23821,7 +23824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>891</v>
       </c>
@@ -23845,7 +23848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>892</v>
       </c>
@@ -23869,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>893</v>
       </c>
@@ -23893,7 +23896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>895</v>
       </c>
@@ -23917,7 +23920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>897</v>
       </c>
@@ -23941,7 +23944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>898</v>
       </c>
@@ -23965,7 +23968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>899</v>
       </c>
@@ -23989,7 +23992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>900</v>
       </c>
@@ -24013,7 +24016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>901</v>
       </c>
@@ -24037,7 +24040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>902</v>
       </c>
@@ -24061,7 +24064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>903</v>
       </c>
@@ -24085,7 +24088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>904</v>
       </c>
@@ -24109,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>905</v>
       </c>
@@ -24133,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>906</v>
       </c>
@@ -24157,7 +24160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>907</v>
       </c>
@@ -24181,7 +24184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>908</v>
       </c>
@@ -24205,7 +24208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>909</v>
       </c>
@@ -24229,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>910</v>
       </c>
@@ -24253,7 +24256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>911</v>
       </c>
@@ -24277,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>912</v>
       </c>
@@ -24301,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>913</v>
       </c>
@@ -24325,7 +24328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>914</v>
       </c>
@@ -24349,7 +24352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>915</v>
       </c>
@@ -24373,7 +24376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>916</v>
       </c>
@@ -24397,7 +24400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>917</v>
       </c>
@@ -24421,7 +24424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>918</v>
       </c>
@@ -24445,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>919</v>
       </c>
@@ -24469,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>920</v>
       </c>
@@ -24493,7 +24496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>921</v>
       </c>
@@ -24517,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>922</v>
       </c>
@@ -24541,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>923</v>
       </c>
@@ -24565,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>924</v>
       </c>
@@ -24589,7 +24592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>925</v>
       </c>
@@ -24613,7 +24616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>926</v>
       </c>
@@ -24637,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>927</v>
       </c>
@@ -24661,7 +24664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>928</v>
       </c>
@@ -24685,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>929</v>
       </c>
@@ -24709,7 +24712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>930</v>
       </c>
@@ -24733,7 +24736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>931</v>
       </c>
@@ -24757,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>932</v>
       </c>
@@ -24781,7 +24784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>933</v>
       </c>
@@ -24805,7 +24808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>934</v>
       </c>
@@ -24829,7 +24832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>935</v>
       </c>
@@ -24853,7 +24856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>936</v>
       </c>
@@ -24877,7 +24880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>937</v>
       </c>
@@ -24901,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>938</v>
       </c>
@@ -24925,7 +24928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>939</v>
       </c>
@@ -24949,7 +24952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>940</v>
       </c>
@@ -24973,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>941</v>
       </c>
@@ -24997,7 +25000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>942</v>
       </c>
@@ -25021,7 +25024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>943</v>
       </c>
@@ -25045,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>944</v>
       </c>
@@ -25069,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>945</v>
       </c>
@@ -25093,7 +25096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>946</v>
       </c>
@@ -25117,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>947</v>
       </c>
@@ -25141,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>949</v>
       </c>
@@ -25165,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>950</v>
       </c>
@@ -25189,7 +25192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>951</v>
       </c>
@@ -25213,7 +25216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>952</v>
       </c>
@@ -25237,7 +25240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>953</v>
       </c>
@@ -25261,7 +25264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>954</v>
       </c>
@@ -25285,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>955</v>
       </c>
@@ -25309,7 +25312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>956</v>
       </c>
@@ -25333,7 +25336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>957</v>
       </c>
@@ -25357,7 +25360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>958</v>
       </c>
@@ -25381,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>959</v>
       </c>
@@ -25405,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>960</v>
       </c>
@@ -25429,7 +25432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>961</v>
       </c>
@@ -25453,7 +25456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>962</v>
       </c>
@@ -25477,7 +25480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>963</v>
       </c>
@@ -25501,7 +25504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>964</v>
       </c>
@@ -25525,7 +25528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>965</v>
       </c>
@@ -25549,7 +25552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>967</v>
       </c>
@@ -25573,7 +25576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>968</v>
       </c>
@@ -25597,7 +25600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>969</v>
       </c>
@@ -25621,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>970</v>
       </c>
@@ -25645,7 +25648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>971</v>
       </c>
@@ -25669,7 +25672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>972</v>
       </c>
@@ -25693,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>973</v>
       </c>
@@ -25717,7 +25720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>974</v>
       </c>
@@ -25741,7 +25744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>975</v>
       </c>
@@ -25765,7 +25768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>976</v>
       </c>
@@ -25789,7 +25792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>977</v>
       </c>
@@ -25813,7 +25816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>978</v>
       </c>
@@ -25837,7 +25840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>979</v>
       </c>
@@ -25861,7 +25864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>980</v>
       </c>
@@ -25885,7 +25888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>981</v>
       </c>
@@ -25909,7 +25912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>982</v>
       </c>
@@ -25933,7 +25936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>983</v>
       </c>
@@ -25957,7 +25960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>984</v>
       </c>
@@ -25981,7 +25984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>985</v>
       </c>
@@ -26005,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>986</v>
       </c>
@@ -26029,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>987</v>
       </c>
@@ -26053,7 +26056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>988</v>
       </c>
@@ -26077,7 +26080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>989</v>
       </c>
@@ -26101,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>990</v>
       </c>
@@ -26125,7 +26128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>991</v>
       </c>
@@ -26149,7 +26152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>992</v>
       </c>
@@ -26173,7 +26176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>993</v>
       </c>
@@ -26197,7 +26200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>994</v>
       </c>
@@ -26221,7 +26224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>995</v>
       </c>
@@ -26245,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>996</v>
       </c>
@@ -26269,7 +26272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>997</v>
       </c>
@@ -26293,7 +26296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>998</v>
       </c>
@@ -26317,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>999</v>
       </c>
@@ -26341,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1000</v>
       </c>
@@ -26365,7 +26368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1001</v>
       </c>
@@ -26389,7 +26392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1002</v>
       </c>
@@ -26413,7 +26416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1003</v>
       </c>
@@ -26437,7 +26440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1004</v>
       </c>
@@ -26461,7 +26464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1005</v>
       </c>
@@ -26485,7 +26488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1006</v>
       </c>
@@ -26509,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1007</v>
       </c>
@@ -26533,7 +26536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1008</v>
       </c>
@@ -26557,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1009</v>
       </c>
@@ -26581,7 +26584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1010</v>
       </c>
@@ -26605,7 +26608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1011</v>
       </c>
@@ -26629,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1013</v>
       </c>
@@ -26653,7 +26656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1014</v>
       </c>
@@ -26677,7 +26680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1015</v>
       </c>
@@ -26701,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1016</v>
       </c>
@@ -26725,7 +26728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1018</v>
       </c>
@@ -26749,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1019</v>
       </c>
@@ -26773,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1020</v>
       </c>
@@ -26797,7 +26800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1021</v>
       </c>
@@ -26821,7 +26824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1022</v>
       </c>
@@ -26845,7 +26848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1023</v>
       </c>
@@ -26869,7 +26872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1024</v>
       </c>
@@ -26893,7 +26896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1025</v>
       </c>
@@ -26917,7 +26920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1026</v>
       </c>
@@ -26941,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1027</v>
       </c>
@@ -26965,7 +26968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1028</v>
       </c>
@@ -26989,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1029</v>
       </c>
@@ -27013,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1030</v>
       </c>
@@ -27037,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1031</v>
       </c>
@@ -27061,7 +27064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1032</v>
       </c>
@@ -27085,7 +27088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1033</v>
       </c>
@@ -27109,7 +27112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1034</v>
       </c>
@@ -27133,7 +27136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1035</v>
       </c>
@@ -27157,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1036</v>
       </c>
@@ -27181,7 +27184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1037</v>
       </c>
@@ -27205,7 +27208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1038</v>
       </c>
@@ -27229,7 +27232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1039</v>
       </c>
@@ -27253,7 +27256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1040</v>
       </c>
@@ -27277,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1041</v>
       </c>
@@ -27301,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1042</v>
       </c>
@@ -27325,7 +27328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1043</v>
       </c>
@@ -27349,7 +27352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1044</v>
       </c>
@@ -27373,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1045</v>
       </c>
@@ -27394,7 +27397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1046</v>
       </c>
@@ -27418,7 +27421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1047</v>
       </c>
@@ -27442,7 +27445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1048</v>
       </c>
@@ -27466,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1049</v>
       </c>
@@ -27490,7 +27493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1050</v>
       </c>
@@ -27514,7 +27517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1051</v>
       </c>
@@ -27538,7 +27541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1052</v>
       </c>
@@ -27562,7 +27565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1053</v>
       </c>
@@ -27586,7 +27589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1054</v>
       </c>
@@ -27610,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1055</v>
       </c>
@@ -27634,7 +27637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1056</v>
       </c>
@@ -27658,7 +27661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1057</v>
       </c>
@@ -27682,7 +27685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1058</v>
       </c>
@@ -27706,7 +27709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1059</v>
       </c>
@@ -27730,7 +27733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1060</v>
       </c>
@@ -27754,7 +27757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1061</v>
       </c>
@@ -27778,7 +27781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1062</v>
       </c>
@@ -27802,7 +27805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1063</v>
       </c>
@@ -27826,7 +27829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1064</v>
       </c>
@@ -27850,7 +27853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1065</v>
       </c>
@@ -27874,7 +27877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1066</v>
       </c>
@@ -27898,7 +27901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1068</v>
       </c>
@@ -27922,7 +27925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1069</v>
       </c>
@@ -27946,7 +27949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1070</v>
       </c>
@@ -27970,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1071</v>
       </c>
@@ -27994,7 +27997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1072</v>
       </c>
@@ -28018,7 +28021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1073</v>
       </c>
@@ -28042,7 +28045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1074</v>
       </c>
@@ -28066,7 +28069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1075</v>
       </c>
@@ -28090,7 +28093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1076</v>
       </c>
@@ -28114,7 +28117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1077</v>
       </c>
@@ -28138,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1078</v>
       </c>
@@ -28162,7 +28165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1079</v>
       </c>
@@ -28186,7 +28189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1080</v>
       </c>
@@ -28210,7 +28213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1082</v>
       </c>
@@ -28234,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1083</v>
       </c>
@@ -28258,7 +28261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1084</v>
       </c>
@@ -28282,7 +28285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1085</v>
       </c>
@@ -28306,7 +28309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1086</v>
       </c>
@@ -28330,7 +28333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1087</v>
       </c>
@@ -28354,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1088</v>
       </c>
@@ -28378,7 +28381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1089</v>
       </c>
@@ -28402,7 +28405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1090</v>
       </c>
@@ -28426,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1091</v>
       </c>
@@ -28450,7 +28453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1092</v>
       </c>
@@ -28474,7 +28477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1093</v>
       </c>
@@ -28498,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1094</v>
       </c>
@@ -28522,7 +28525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1095</v>
       </c>
@@ -28546,7 +28549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1096</v>
       </c>
@@ -28570,7 +28573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1097</v>
       </c>
@@ -28594,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1098</v>
       </c>
@@ -28618,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1099</v>
       </c>
@@ -28642,7 +28645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1100</v>
       </c>
@@ -28666,7 +28669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1101</v>
       </c>
@@ -28690,7 +28693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1102</v>
       </c>
@@ -28714,7 +28717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1103</v>
       </c>
@@ -28738,7 +28741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1104</v>
       </c>
@@ -28762,7 +28765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1105</v>
       </c>
@@ -28786,7 +28789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1106</v>
       </c>
@@ -28810,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1107</v>
       </c>
@@ -28834,7 +28837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1108</v>
       </c>
@@ -28858,7 +28861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1109</v>
       </c>
@@ -28882,7 +28885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>1110</v>
       </c>
@@ -28918,7 +28921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1111</v>
       </c>
@@ -28942,7 +28945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1113</v>
       </c>
@@ -28966,7 +28969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1114</v>
       </c>
@@ -28990,7 +28993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1116</v>
       </c>
@@ -29014,7 +29017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1117</v>
       </c>
@@ -29038,7 +29041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1118</v>
       </c>
@@ -29062,7 +29065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1119</v>
       </c>
@@ -29086,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1120</v>
       </c>
@@ -29110,7 +29113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1121</v>
       </c>
@@ -29134,7 +29137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1122</v>
       </c>
@@ -29158,7 +29161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1123</v>
       </c>
@@ -29182,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1124</v>
       </c>
@@ -29206,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1125</v>
       </c>
@@ -29230,7 +29233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1126</v>
       </c>
@@ -29254,7 +29257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1127</v>
       </c>
@@ -29278,7 +29281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1128</v>
       </c>
@@ -29302,7 +29305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1129</v>
       </c>
@@ -29338,7 +29341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29400,15 +29403,15 @@
       </c>
       <c r="C4">
         <f>COUNTIFS(Problems!B:B,"Medium",Problems!F:F,"Solved")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f>COUNTIFS(Problems!B:B,"Medium",Problems!F:F,"Not Started")</f>
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E4" s="4">
         <f>IF(B4&gt;0,C4/B4,0)</f>
-        <v>4.4843049327354259E-3</v>
+        <v>6.7264573991031393E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -29442,15 +29445,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>2.1237303785780239E-2</v>
+        <v>2.2160664819944598E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29475,7 +29478,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.29090909090909089</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29488,7 +29491,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>7.2727272727272724E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29497,11 +29500,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.38181818181818183</v>
+        <v>0.39285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29514,7 +29517,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>5.4545454545454543E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29527,7 +29530,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.9285714285714288E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29540,7 +29543,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>1.8181818181818181E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29553,7 +29556,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>5.4545454545454543E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29566,7 +29569,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>3.6363636363636362E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29575,7 +29578,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900C42C-AE14-3842-9E80-D872A0959EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564AB48-DBA1-854E-9015-5DD841196A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -2747,13 +2747,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9113E3AB-9A94-8748-8F61-9409DC6182C2}" name="Problems" displayName="Problems" ref="A1:O1084" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Solved"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O1084" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{54C7E216-905B-6F41-86EB-AA874697E079}" name="Problem #"/>
     <tableColumn id="2" xr3:uid="{8B490E7E-7D92-AF45-862C-1DA57ACC6850}" name="Difficulty"/>
@@ -3065,8 +3059,8 @@
   <dimension ref="A1:O1084"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3151,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3199,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3223,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3307,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3331,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3355,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3403,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3427,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3451,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3502,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3526,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3550,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3574,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3625,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3649,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3673,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3697,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3721,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3783,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3834,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3858,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3882,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3930,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3954,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4035,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4059,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4083,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4107,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4131,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4189,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4213,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4237,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4295,7 +4289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4406,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4457,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4481,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4505,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4529,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4553,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4577,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4601,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4625,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4649,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4673,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4697,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4721,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4745,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4769,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4793,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4853,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4877,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4901,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4969,7 +4963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4993,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5017,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5071,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5095,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5119,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5170,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5218,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5242,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -5266,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5290,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5314,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -5338,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -5362,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -5386,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -5410,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -5461,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -5485,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -5509,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -5533,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -5557,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -5581,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -5605,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -5629,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5653,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5677,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5701,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5773,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5797,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5821,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5845,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5869,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5893,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5917,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5941,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5965,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -6025,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -6049,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -6073,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -6097,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -6121,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>124</v>
       </c>
@@ -6145,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>125</v>
       </c>
@@ -6169,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>126</v>
       </c>
@@ -6193,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>127</v>
       </c>
@@ -6217,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>130</v>
       </c>
@@ -6241,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>133</v>
       </c>
@@ -6265,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>134</v>
       </c>
@@ -6289,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -6313,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -6337,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -6361,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -6385,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -6409,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -6433,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -6457,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6481,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6505,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>148</v>
       </c>
@@ -6529,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>149</v>
       </c>
@@ -6553,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>150</v>
       </c>
@@ -6577,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>152</v>
       </c>
@@ -6601,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>154</v>
       </c>
@@ -6625,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>155</v>
       </c>
@@ -6649,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>156</v>
       </c>
@@ -6673,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>157</v>
       </c>
@@ -6697,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>158</v>
       </c>
@@ -6761,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160</v>
       </c>
@@ -6785,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>161</v>
       </c>
@@ -6809,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>162</v>
       </c>
@@ -6833,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>163</v>
       </c>
@@ -6850,14 +6844,17 @@
         <v>339</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="J149" s="5">
+        <v>46041</v>
       </c>
       <c r="O149">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>164</v>
       </c>
@@ -6881,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>165</v>
       </c>
@@ -6905,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>166</v>
       </c>
@@ -6929,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>167</v>
       </c>
@@ -6953,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>168</v>
       </c>
@@ -6977,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>169</v>
       </c>
@@ -7001,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>170</v>
       </c>
@@ -7025,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>171</v>
       </c>
@@ -7049,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>172</v>
       </c>
@@ -7073,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>173</v>
       </c>
@@ -7097,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>174</v>
       </c>
@@ -7118,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>175</v>
       </c>
@@ -7142,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>176</v>
       </c>
@@ -7166,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>177</v>
       </c>
@@ -7190,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>178</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>179</v>
       </c>
@@ -7238,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>180</v>
       </c>
@@ -7262,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>181</v>
       </c>
@@ -7286,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>182</v>
       </c>
@@ -7310,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>183</v>
       </c>
@@ -7372,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>185</v>
       </c>
@@ -7396,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>186</v>
       </c>
@@ -7420,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>187</v>
       </c>
@@ -7444,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>188</v>
       </c>
@@ -7504,7 +7501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>190</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>191</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>192</v>
       </c>
@@ -7576,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>193</v>
       </c>
@@ -7600,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>194</v>
       </c>
@@ -7624,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>195</v>
       </c>
@@ -7648,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>196</v>
       </c>
@@ -7672,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>197</v>
       </c>
@@ -7696,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>198</v>
       </c>
@@ -7720,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7744,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7768,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7792,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202</v>
       </c>
@@ -7816,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>203</v>
       </c>
@@ -7840,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>204</v>
       </c>
@@ -7864,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>205</v>
       </c>
@@ -7888,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>206</v>
       </c>
@@ -7912,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>207</v>
       </c>
@@ -7936,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>208</v>
       </c>
@@ -7960,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>209</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>210</v>
       </c>
@@ -8008,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>211</v>
       </c>
@@ -8032,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>212</v>
       </c>
@@ -8056,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>213</v>
       </c>
@@ -8080,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>214</v>
       </c>
@@ -8104,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>215</v>
       </c>
@@ -8128,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>216</v>
       </c>
@@ -8152,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>217</v>
       </c>
@@ -8176,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>218</v>
       </c>
@@ -8200,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>219</v>
       </c>
@@ -8224,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>220</v>
       </c>
@@ -8248,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>221</v>
       </c>
@@ -8272,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>222</v>
       </c>
@@ -8296,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>223</v>
       </c>
@@ -8320,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>224</v>
       </c>
@@ -8380,7 +8377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>226</v>
       </c>
@@ -8404,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>227</v>
       </c>
@@ -8428,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>228</v>
       </c>
@@ -8452,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>229</v>
       </c>
@@ -8476,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>230</v>
       </c>
@@ -8500,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>231</v>
       </c>
@@ -8524,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>232</v>
       </c>
@@ -8548,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>233</v>
       </c>
@@ -8572,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>234</v>
       </c>
@@ -8596,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>235</v>
       </c>
@@ -8620,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>236</v>
       </c>
@@ -8644,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>237</v>
       </c>
@@ -8668,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>238</v>
       </c>
@@ -8692,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>239</v>
       </c>
@@ -8716,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>240</v>
       </c>
@@ -8740,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>241</v>
       </c>
@@ -8764,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>242</v>
       </c>
@@ -8788,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>243</v>
       </c>
@@ -8812,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>244</v>
       </c>
@@ -8836,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>245</v>
       </c>
@@ -8860,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>246</v>
       </c>
@@ -8884,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>247</v>
       </c>
@@ -8908,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>248</v>
       </c>
@@ -8932,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>249</v>
       </c>
@@ -8956,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>250</v>
       </c>
@@ -8980,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>251</v>
       </c>
@@ -9004,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>252</v>
       </c>
@@ -9028,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>253</v>
       </c>
@@ -9052,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>254</v>
       </c>
@@ -9076,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>255</v>
       </c>
@@ -9100,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>256</v>
       </c>
@@ -9124,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>257</v>
       </c>
@@ -9148,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>258</v>
       </c>
@@ -9172,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>259</v>
       </c>
@@ -9196,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>260</v>
       </c>
@@ -9220,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>261</v>
       </c>
@@ -9244,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>262</v>
       </c>
@@ -9268,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>263</v>
       </c>
@@ -9292,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>264</v>
       </c>
@@ -9316,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>265</v>
       </c>
@@ -9340,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>266</v>
       </c>
@@ -9364,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>267</v>
       </c>
@@ -9388,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>268</v>
       </c>
@@ -9412,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>269</v>
       </c>
@@ -9436,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>270</v>
       </c>
@@ -9460,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>271</v>
       </c>
@@ -9484,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>272</v>
       </c>
@@ -9508,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>273</v>
       </c>
@@ -9532,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>274</v>
       </c>
@@ -9556,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>275</v>
       </c>
@@ -9580,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>276</v>
       </c>
@@ -9604,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>277</v>
       </c>
@@ -9628,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>278</v>
       </c>
@@ -9652,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>279</v>
       </c>
@@ -9676,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>280</v>
       </c>
@@ -9700,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>281</v>
       </c>
@@ -9724,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>282</v>
       </c>
@@ -9748,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>283</v>
       </c>
@@ -9772,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>284</v>
       </c>
@@ -9796,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>285</v>
       </c>
@@ -9820,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>286</v>
       </c>
@@ -9844,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>287</v>
       </c>
@@ -9868,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>288</v>
       </c>
@@ -9892,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>289</v>
       </c>
@@ -9916,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>290</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>291</v>
       </c>
@@ -9964,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>292</v>
       </c>
@@ -9988,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>293</v>
       </c>
@@ -10012,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>294</v>
       </c>
@@ -10036,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>295</v>
       </c>
@@ -10060,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>296</v>
       </c>
@@ -10084,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>297</v>
       </c>
@@ -10108,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>298</v>
       </c>
@@ -10132,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>299</v>
       </c>
@@ -10156,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>300</v>
       </c>
@@ -10180,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>301</v>
       </c>
@@ -10204,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>302</v>
       </c>
@@ -10228,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>303</v>
       </c>
@@ -10252,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>304</v>
       </c>
@@ -10276,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>305</v>
       </c>
@@ -10300,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>306</v>
       </c>
@@ -10324,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>307</v>
       </c>
@@ -10348,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>308</v>
       </c>
@@ -10372,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>309</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>310</v>
       </c>
@@ -10420,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311</v>
       </c>
@@ -10444,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>312</v>
       </c>
@@ -10468,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>313</v>
       </c>
@@ -10492,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>314</v>
       </c>
@@ -10516,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>315</v>
       </c>
@@ -10540,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>316</v>
       </c>
@@ -10564,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>317</v>
       </c>
@@ -10588,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>318</v>
       </c>
@@ -10612,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>319</v>
       </c>
@@ -10636,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>320</v>
       </c>
@@ -10660,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>321</v>
       </c>
@@ -10684,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>322</v>
       </c>
@@ -10708,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>323</v>
       </c>
@@ -10732,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>324</v>
       </c>
@@ -10756,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>325</v>
       </c>
@@ -10780,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>326</v>
       </c>
@@ -10804,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>327</v>
       </c>
@@ -10828,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>328</v>
       </c>
@@ -10852,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>329</v>
       </c>
@@ -10876,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>330</v>
       </c>
@@ -10900,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>331</v>
       </c>
@@ -10924,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>332</v>
       </c>
@@ -10945,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>333</v>
       </c>
@@ -10969,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>334</v>
       </c>
@@ -10993,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>335</v>
       </c>
@@ -11017,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>336</v>
       </c>
@@ -11041,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>337</v>
       </c>
@@ -11065,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>338</v>
       </c>
@@ -11089,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>339</v>
       </c>
@@ -11113,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>340</v>
       </c>
@@ -11137,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>341</v>
       </c>
@@ -11161,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>342</v>
       </c>
@@ -11185,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>343</v>
       </c>
@@ -11209,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>344</v>
       </c>
@@ -11233,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>345</v>
       </c>
@@ -11257,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>346</v>
       </c>
@@ -11281,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>347</v>
       </c>
@@ -11305,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>348</v>
       </c>
@@ -11329,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>349</v>
       </c>
@@ -11353,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>350</v>
       </c>
@@ -11377,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>351</v>
       </c>
@@ -11401,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -11425,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>353</v>
       </c>
@@ -11449,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>354</v>
       </c>
@@ -11473,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>355</v>
       </c>
@@ -11497,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>356</v>
       </c>
@@ -11521,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>357</v>
       </c>
@@ -11545,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>358</v>
       </c>
@@ -11569,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>359</v>
       </c>
@@ -11593,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>360</v>
       </c>
@@ -11617,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>361</v>
       </c>
@@ -11641,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>362</v>
       </c>
@@ -11665,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>363</v>
       </c>
@@ -11689,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>364</v>
       </c>
@@ -11713,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>365</v>
       </c>
@@ -11737,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>366</v>
       </c>
@@ -11761,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>367</v>
       </c>
@@ -11785,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>368</v>
       </c>
@@ -11809,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>369</v>
       </c>
@@ -11833,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>370</v>
       </c>
@@ -11857,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>371</v>
       </c>
@@ -11881,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>372</v>
       </c>
@@ -11905,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>373</v>
       </c>
@@ -11929,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>374</v>
       </c>
@@ -11953,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>375</v>
       </c>
@@ -11977,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>376</v>
       </c>
@@ -12001,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>377</v>
       </c>
@@ -12025,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>378</v>
       </c>
@@ -12049,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>379</v>
       </c>
@@ -12073,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>380</v>
       </c>
@@ -12097,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>381</v>
       </c>
@@ -12121,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>382</v>
       </c>
@@ -12145,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>383</v>
       </c>
@@ -12169,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>384</v>
       </c>
@@ -12193,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>385</v>
       </c>
@@ -12217,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>386</v>
       </c>
@@ -12241,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>388</v>
       </c>
@@ -12265,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>389</v>
       </c>
@@ -12289,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>390</v>
       </c>
@@ -12313,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>391</v>
       </c>
@@ -12337,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>392</v>
       </c>
@@ -12361,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>393</v>
       </c>
@@ -12385,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>394</v>
       </c>
@@ -12409,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>395</v>
       </c>
@@ -12433,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>396</v>
       </c>
@@ -12457,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>397</v>
       </c>
@@ -12481,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>398</v>
       </c>
@@ -12505,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>399</v>
       </c>
@@ -12529,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>400</v>
       </c>
@@ -12553,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>401</v>
       </c>
@@ -12577,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>402</v>
       </c>
@@ -12601,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>403</v>
       </c>
@@ -12625,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>404</v>
       </c>
@@ -12649,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>405</v>
       </c>
@@ -12673,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>406</v>
       </c>
@@ -12697,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>407</v>
       </c>
@@ -12721,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>408</v>
       </c>
@@ -12745,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>409</v>
       </c>
@@ -12769,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>410</v>
       </c>
@@ -12793,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>411</v>
       </c>
@@ -12817,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>412</v>
       </c>
@@ -12841,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>413</v>
       </c>
@@ -12865,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>414</v>
       </c>
@@ -12889,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>415</v>
       </c>
@@ -12913,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>416</v>
       </c>
@@ -12937,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>417</v>
       </c>
@@ -12961,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>418</v>
       </c>
@@ -12985,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>419</v>
       </c>
@@ -13009,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>420</v>
       </c>
@@ -13033,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>421</v>
       </c>
@@ -13057,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>422</v>
       </c>
@@ -13081,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>423</v>
       </c>
@@ -13105,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>424</v>
       </c>
@@ -13129,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>425</v>
       </c>
@@ -13153,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>426</v>
       </c>
@@ -13177,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>427</v>
       </c>
@@ -13201,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>428</v>
       </c>
@@ -13225,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>429</v>
       </c>
@@ -13249,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>430</v>
       </c>
@@ -13273,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>431</v>
       </c>
@@ -13297,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>432</v>
       </c>
@@ -13321,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>433</v>
       </c>
@@ -13345,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>434</v>
       </c>
@@ -13369,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>435</v>
       </c>
@@ -13393,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>436</v>
       </c>
@@ -13417,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>437</v>
       </c>
@@ -13441,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>438</v>
       </c>
@@ -13465,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>439</v>
       </c>
@@ -13489,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>440</v>
       </c>
@@ -13510,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>441</v>
       </c>
@@ -13534,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>442</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>443</v>
       </c>
@@ -13582,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>444</v>
       </c>
@@ -13606,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>446</v>
       </c>
@@ -13630,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>447</v>
       </c>
@@ -13654,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>448</v>
       </c>
@@ -13678,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>449</v>
       </c>
@@ -13702,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>450</v>
       </c>
@@ -13726,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>451</v>
       </c>
@@ -13750,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>452</v>
       </c>
@@ -13774,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>453</v>
       </c>
@@ -13798,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>454</v>
       </c>
@@ -13822,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>455</v>
       </c>
@@ -13846,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>456</v>
       </c>
@@ -13870,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>457</v>
       </c>
@@ -13894,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>458</v>
       </c>
@@ -13918,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>459</v>
       </c>
@@ -13942,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>460</v>
       </c>
@@ -13966,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>461</v>
       </c>
@@ -13990,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>462</v>
       </c>
@@ -14014,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>463</v>
       </c>
@@ -14038,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>464</v>
       </c>
@@ -14062,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>465</v>
       </c>
@@ -14086,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>466</v>
       </c>
@@ -14110,7 +14107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>468</v>
       </c>
@@ -14134,7 +14131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>469</v>
       </c>
@@ -14158,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>470</v>
       </c>
@@ -14182,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>471</v>
       </c>
@@ -14206,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>472</v>
       </c>
@@ -14230,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>473</v>
       </c>
@@ -14254,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>474</v>
       </c>
@@ -14278,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>475</v>
       </c>
@@ -14302,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>476</v>
       </c>
@@ -14326,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>477</v>
       </c>
@@ -14350,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>478</v>
       </c>
@@ -14374,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>479</v>
       </c>
@@ -14398,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>480</v>
       </c>
@@ -14422,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>481</v>
       </c>
@@ -14446,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>482</v>
       </c>
@@ -14470,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>483</v>
       </c>
@@ -14494,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>484</v>
       </c>
@@ -14518,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>485</v>
       </c>
@@ -14542,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>486</v>
       </c>
@@ -14566,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>487</v>
       </c>
@@ -14590,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>488</v>
       </c>
@@ -14614,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>489</v>
       </c>
@@ -14638,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>490</v>
       </c>
@@ -14662,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>491</v>
       </c>
@@ -14686,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>492</v>
       </c>
@@ -14710,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>493</v>
       </c>
@@ -14734,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>494</v>
       </c>
@@ -14758,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>495</v>
       </c>
@@ -14782,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>496</v>
       </c>
@@ -14806,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>497</v>
       </c>
@@ -14830,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>498</v>
       </c>
@@ -14854,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>499</v>
       </c>
@@ -14878,7 +14875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>500</v>
       </c>
@@ -14902,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>501</v>
       </c>
@@ -14926,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>502</v>
       </c>
@@ -14950,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>503</v>
       </c>
@@ -14974,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>504</v>
       </c>
@@ -14998,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>505</v>
       </c>
@@ -15022,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>506</v>
       </c>
@@ -15046,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>507</v>
       </c>
@@ -15070,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>508</v>
       </c>
@@ -15094,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>509</v>
       </c>
@@ -15118,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>510</v>
       </c>
@@ -15142,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>511</v>
       </c>
@@ -15166,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>512</v>
       </c>
@@ -15190,7 +15187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>513</v>
       </c>
@@ -15214,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>514</v>
       </c>
@@ -15238,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>515</v>
       </c>
@@ -15262,7 +15259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>516</v>
       </c>
@@ -15286,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>517</v>
       </c>
@@ -15310,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>518</v>
       </c>
@@ -15334,7 +15331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>519</v>
       </c>
@@ -15358,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>520</v>
       </c>
@@ -15382,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>521</v>
       </c>
@@ -15406,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>522</v>
       </c>
@@ -15430,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>523</v>
       </c>
@@ -15451,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>524</v>
       </c>
@@ -15475,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>525</v>
       </c>
@@ -15499,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>526</v>
       </c>
@@ -15523,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>527</v>
       </c>
@@ -15547,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>528</v>
       </c>
@@ -15571,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>529</v>
       </c>
@@ -15595,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>530</v>
       </c>
@@ -15619,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>532</v>
       </c>
@@ -15643,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>533</v>
       </c>
@@ -15667,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>534</v>
       </c>
@@ -15691,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>535</v>
       </c>
@@ -15715,7 +15712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>536</v>
       </c>
@@ -15739,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>537</v>
       </c>
@@ -15763,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>538</v>
       </c>
@@ -15787,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>539</v>
       </c>
@@ -15811,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>540</v>
       </c>
@@ -15835,7 +15832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>541</v>
       </c>
@@ -15859,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>542</v>
       </c>
@@ -15883,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>543</v>
       </c>
@@ -15907,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>544</v>
       </c>
@@ -15931,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>545</v>
       </c>
@@ -15955,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>546</v>
       </c>
@@ -15979,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>547</v>
       </c>
@@ -16003,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>548</v>
       </c>
@@ -16027,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>549</v>
       </c>
@@ -16051,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>550</v>
       </c>
@@ -16075,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>551</v>
       </c>
@@ -16099,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>552</v>
       </c>
@@ -16123,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>553</v>
       </c>
@@ -16147,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>554</v>
       </c>
@@ -16171,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>555</v>
       </c>
@@ -16195,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>556</v>
       </c>
@@ -16219,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>557</v>
       </c>
@@ -16243,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>558</v>
       </c>
@@ -16267,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>559</v>
       </c>
@@ -16291,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>561</v>
       </c>
@@ -16315,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>562</v>
       </c>
@@ -16339,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>563</v>
       </c>
@@ -16363,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>564</v>
       </c>
@@ -16387,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>565</v>
       </c>
@@ -16411,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>566</v>
       </c>
@@ -16435,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>567</v>
       </c>
@@ -16459,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>568</v>
       </c>
@@ -16483,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>569</v>
       </c>
@@ -16507,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>570</v>
       </c>
@@ -16531,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>572</v>
       </c>
@@ -16555,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>573</v>
       </c>
@@ -16579,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>574</v>
       </c>
@@ -16603,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>575</v>
       </c>
@@ -16627,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>576</v>
       </c>
@@ -16651,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>577</v>
       </c>
@@ -16675,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>578</v>
       </c>
@@ -16699,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>579</v>
       </c>
@@ -16723,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>581</v>
       </c>
@@ -16747,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>582</v>
       </c>
@@ -16771,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>584</v>
       </c>
@@ -16795,7 +16792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>586</v>
       </c>
@@ -16819,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>587</v>
       </c>
@@ -16843,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>588</v>
       </c>
@@ -16867,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>589</v>
       </c>
@@ -16891,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>590</v>
       </c>
@@ -16915,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>591</v>
       </c>
@@ -16939,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>592</v>
       </c>
@@ -16963,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>593</v>
       </c>
@@ -16987,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>594</v>
       </c>
@@ -17011,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>595</v>
       </c>
@@ -17035,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>596</v>
       </c>
@@ -17059,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>597</v>
       </c>
@@ -17083,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>598</v>
       </c>
@@ -17107,7 +17104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>599</v>
       </c>
@@ -17131,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>600</v>
       </c>
@@ -17155,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>601</v>
       </c>
@@ -17179,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>602</v>
       </c>
@@ -17203,7 +17200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>603</v>
       </c>
@@ -17227,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>604</v>
       </c>
@@ -17251,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>605</v>
       </c>
@@ -17275,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>606</v>
       </c>
@@ -17299,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>607</v>
       </c>
@@ -17323,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>608</v>
       </c>
@@ -17347,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>609</v>
       </c>
@@ -17371,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>611</v>
       </c>
@@ -17395,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>612</v>
       </c>
@@ -17419,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>613</v>
       </c>
@@ -17443,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>614</v>
       </c>
@@ -17467,7 +17464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>615</v>
       </c>
@@ -17491,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>616</v>
       </c>
@@ -17515,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>617</v>
       </c>
@@ -17539,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>619</v>
       </c>
@@ -17563,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>620</v>
       </c>
@@ -17587,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>621</v>
       </c>
@@ -17611,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>622</v>
       </c>
@@ -17635,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>623</v>
       </c>
@@ -17659,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>624</v>
       </c>
@@ -17683,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>625</v>
       </c>
@@ -17707,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>626</v>
       </c>
@@ -17731,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>627</v>
       </c>
@@ -17755,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>628</v>
       </c>
@@ -17779,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>629</v>
       </c>
@@ -17803,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>630</v>
       </c>
@@ -17827,7 +17824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>631</v>
       </c>
@@ -17851,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>632</v>
       </c>
@@ -17875,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>633</v>
       </c>
@@ -17899,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>634</v>
       </c>
@@ -17923,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>635</v>
       </c>
@@ -17947,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>636</v>
       </c>
@@ -17971,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>637</v>
       </c>
@@ -17995,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>638</v>
       </c>
@@ -18019,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>639</v>
       </c>
@@ -18043,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>640</v>
       </c>
@@ -18067,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>641</v>
       </c>
@@ -18091,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>642</v>
       </c>
@@ -18115,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>643</v>
       </c>
@@ -18139,7 +18136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>644</v>
       </c>
@@ -18163,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>645</v>
       </c>
@@ -18187,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>646</v>
       </c>
@@ -18211,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>647</v>
       </c>
@@ -18235,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>649</v>
       </c>
@@ -18259,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>650</v>
       </c>
@@ -18283,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>651</v>
       </c>
@@ -18307,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>652</v>
       </c>
@@ -18331,7 +18328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>653</v>
       </c>
@@ -18355,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>654</v>
       </c>
@@ -18379,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>655</v>
       </c>
@@ -18403,7 +18400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>657</v>
       </c>
@@ -18427,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>658</v>
       </c>
@@ -18451,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>659</v>
       </c>
@@ -18475,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>660</v>
       </c>
@@ -18499,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>661</v>
       </c>
@@ -18523,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>662</v>
       </c>
@@ -18547,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>664</v>
       </c>
@@ -18571,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>665</v>
       </c>
@@ -18595,7 +18592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>666</v>
       </c>
@@ -18619,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>667</v>
       </c>
@@ -18643,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>668</v>
       </c>
@@ -18667,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>669</v>
       </c>
@@ -18691,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>670</v>
       </c>
@@ -18715,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>671</v>
       </c>
@@ -18739,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>672</v>
       </c>
@@ -18763,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>673</v>
       </c>
@@ -18787,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>674</v>
       </c>
@@ -18811,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>675</v>
       </c>
@@ -18835,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>676</v>
       </c>
@@ -18859,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>677</v>
       </c>
@@ -18883,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>678</v>
       </c>
@@ -18907,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>679</v>
       </c>
@@ -18931,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>680</v>
       </c>
@@ -18955,7 +18952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>681</v>
       </c>
@@ -18979,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>682</v>
       </c>
@@ -19003,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>683</v>
       </c>
@@ -19027,7 +19024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>684</v>
       </c>
@@ -19051,7 +19048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>685</v>
       </c>
@@ -19075,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>686</v>
       </c>
@@ -19099,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>687</v>
       </c>
@@ -19123,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>688</v>
       </c>
@@ -19147,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>689</v>
       </c>
@@ -19171,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>690</v>
       </c>
@@ -19195,7 +19192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>691</v>
       </c>
@@ -19219,7 +19216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>692</v>
       </c>
@@ -19243,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>693</v>
       </c>
@@ -19267,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>694</v>
       </c>
@@ -19291,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>696</v>
       </c>
@@ -19315,7 +19312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>697</v>
       </c>
@@ -19339,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>698</v>
       </c>
@@ -19363,7 +19360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>699</v>
       </c>
@@ -19387,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>700</v>
       </c>
@@ -19411,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>701</v>
       </c>
@@ -19435,7 +19432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>702</v>
       </c>
@@ -19459,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>703</v>
       </c>
@@ -19483,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>704</v>
       </c>
@@ -19507,7 +19504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>705</v>
       </c>
@@ -19531,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>706</v>
       </c>
@@ -19555,7 +19552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>707</v>
       </c>
@@ -19579,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>708</v>
       </c>
@@ -19603,7 +19600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>709</v>
       </c>
@@ -19627,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>710</v>
       </c>
@@ -19651,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>711</v>
       </c>
@@ -19675,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>712</v>
       </c>
@@ -19699,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>713</v>
       </c>
@@ -19723,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>714</v>
       </c>
@@ -19747,7 +19744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>715</v>
       </c>
@@ -19771,7 +19768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>716</v>
       </c>
@@ -19795,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>717</v>
       </c>
@@ -19819,7 +19816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>718</v>
       </c>
@@ -19843,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>719</v>
       </c>
@@ -19867,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>720</v>
       </c>
@@ -19891,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>721</v>
       </c>
@@ -19915,7 +19912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>722</v>
       </c>
@@ -19939,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>723</v>
       </c>
@@ -19963,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>724</v>
       </c>
@@ -19987,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>725</v>
       </c>
@@ -20011,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>726</v>
       </c>
@@ -20035,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>727</v>
       </c>
@@ -20059,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>728</v>
       </c>
@@ -20083,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>729</v>
       </c>
@@ -20107,7 +20104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>730</v>
       </c>
@@ -20131,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>731</v>
       </c>
@@ -20155,7 +20152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>732</v>
       </c>
@@ -20179,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>733</v>
       </c>
@@ -20203,7 +20200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>734</v>
       </c>
@@ -20227,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>735</v>
       </c>
@@ -20251,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>736</v>
       </c>
@@ -20275,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>737</v>
       </c>
@@ -20299,7 +20296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>738</v>
       </c>
@@ -20323,7 +20320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>739</v>
       </c>
@@ -20347,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>740</v>
       </c>
@@ -20371,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>741</v>
       </c>
@@ -20395,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>742</v>
       </c>
@@ -20419,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>743</v>
       </c>
@@ -20443,7 +20440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>744</v>
       </c>
@@ -20467,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>745</v>
       </c>
@@ -20491,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>746</v>
       </c>
@@ -20515,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>747</v>
       </c>
@@ -20539,7 +20536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>748</v>
       </c>
@@ -20563,7 +20560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>749</v>
       </c>
@@ -20587,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>750</v>
       </c>
@@ -20611,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>751</v>
       </c>
@@ -20635,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>752</v>
       </c>
@@ -20659,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>753</v>
       </c>
@@ -20683,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>754</v>
       </c>
@@ -20707,7 +20704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>755</v>
       </c>
@@ -20731,7 +20728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>756</v>
       </c>
@@ -20755,7 +20752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>757</v>
       </c>
@@ -20779,7 +20776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>758</v>
       </c>
@@ -20803,7 +20800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>759</v>
       </c>
@@ -20827,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>760</v>
       </c>
@@ -20851,7 +20848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>761</v>
       </c>
@@ -20875,7 +20872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>763</v>
       </c>
@@ -20899,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>764</v>
       </c>
@@ -20923,7 +20920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>765</v>
       </c>
@@ -20947,7 +20944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>766</v>
       </c>
@@ -20971,7 +20968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>767</v>
       </c>
@@ -20995,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>768</v>
       </c>
@@ -21019,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>769</v>
       </c>
@@ -21043,7 +21040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>770</v>
       </c>
@@ -21067,7 +21064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>771</v>
       </c>
@@ -21091,7 +21088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>772</v>
       </c>
@@ -21115,7 +21112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>773</v>
       </c>
@@ -21139,7 +21136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>775</v>
       </c>
@@ -21163,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>776</v>
       </c>
@@ -21187,7 +21184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>777</v>
       </c>
@@ -21211,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>778</v>
       </c>
@@ -21235,7 +21232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>779</v>
       </c>
@@ -21259,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>780</v>
       </c>
@@ -21283,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>781</v>
       </c>
@@ -21307,7 +21304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>782</v>
       </c>
@@ -21331,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>783</v>
       </c>
@@ -21355,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>784</v>
       </c>
@@ -21379,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>785</v>
       </c>
@@ -21403,7 +21400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>786</v>
       </c>
@@ -21427,7 +21424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>787</v>
       </c>
@@ -21451,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>788</v>
       </c>
@@ -21475,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>789</v>
       </c>
@@ -21499,7 +21496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>790</v>
       </c>
@@ -21523,7 +21520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>791</v>
       </c>
@@ -21547,7 +21544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>792</v>
       </c>
@@ -21571,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>793</v>
       </c>
@@ -21595,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>794</v>
       </c>
@@ -21619,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>795</v>
       </c>
@@ -21643,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>796</v>
       </c>
@@ -21667,7 +21664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>797</v>
       </c>
@@ -21691,7 +21688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>798</v>
       </c>
@@ -21715,7 +21712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>799</v>
       </c>
@@ -21739,7 +21736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>800</v>
       </c>
@@ -21763,7 +21760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>801</v>
       </c>
@@ -21787,7 +21784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>802</v>
       </c>
@@ -21811,7 +21808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>803</v>
       </c>
@@ -21835,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>804</v>
       </c>
@@ -21859,7 +21856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>805</v>
       </c>
@@ -21883,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>806</v>
       </c>
@@ -21907,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>807</v>
       </c>
@@ -21931,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>808</v>
       </c>
@@ -21955,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>809</v>
       </c>
@@ -21979,7 +21976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>810</v>
       </c>
@@ -22003,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>811</v>
       </c>
@@ -22027,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>812</v>
       </c>
@@ -22051,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>813</v>
       </c>
@@ -22075,7 +22072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>814</v>
       </c>
@@ -22099,7 +22096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>815</v>
       </c>
@@ -22123,7 +22120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>816</v>
       </c>
@@ -22147,7 +22144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>817</v>
       </c>
@@ -22171,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>818</v>
       </c>
@@ -22195,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>819</v>
       </c>
@@ -22219,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>820</v>
       </c>
@@ -22243,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>821</v>
       </c>
@@ -22267,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>822</v>
       </c>
@@ -22291,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>823</v>
       </c>
@@ -22315,7 +22312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>824</v>
       </c>
@@ -22339,7 +22336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>825</v>
       </c>
@@ -22363,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>826</v>
       </c>
@@ -22387,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>827</v>
       </c>
@@ -22411,7 +22408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>828</v>
       </c>
@@ -22435,7 +22432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>829</v>
       </c>
@@ -22459,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>830</v>
       </c>
@@ -22483,7 +22480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>831</v>
       </c>
@@ -22507,7 +22504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>832</v>
       </c>
@@ -22531,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>833</v>
       </c>
@@ -22555,7 +22552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>834</v>
       </c>
@@ -22579,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>835</v>
       </c>
@@ -22603,7 +22600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>836</v>
       </c>
@@ -22627,7 +22624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>837</v>
       </c>
@@ -22651,7 +22648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>839</v>
       </c>
@@ -22675,7 +22672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>840</v>
       </c>
@@ -22699,7 +22696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>841</v>
       </c>
@@ -22720,7 +22717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>842</v>
       </c>
@@ -22744,7 +22741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>843</v>
       </c>
@@ -22768,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>844</v>
       </c>
@@ -22792,7 +22789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>845</v>
       </c>
@@ -22816,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>846</v>
       </c>
@@ -22840,7 +22837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>847</v>
       </c>
@@ -22864,7 +22861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>848</v>
       </c>
@@ -22888,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>849</v>
       </c>
@@ -22912,7 +22909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>850</v>
       </c>
@@ -22936,7 +22933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>851</v>
       </c>
@@ -22960,7 +22957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>852</v>
       </c>
@@ -22984,7 +22981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>854</v>
       </c>
@@ -23008,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>855</v>
       </c>
@@ -23032,7 +23029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>856</v>
       </c>
@@ -23056,7 +23053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>857</v>
       </c>
@@ -23080,7 +23077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>858</v>
       </c>
@@ -23104,7 +23101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>859</v>
       </c>
@@ -23128,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>860</v>
       </c>
@@ -23152,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>861</v>
       </c>
@@ -23176,7 +23173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>862</v>
       </c>
@@ -23200,7 +23197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>863</v>
       </c>
@@ -23224,7 +23221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>864</v>
       </c>
@@ -23248,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>865</v>
       </c>
@@ -23272,7 +23269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>866</v>
       </c>
@@ -23296,7 +23293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>867</v>
       </c>
@@ -23320,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>868</v>
       </c>
@@ -23344,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>869</v>
       </c>
@@ -23368,7 +23365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>871</v>
       </c>
@@ -23392,7 +23389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>872</v>
       </c>
@@ -23416,7 +23413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>873</v>
       </c>
@@ -23440,7 +23437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>874</v>
       </c>
@@ -23464,7 +23461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>875</v>
       </c>
@@ -23488,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>876</v>
       </c>
@@ -23512,7 +23509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>877</v>
       </c>
@@ -23536,7 +23533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>878</v>
       </c>
@@ -23560,7 +23557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>880</v>
       </c>
@@ -23584,7 +23581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>881</v>
       </c>
@@ -23608,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>882</v>
       </c>
@@ -23632,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>883</v>
       </c>
@@ -23656,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>884</v>
       </c>
@@ -23680,7 +23677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>885</v>
       </c>
@@ -23704,7 +23701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>886</v>
       </c>
@@ -23728,7 +23725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>887</v>
       </c>
@@ -23752,7 +23749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>888</v>
       </c>
@@ -23776,7 +23773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>889</v>
       </c>
@@ -23800,7 +23797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>890</v>
       </c>
@@ -23824,7 +23821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>891</v>
       </c>
@@ -23848,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>892</v>
       </c>
@@ -23872,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>893</v>
       </c>
@@ -23896,7 +23893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>895</v>
       </c>
@@ -23920,7 +23917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>897</v>
       </c>
@@ -23944,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>898</v>
       </c>
@@ -23968,7 +23965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>899</v>
       </c>
@@ -23992,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>900</v>
       </c>
@@ -24016,7 +24013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>901</v>
       </c>
@@ -24040,7 +24037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>902</v>
       </c>
@@ -24064,7 +24061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>903</v>
       </c>
@@ -24088,7 +24085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>904</v>
       </c>
@@ -24112,7 +24109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>905</v>
       </c>
@@ -24136,7 +24133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>906</v>
       </c>
@@ -24160,7 +24157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>907</v>
       </c>
@@ -24184,7 +24181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>908</v>
       </c>
@@ -24208,7 +24205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>909</v>
       </c>
@@ -24232,7 +24229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>910</v>
       </c>
@@ -24256,7 +24253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>911</v>
       </c>
@@ -24280,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>912</v>
       </c>
@@ -24304,7 +24301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>913</v>
       </c>
@@ -24328,7 +24325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>914</v>
       </c>
@@ -24352,7 +24349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>915</v>
       </c>
@@ -24376,7 +24373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>916</v>
       </c>
@@ -24400,7 +24397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>917</v>
       </c>
@@ -24424,7 +24421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>918</v>
       </c>
@@ -24448,7 +24445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>919</v>
       </c>
@@ -24472,7 +24469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>920</v>
       </c>
@@ -24496,7 +24493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>921</v>
       </c>
@@ -24520,7 +24517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>922</v>
       </c>
@@ -24544,7 +24541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>923</v>
       </c>
@@ -24568,7 +24565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>924</v>
       </c>
@@ -24592,7 +24589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>925</v>
       </c>
@@ -24616,7 +24613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>926</v>
       </c>
@@ -24640,7 +24637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>927</v>
       </c>
@@ -24664,7 +24661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>928</v>
       </c>
@@ -24688,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>929</v>
       </c>
@@ -24712,7 +24709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>930</v>
       </c>
@@ -24736,7 +24733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>931</v>
       </c>
@@ -24760,7 +24757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>932</v>
       </c>
@@ -24784,7 +24781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>933</v>
       </c>
@@ -24808,7 +24805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>934</v>
       </c>
@@ -24832,7 +24829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>935</v>
       </c>
@@ -24856,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>936</v>
       </c>
@@ -24880,7 +24877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>937</v>
       </c>
@@ -24904,7 +24901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>938</v>
       </c>
@@ -24928,7 +24925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>939</v>
       </c>
@@ -24952,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>940</v>
       </c>
@@ -24976,7 +24973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>941</v>
       </c>
@@ -25000,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>942</v>
       </c>
@@ -25024,7 +25021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>943</v>
       </c>
@@ -25048,7 +25045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>944</v>
       </c>
@@ -25072,7 +25069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>945</v>
       </c>
@@ -25096,7 +25093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>946</v>
       </c>
@@ -25120,7 +25117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>947</v>
       </c>
@@ -25144,7 +25141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>949</v>
       </c>
@@ -25168,7 +25165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>950</v>
       </c>
@@ -25192,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>951</v>
       </c>
@@ -25216,7 +25213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>952</v>
       </c>
@@ -25240,7 +25237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>953</v>
       </c>
@@ -25264,7 +25261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>954</v>
       </c>
@@ -25288,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>955</v>
       </c>
@@ -25312,7 +25309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>956</v>
       </c>
@@ -25336,7 +25333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>957</v>
       </c>
@@ -25360,7 +25357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>958</v>
       </c>
@@ -25384,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>959</v>
       </c>
@@ -25408,7 +25405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>960</v>
       </c>
@@ -25432,7 +25429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>961</v>
       </c>
@@ -25456,7 +25453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>962</v>
       </c>
@@ -25480,7 +25477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>963</v>
       </c>
@@ -25504,7 +25501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>964</v>
       </c>
@@ -25528,7 +25525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>965</v>
       </c>
@@ -25552,7 +25549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>967</v>
       </c>
@@ -25576,7 +25573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>968</v>
       </c>
@@ -25600,7 +25597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>969</v>
       </c>
@@ -25624,7 +25621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>970</v>
       </c>
@@ -25648,7 +25645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>971</v>
       </c>
@@ -25672,7 +25669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>972</v>
       </c>
@@ -25696,7 +25693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>973</v>
       </c>
@@ -25720,7 +25717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>974</v>
       </c>
@@ -25744,7 +25741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>975</v>
       </c>
@@ -25768,7 +25765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>976</v>
       </c>
@@ -25792,7 +25789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>977</v>
       </c>
@@ -25816,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>978</v>
       </c>
@@ -25840,7 +25837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>979</v>
       </c>
@@ -25864,7 +25861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>980</v>
       </c>
@@ -25888,7 +25885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>981</v>
       </c>
@@ -25912,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>982</v>
       </c>
@@ -25936,7 +25933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>983</v>
       </c>
@@ -25960,7 +25957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>984</v>
       </c>
@@ -25984,7 +25981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>985</v>
       </c>
@@ -26008,7 +26005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>986</v>
       </c>
@@ -26032,7 +26029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>987</v>
       </c>
@@ -26056,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>988</v>
       </c>
@@ -26080,7 +26077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>989</v>
       </c>
@@ -26104,7 +26101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>990</v>
       </c>
@@ -26128,7 +26125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>991</v>
       </c>
@@ -26152,7 +26149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>992</v>
       </c>
@@ -26176,7 +26173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>993</v>
       </c>
@@ -26200,7 +26197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>994</v>
       </c>
@@ -26224,7 +26221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>995</v>
       </c>
@@ -26248,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>996</v>
       </c>
@@ -26272,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>997</v>
       </c>
@@ -26296,7 +26293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>998</v>
       </c>
@@ -26320,7 +26317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>999</v>
       </c>
@@ -26344,7 +26341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1000</v>
       </c>
@@ -26368,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1001</v>
       </c>
@@ -26392,7 +26389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1002</v>
       </c>
@@ -26416,7 +26413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1003</v>
       </c>
@@ -26440,7 +26437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1004</v>
       </c>
@@ -26464,7 +26461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1005</v>
       </c>
@@ -26488,7 +26485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1006</v>
       </c>
@@ -26512,7 +26509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1007</v>
       </c>
@@ -26536,7 +26533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1008</v>
       </c>
@@ -26560,7 +26557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1009</v>
       </c>
@@ -26584,7 +26581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1010</v>
       </c>
@@ -26608,7 +26605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1011</v>
       </c>
@@ -26632,7 +26629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1013</v>
       </c>
@@ -26656,7 +26653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1014</v>
       </c>
@@ -26680,7 +26677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1015</v>
       </c>
@@ -26704,7 +26701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1016</v>
       </c>
@@ -26728,7 +26725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1018</v>
       </c>
@@ -26752,7 +26749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1019</v>
       </c>
@@ -26776,7 +26773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1020</v>
       </c>
@@ -26800,7 +26797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1021</v>
       </c>
@@ -26824,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1022</v>
       </c>
@@ -26848,7 +26845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1023</v>
       </c>
@@ -26872,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1024</v>
       </c>
@@ -26896,7 +26893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1025</v>
       </c>
@@ -26920,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1026</v>
       </c>
@@ -26944,7 +26941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1027</v>
       </c>
@@ -26968,7 +26965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1028</v>
       </c>
@@ -26992,7 +26989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1029</v>
       </c>
@@ -27016,7 +27013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1030</v>
       </c>
@@ -27040,7 +27037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1031</v>
       </c>
@@ -27064,7 +27061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1032</v>
       </c>
@@ -27088,7 +27085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1033</v>
       </c>
@@ -27112,7 +27109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1034</v>
       </c>
@@ -27136,7 +27133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1035</v>
       </c>
@@ -27160,7 +27157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1036</v>
       </c>
@@ -27184,7 +27181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1037</v>
       </c>
@@ -27208,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1038</v>
       </c>
@@ -27232,7 +27229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1039</v>
       </c>
@@ -27256,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1040</v>
       </c>
@@ -27280,7 +27277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1041</v>
       </c>
@@ -27304,7 +27301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1042</v>
       </c>
@@ -27328,7 +27325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1043</v>
       </c>
@@ -27352,7 +27349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1044</v>
       </c>
@@ -27376,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1045</v>
       </c>
@@ -27397,7 +27394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1046</v>
       </c>
@@ -27421,7 +27418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1047</v>
       </c>
@@ -27445,7 +27442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1048</v>
       </c>
@@ -27469,7 +27466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1049</v>
       </c>
@@ -27493,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1050</v>
       </c>
@@ -27517,7 +27514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1051</v>
       </c>
@@ -27541,7 +27538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1052</v>
       </c>
@@ -27565,7 +27562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1053</v>
       </c>
@@ -27589,7 +27586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1054</v>
       </c>
@@ -27613,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1055</v>
       </c>
@@ -27637,7 +27634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1056</v>
       </c>
@@ -27661,7 +27658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1057</v>
       </c>
@@ -27685,7 +27682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1058</v>
       </c>
@@ -27709,7 +27706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1059</v>
       </c>
@@ -27733,7 +27730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1060</v>
       </c>
@@ -27757,7 +27754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1061</v>
       </c>
@@ -27781,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1062</v>
       </c>
@@ -27805,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1063</v>
       </c>
@@ -27829,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1064</v>
       </c>
@@ -27853,7 +27850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1065</v>
       </c>
@@ -27877,7 +27874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1066</v>
       </c>
@@ -27901,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1068</v>
       </c>
@@ -27925,7 +27922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1069</v>
       </c>
@@ -27949,7 +27946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1070</v>
       </c>
@@ -27973,7 +27970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1071</v>
       </c>
@@ -27997,7 +27994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1072</v>
       </c>
@@ -28021,7 +28018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1073</v>
       </c>
@@ -28045,7 +28042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1074</v>
       </c>
@@ -28069,7 +28066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1075</v>
       </c>
@@ -28093,7 +28090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1076</v>
       </c>
@@ -28117,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1077</v>
       </c>
@@ -28141,7 +28138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1078</v>
       </c>
@@ -28165,7 +28162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1079</v>
       </c>
@@ -28189,7 +28186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1080</v>
       </c>
@@ -28213,7 +28210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1082</v>
       </c>
@@ -28237,7 +28234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1083</v>
       </c>
@@ -28261,7 +28258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1084</v>
       </c>
@@ -28285,7 +28282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1085</v>
       </c>
@@ -28309,7 +28306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1086</v>
       </c>
@@ -28333,7 +28330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1087</v>
       </c>
@@ -28357,7 +28354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1088</v>
       </c>
@@ -28381,7 +28378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1089</v>
       </c>
@@ -28405,7 +28402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1090</v>
       </c>
@@ -28429,7 +28426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1091</v>
       </c>
@@ -28453,7 +28450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1092</v>
       </c>
@@ -28477,7 +28474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1093</v>
       </c>
@@ -28501,7 +28498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1094</v>
       </c>
@@ -28525,7 +28522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1095</v>
       </c>
@@ -28549,7 +28546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1096</v>
       </c>
@@ -28573,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1097</v>
       </c>
@@ -28597,7 +28594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1098</v>
       </c>
@@ -28621,7 +28618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1099</v>
       </c>
@@ -28645,7 +28642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1100</v>
       </c>
@@ -28669,7 +28666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1101</v>
       </c>
@@ -28693,7 +28690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1102</v>
       </c>
@@ -28717,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1103</v>
       </c>
@@ -28741,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1104</v>
       </c>
@@ -28765,7 +28762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1105</v>
       </c>
@@ -28789,7 +28786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1106</v>
       </c>
@@ -28813,7 +28810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1107</v>
       </c>
@@ -28837,7 +28834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1108</v>
       </c>
@@ -28861,7 +28858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1109</v>
       </c>
@@ -28921,7 +28918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1111</v>
       </c>
@@ -28945,7 +28942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1113</v>
       </c>
@@ -28969,7 +28966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1114</v>
       </c>
@@ -28993,7 +28990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1116</v>
       </c>
@@ -29017,7 +29014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1117</v>
       </c>
@@ -29041,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1118</v>
       </c>
@@ -29065,7 +29062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1119</v>
       </c>
@@ -29089,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1120</v>
       </c>
@@ -29113,7 +29110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1121</v>
       </c>
@@ -29137,7 +29134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1122</v>
       </c>
@@ -29161,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1123</v>
       </c>
@@ -29185,7 +29182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1124</v>
       </c>
@@ -29209,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1125</v>
       </c>
@@ -29233,7 +29230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1126</v>
       </c>
@@ -29257,7 +29254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1127</v>
       </c>
@@ -29281,7 +29278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1128</v>
       </c>
@@ -29305,7 +29302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1129</v>
       </c>
@@ -29424,15 +29421,15 @@
       </c>
       <c r="C5">
         <f>COUNTIFS(Problems!B:B,"Hard",Problems!F:F,"Solved")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>COUNTIFS(Problems!B:B,"Hard",Problems!F:F,"Not Started")</f>
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="4">
         <f>IF(B5&gt;0,C5/B5,0)</f>
-        <v>0</v>
+        <v>3.5587188612099642E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -29445,15 +29442,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E6" s="4">
         <f>IF(B6&gt;0,C6/B6,0)</f>
-        <v>2.2160664819944598E-2</v>
+        <v>2.3084025854108958E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29478,7 +29475,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:C18" si="0">B10/$B$18</f>
-        <v>0.2857142857142857</v>
+        <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29491,7 +29488,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29500,11 +29497,11 @@
       </c>
       <c r="B12">
         <f>COUNTA(Problems[Rust])</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
+        <v>0.40350877192982454</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29517,7 +29514,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>5.3571428571428568E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -29530,7 +29527,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>8.9285714285714288E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29543,7 +29540,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -29556,7 +29553,7 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>5.3571428571428568E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29569,7 +29566,7 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -29578,7 +29575,7 @@
       </c>
       <c r="B18">
         <f>SUM(B10:B17)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>

--- a/daily_coding_problems.xlsx
+++ b/daily_coding_problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/broderickschipp/Documents/Obsidian Vault/Daily Coding Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D65CC-41C8-6F44-8C33-AAE46DCBBD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844723DD-B4AD-294C-9DA0-10637C404C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="856">
   <si>
     <t>Problem #</t>
   </si>
@@ -2747,7 +2747,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9113E3AB-9A94-8748-8F61-9409DC6182C2}" name="Problems" displayName="Problems" ref="A1:O385" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:O385" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O385" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Easy"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Started"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{54C7E216-905B-6F41-86EB-AA874697E079}" name="Problem #"/>
     <tableColumn id="2" xr3:uid="{8B490E7E-7D92-AF45-862C-1DA57ACC6850}" name="Difficulty"/>
@@ -3059,8 +3070,8 @@
   <dimension ref="A1:O385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F386" sqref="F386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3070,7 +3081,8 @@
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="14" width="12" customWidth="1"/>
+    <col min="7" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3121,7 +3133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3193,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3271,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3349,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3421,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3445,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3469,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3496,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3520,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3544,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3619,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3643,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3801,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3869,14 +3881,17 @@
         <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="J31" s="5">
+        <v>46041</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3900,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3924,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3948,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3972,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3996,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4029,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4053,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4077,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4101,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4125,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4149,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4183,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4207,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4231,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4255,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4289,7 +4304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4349,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4376,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4400,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4424,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4451,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4475,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4499,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4523,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4547,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4571,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4595,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4619,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4643,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
     